--- a/dev/ML_model_performance.xlsx
+++ b/dev/ML_model_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828F358-7E8D-441B-B7D6-46CD1EAE2007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE14EB-7173-4504-9A3B-47879B16D051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="2400" windowWidth="21225" windowHeight="12045" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,16 +337,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -359,6 +353,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2511,6 +2511,473 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.91479999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CA8-455B-955B-70CEEF92EC5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1124727360"/>
+        <c:axId val="1124727776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1124727360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1124727776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124727360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8485,6 +8952,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9838,6 +10345,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14901,6 +15924,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B5871E-FF35-475F-B149-FFCBE18A0149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15201,10 +16260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
-  <dimension ref="B1:AP95"/>
+  <dimension ref="B1:AP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15223,56 +16282,46 @@
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" customWidth="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="17" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="17"/>
+    <col min="25" max="25" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="17"/>
+    <col min="28" max="28" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="9.140625" style="17"/>
+    <col min="40" max="40" width="11.140625" style="17" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="17"/>
+    <col min="42" max="42" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="W1" s="18" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="W1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -15316,55 +16365,47 @@
         <f t="shared" ref="N2" si="3">G2</f>
         <v>Total Params</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18" t="str">
+      <c r="AE2" s="17" t="str">
         <f>X2</f>
         <v>Epochs</v>
       </c>
-      <c r="AF2" s="18" t="str">
+      <c r="AF2" s="17" t="str">
         <f t="shared" ref="AF2:AI2" si="4">Y2</f>
         <v>Accuracy (train)</v>
       </c>
-      <c r="AG2" s="18" t="str">
+      <c r="AG2" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Accuracy (val)</v>
       </c>
-      <c r="AH2" s="18" t="str">
+      <c r="AH2" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Time (s)</v>
       </c>
-      <c r="AI2" s="18" t="str">
+      <c r="AI2" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Total Params</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
@@ -15389,53 +16430,45 @@
         <v>81</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f>AD3</f>
+        <f t="shared" ref="I3:I32" si="5">AD3</f>
         <v>model_rgb_16</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="W3" s="20">
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="W3" s="18">
         <v>1</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="19">
         <v>9</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Y3" s="19">
         <v>0.9042</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="19">
         <v>0.9264</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="19">
         <v>2495</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="19">
         <v>81</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="19">
         <v>81</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
@@ -15460,7 +16493,7 @@
         <v>641</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f>AD4</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_32</v>
       </c>
       <c r="Q4" t="s">
@@ -15478,50 +16511,43 @@
       <c r="U4" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="21">
         <v>2</v>
       </c>
-      <c r="X4" s="24">
+      <c r="X4" s="22">
         <v>9</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="22">
         <v>0.93600000000000005</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="22">
         <v>0.9365</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="22">
         <v>3111</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="22">
         <v>641</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AC4" s="22">
         <v>641</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18" t="s">
+      <c r="AL4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AM4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AN4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AO4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="18" t="s">
+      <c r="AP4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15548,7 +16574,7 @@
         <v>2785</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f>AD5</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_32_64</v>
       </c>
       <c r="Q5">
@@ -15559,7 +16585,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:S10" si="5">AVERAGE(D3,D9,D15)</f>
+        <f t="shared" ref="S5:S10" si="6">AVERAGE(D3,D9,D15)</f>
         <v>0.9206333333333333</v>
       </c>
       <c r="T5" s="3">
@@ -15570,53 +16596,46 @@
         <f>AVERAGE(G3,G9,G15)</f>
         <v>155.66666666666666</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="21">
         <v>3</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="22">
         <v>7</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="22">
         <v>0.93659999999999999</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="22">
         <v>0.93679999999999997</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="22">
         <v>2933</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="22">
         <v>2785</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="22">
         <v>2785</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18">
+      <c r="AL5" s="17">
         <v>1</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AM5" s="24">
         <f>AVERAGE(X3,X9,X15)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="AN5" s="27">
-        <f t="shared" ref="AN5:AN10" si="6">AVERAGE(Y3,Y9,Y15)</f>
+      <c r="AN5" s="25">
+        <f t="shared" ref="AN5:AN10" si="7">AVERAGE(Y3,Y9,Y15)</f>
         <v>0.91473333333333329</v>
       </c>
-      <c r="AO5" s="28">
+      <c r="AO5" s="26">
         <f>AVERAGE(AA3,AA9,AA15)</f>
         <v>2374.6666666666665</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AP5" s="26">
         <f>AVERAGE(AB3,AB9,AB15)</f>
         <v>155.66666666666666</v>
       </c>
@@ -15644,76 +16663,69 @@
         <v>11169</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f>AD6</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128</v>
       </c>
       <c r="Q6">
         <v>2</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R8" si="7">AVERAGE(C4,C10,C16)</f>
+        <f t="shared" ref="R6:R8" si="8">AVERAGE(C4,C10,C16)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93956666666666655</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T10" si="8">AVERAGE(F4,F10,F16)</f>
+        <f t="shared" ref="T6:T10" si="9">AVERAGE(F4,F10,F16)</f>
         <v>865.66666666666663</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" ref="U6:U10" si="9">AVERAGE(G4,G10,G16)</f>
+        <f t="shared" ref="U6:U10" si="10">AVERAGE(G4,G10,G16)</f>
         <v>715.66666666666663</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="21">
         <v>4</v>
       </c>
-      <c r="X6" s="24">
+      <c r="X6" s="22">
         <v>7</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="Y6" s="22">
         <v>0.93669999999999998</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="22">
         <v>0.93720000000000003</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="22">
         <v>3343</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="22">
         <v>11169</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="22">
         <v>11169</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18">
+      <c r="AL6" s="17">
         <v>2</v>
       </c>
-      <c r="AM6" s="26">
-        <f t="shared" ref="AM6:AM10" si="10">AVERAGE(X4,X10,X16)</f>
+      <c r="AM6" s="24">
+        <f t="shared" ref="AM6:AM10" si="11">AVERAGE(X4,X10,X16)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AN6" s="27">
-        <f t="shared" si="6"/>
+      <c r="AN6" s="25">
+        <f t="shared" si="7"/>
         <v>0.93659999999999999</v>
       </c>
-      <c r="AO6" s="28">
-        <f t="shared" ref="AO6:AP10" si="11">AVERAGE(AA4,AA10,AA16)</f>
+      <c r="AO6" s="26">
+        <f t="shared" ref="AO6:AP10" si="12">AVERAGE(AA4,AA10,AA16)</f>
         <v>2348.6666666666665</v>
       </c>
-      <c r="AP6" s="28">
-        <f t="shared" si="11"/>
+      <c r="AP6" s="26">
+        <f t="shared" si="12"/>
         <v>715.66666666666663</v>
       </c>
     </row>
@@ -15740,76 +16752,69 @@
         <v>44321</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f>AD7</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128_256</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.94016666666666671</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="9"/>
+        <v>795.33333333333337</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="10"/>
+        <v>2859.6666666666665</v>
+      </c>
+      <c r="W7" s="21">
+        <v>5</v>
+      </c>
+      <c r="X7" s="22">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>3602</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>44321</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>44321</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="24">
+        <f t="shared" si="11"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AN7" s="25">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="5"/>
-        <v>0.94016666666666671</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="8"/>
-        <v>795.33333333333337</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="9"/>
-        <v>2859.6666666666665</v>
-      </c>
-      <c r="W7" s="23">
-        <v>5</v>
-      </c>
-      <c r="X7" s="24">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>3602</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>44321</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>44321</v>
-      </c>
-      <c r="AD7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="26">
-        <f t="shared" si="10"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="AN7" s="27">
-        <f t="shared" si="6"/>
         <v>0.93699999999999994</v>
       </c>
-      <c r="AO7" s="28">
-        <f t="shared" si="11"/>
+      <c r="AO7" s="26">
+        <f t="shared" si="12"/>
         <v>2423.3333333333335</v>
       </c>
-      <c r="AP7" s="28">
-        <f t="shared" si="11"/>
+      <c r="AP7" s="26">
+        <f t="shared" si="12"/>
         <v>2859.6666666666665</v>
       </c>
     </row>
@@ -15836,7 +16841,7 @@
         <v>176161</v>
       </c>
       <c r="I8" s="12" t="str">
-        <f>AD8</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128_256_512</v>
       </c>
       <c r="J8" s="1">
@@ -15844,103 +16849,101 @@
         <v>7.666666666666667</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ref="K8" si="12">AVERAGE(D3:D8)</f>
+        <f t="shared" ref="K8" si="13">AVERAGE(D3:D8)</f>
         <v>0.93553333333333333</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ref="L8" si="13">AVERAGE(E3:E8)</f>
+        <f t="shared" ref="L8" si="14">AVERAGE(E3:E8)</f>
         <v>0.93533333333333335</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8" si="14">AVERAGE(F3:F8)</f>
+        <f t="shared" ref="M8" si="15">AVERAGE(F3:F8)</f>
         <v>635</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8" si="15">AVERAGE(G3:G8)</f>
+        <f t="shared" ref="N8" si="16">AVERAGE(G3:G8)</f>
         <v>39193</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94056666666666666</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1057.3333333333333</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11243.666666666666</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="27">
         <v>6</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="28">
         <v>7</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="28">
         <v>0.93679999999999997</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="28">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="28">
         <v>3837</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="28">
         <v>176161</v>
       </c>
-      <c r="AC8" s="30">
+      <c r="AC8" s="28">
         <v>176161</v>
       </c>
-      <c r="AD8" s="31" t="s">
+      <c r="AD8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="24">
         <f>AVERAGE(X3:X8)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AF8" s="27">
-        <f t="shared" ref="AF8:AI8" si="16">AVERAGE(Y3:Y8)</f>
+      <c r="AF8" s="25">
+        <f t="shared" ref="AF8:AI8" si="17">AVERAGE(Y3:Y8)</f>
         <v>0.93116666666666659</v>
       </c>
-      <c r="AG8" s="27">
-        <f t="shared" si="16"/>
+      <c r="AG8" s="25">
+        <f t="shared" si="17"/>
         <v>0.93498333333333339</v>
       </c>
-      <c r="AH8" s="28">
-        <f t="shared" si="16"/>
+      <c r="AH8" s="26">
+        <f t="shared" si="17"/>
         <v>3220.1666666666665</v>
       </c>
-      <c r="AI8" s="28">
-        <f t="shared" si="16"/>
+      <c r="AI8" s="26">
+        <f t="shared" si="17"/>
         <v>39193</v>
       </c>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18">
+      <c r="AL8" s="17">
         <v>4</v>
       </c>
-      <c r="AM8" s="26">
-        <f t="shared" si="10"/>
+      <c r="AM8" s="24">
+        <f t="shared" si="11"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AN8" s="27">
-        <f t="shared" si="6"/>
+      <c r="AN8" s="25">
+        <f t="shared" si="7"/>
         <v>0.9376000000000001</v>
       </c>
-      <c r="AO8" s="28">
-        <f t="shared" si="11"/>
+      <c r="AO8" s="26">
+        <f t="shared" si="12"/>
         <v>3245.6666666666665</v>
       </c>
-      <c r="AP8" s="28">
-        <f t="shared" si="11"/>
+      <c r="AP8" s="26">
+        <f t="shared" si="12"/>
         <v>11243.666666666666</v>
       </c>
     </row>
@@ -15967,7 +16970,7 @@
         <v>145</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f>AD9</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16</v>
       </c>
       <c r="J9" s="1"/>
@@ -15983,65 +16986,63 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94099999999999995</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1216</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44395.666666666664</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="18">
         <v>1</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="19">
         <v>7</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="19">
         <v>0.91159999999999997</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="19">
         <v>0.91890000000000005</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="19">
         <v>1541</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="19">
         <v>145</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="19">
         <v>145</v>
       </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AL9" s="17">
         <v>5</v>
       </c>
-      <c r="AM9" s="26">
+      <c r="AM9" s="24">
         <f>AVERAGE(X7,X13,X19)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AN9" s="27">
-        <f t="shared" si="6"/>
+      <c r="AN9" s="25">
+        <f t="shared" si="7"/>
         <v>0.93769999999999998</v>
       </c>
-      <c r="AO9" s="28">
-        <f t="shared" si="11"/>
+      <c r="AO9" s="26">
+        <f t="shared" si="12"/>
         <v>2761.6666666666665</v>
       </c>
-      <c r="AP9" s="28">
-        <f t="shared" si="11"/>
+      <c r="AP9" s="26">
+        <f t="shared" si="12"/>
         <v>44395.666666666664</v>
       </c>
     </row>
@@ -16068,7 +17069,7 @@
         <v>705</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f>AD10</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32</v>
       </c>
       <c r="J10" s="1"/>
@@ -16080,69 +17081,67 @@
         <v>6</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ref="R10" si="17">AVERAGE(C8,C14,C20)</f>
+        <f t="shared" ref="R10" si="18">AVERAGE(C8,C14,C20)</f>
         <v>9</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9408333333333333</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1130</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176235.66666666666</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="21">
         <v>2</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X10" s="22">
         <v>7</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y10" s="22">
         <v>0.93679999999999997</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10" s="22">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="22">
         <v>1514</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="22">
         <v>705</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="22">
         <v>705</v>
       </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18">
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AL10" s="17">
         <v>6</v>
       </c>
-      <c r="AM10" s="26">
-        <f t="shared" si="10"/>
+      <c r="AM10" s="24">
+        <f t="shared" si="11"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="AN10" s="27">
-        <f t="shared" si="6"/>
+      <c r="AN10" s="25">
+        <f t="shared" si="7"/>
         <v>0.9375</v>
       </c>
-      <c r="AO10" s="28">
-        <f t="shared" si="11"/>
+      <c r="AO10" s="26">
+        <f t="shared" si="12"/>
         <v>2823.6666666666665</v>
       </c>
-      <c r="AP10" s="28">
-        <f t="shared" si="11"/>
+      <c r="AP10" s="26">
+        <f t="shared" si="12"/>
         <v>176235.66666666666</v>
       </c>
     </row>
@@ -16169,7 +17168,7 @@
         <v>2849</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f>AD11</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32_64</v>
       </c>
       <c r="J11" s="1"/>
@@ -16177,42 +17176,35 @@
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="W11" s="23">
+      <c r="W11" s="21">
         <v>3</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="22">
         <v>7</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="Y11" s="22">
         <v>0.93720000000000003</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="22">
         <v>0.93740000000000001</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="22">
         <v>1556</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="22">
         <v>2849</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="22">
         <v>2849</v>
       </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
@@ -16237,7 +17229,7 @@
         <v>11233</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f>AD12</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32_64_128</v>
       </c>
       <c r="J12" s="1"/>
@@ -16261,57 +17253,55 @@
         <v>630.75</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="T12:U14" si="18">AVERAGE(G21,G24,G27,G30)</f>
+        <f t="shared" ref="T12:U14" si="19">AVERAGE(G21,G24,G27,G30)</f>
         <v>319</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="21">
         <v>4</v>
       </c>
-      <c r="X12" s="24">
+      <c r="X12" s="22">
         <v>7</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="Y12" s="22">
         <v>0.9375</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="22">
         <v>0.93759999999999999</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="22">
         <v>1534</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="22">
         <v>11233</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="22">
         <v>11233</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18" t="s">
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AL12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AM12" s="26">
+      <c r="AM12" s="24">
         <f>AVERAGE(X21,X24,X27,X30)</f>
         <v>10.25</v>
       </c>
-      <c r="AN12" s="26">
+      <c r="AN12" s="24">
         <f>AVERAGE(Y21,Y24,Y27,Y30)</f>
         <v>0.93254999999999999</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AO12" s="24">
         <f>AVERAGE(AA21,AA24,AA27,AA30)</f>
         <v>1948.5</v>
       </c>
-      <c r="AP12" s="26">
-        <f t="shared" ref="AP12:AP14" si="19">AVERAGE(AB21,AB24,AB27,AB30)</f>
+      <c r="AP12" s="24">
+        <f t="shared" ref="AP12:AP14" si="20">AVERAGE(AB21,AB24,AB27,AB30)</f>
         <v>319</v>
       </c>
     </row>
@@ -16338,7 +17328,7 @@
         <v>44385</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f>AD13</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="J13" s="1"/>
@@ -16350,69 +17340,67 @@
         <v>44</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:S13" si="20">AVERAGE(C22,C25,C28,C31)</f>
+        <f t="shared" ref="R13:S13" si="21">AVERAGE(C22,C25,C28,C31)</f>
         <v>8</v>
       </c>
       <c r="S13" s="1">
+        <f t="shared" si="21"/>
+        <v>0.936025</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="19"/>
+        <v>838.25</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="19"/>
+        <v>367</v>
+      </c>
+      <c r="W13" s="21">
+        <v>5</v>
+      </c>
+      <c r="X13" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>1826</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>44385</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>44385</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AL13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM13" s="24">
+        <f t="shared" ref="AM13:AM14" si="22">AVERAGE(X22,X25,X28,X31)</f>
+        <v>9.25</v>
+      </c>
+      <c r="AN13" s="24">
+        <f t="shared" ref="AN13:AN14" si="23">AVERAGE(Y22,Y25,Y28,Y31)</f>
+        <v>0.93137500000000006</v>
+      </c>
+      <c r="AO13" s="24">
+        <f t="shared" ref="AO13:AO14" si="24">AVERAGE(AA22,AA25,AA28,AA31)</f>
+        <v>2058.25</v>
+      </c>
+      <c r="AP13" s="24">
         <f t="shared" si="20"/>
-        <v>0.936025</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="18"/>
-        <v>838.25</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="18"/>
-        <v>367</v>
-      </c>
-      <c r="W13" s="23">
-        <v>5</v>
-      </c>
-      <c r="X13" s="24">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="24">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="Z13" s="24">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="AA13" s="24">
-        <v>1826</v>
-      </c>
-      <c r="AB13" s="24">
-        <v>44385</v>
-      </c>
-      <c r="AC13" s="24">
-        <v>44385</v>
-      </c>
-      <c r="AD13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM13" s="26">
-        <f t="shared" ref="AM13:AM14" si="21">AVERAGE(X22,X25,X28,X31)</f>
-        <v>9.25</v>
-      </c>
-      <c r="AN13" s="26">
-        <f t="shared" ref="AN13:AN14" si="22">AVERAGE(Y22,Y25,Y28,Y31)</f>
-        <v>0.93137500000000006</v>
-      </c>
-      <c r="AO13" s="26">
-        <f t="shared" ref="AO13:AO14" si="23">AVERAGE(AA22,AA25,AA28,AA31)</f>
-        <v>2058.25</v>
-      </c>
-      <c r="AP13" s="26">
-        <f t="shared" si="19"/>
         <v>367</v>
       </c>
     </row>
@@ -16439,7 +17427,7 @@
         <v>176225</v>
       </c>
       <c r="I14" s="12" t="str">
-        <f>AD14</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="J14" s="1">
@@ -16447,103 +17435,101 @@
         <v>8.5</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ref="K14" si="24">AVERAGE(D9:D14)</f>
+        <f t="shared" ref="K14" si="25">AVERAGE(D9:D14)</f>
         <v>0.93636666666666668</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" ref="L14" si="25">AVERAGE(E9:E14)</f>
+        <f t="shared" ref="L14" si="26">AVERAGE(E9:E14)</f>
         <v>0.93756666666666666</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ref="M14" si="26">AVERAGE(F9:F14)</f>
+        <f t="shared" ref="M14" si="27">AVERAGE(F9:F14)</f>
         <v>931.33333333333337</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="27">AVERAGE(G9:G14)</f>
+        <f t="shared" ref="N14" si="28">AVERAGE(G9:G14)</f>
         <v>39257</v>
       </c>
       <c r="Q14" t="s">
         <v>45</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ref="R14:S14" si="28">AVERAGE(C23,C26,C29,C32)</f>
+        <f t="shared" ref="R14:S14" si="29">AVERAGE(C23,C26,C29,C32)</f>
         <v>7</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.93569999999999998</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1024.75</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>439</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="27">
         <v>6</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="28">
         <v>6</v>
       </c>
-      <c r="Y14" s="30">
+      <c r="Y14" s="28">
         <v>0.93720000000000003</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="28">
         <v>0.9375</v>
       </c>
-      <c r="AA14" s="30">
+      <c r="AA14" s="28">
         <v>1389</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="28">
         <v>176225</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="28">
         <v>176225</v>
       </c>
-      <c r="AD14" s="31" t="s">
+      <c r="AD14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AE14" s="24">
         <f>AVERAGE(X9:X14)</f>
         <v>7</v>
       </c>
-      <c r="AF14" s="27">
-        <f t="shared" ref="AF14:AI14" si="29">AVERAGE(Y9:Y14)</f>
+      <c r="AF14" s="25">
+        <f t="shared" ref="AF14:AI14" si="30">AVERAGE(Y9:Y14)</f>
         <v>0.93299999999999994</v>
       </c>
-      <c r="AG14" s="27">
-        <f t="shared" si="29"/>
+      <c r="AG14" s="25">
+        <f t="shared" si="30"/>
         <v>0.93433333333333335</v>
       </c>
-      <c r="AH14" s="28">
-        <f t="shared" si="29"/>
+      <c r="AH14" s="26">
+        <f t="shared" si="30"/>
         <v>1560</v>
       </c>
-      <c r="AI14" s="28">
-        <f t="shared" si="29"/>
+      <c r="AI14" s="26">
+        <f t="shared" si="30"/>
         <v>39257</v>
       </c>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18" t="s">
+      <c r="AL14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AM14" s="26">
-        <f t="shared" si="21"/>
+      <c r="AM14" s="24">
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="AN14" s="26">
-        <f t="shared" si="22"/>
+      <c r="AN14" s="24">
+        <f t="shared" si="23"/>
         <v>0.93524999999999991</v>
       </c>
-      <c r="AO14" s="26">
-        <f t="shared" si="23"/>
+      <c r="AO14" s="24">
+        <f t="shared" si="24"/>
         <v>2806.5</v>
       </c>
-      <c r="AP14" s="26">
-        <f t="shared" si="19"/>
+      <c r="AP14" s="24">
+        <f t="shared" si="20"/>
         <v>439</v>
       </c>
     </row>
@@ -16570,48 +17556,39 @@
         <v>241</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f>AD15</f>
+        <f t="shared" si="5"/>
         <v>all_16</v>
       </c>
       <c r="J15" s="1"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="W15" s="20">
+      <c r="W15" s="18">
         <v>1</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="19">
         <v>9</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="19">
         <v>0.9284</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="19">
         <v>0.93110000000000004</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AA15" s="19">
         <v>3088</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AB15" s="19">
         <v>241</v>
       </c>
-      <c r="AC15" s="21">
+      <c r="AC15" s="19">
         <v>241</v>
       </c>
-      <c r="AD15" s="22" t="s">
+      <c r="AD15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
+      <c r="AE15" s="24"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
@@ -16636,50 +17613,41 @@
         <v>801</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f>AD16</f>
+        <f t="shared" si="5"/>
         <v>all_16_32</v>
       </c>
       <c r="J16" s="1"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="W16" s="23">
+      <c r="W16" s="21">
         <v>2</v>
       </c>
-      <c r="X16" s="24">
+      <c r="X16" s="22">
         <v>7</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="Y16" s="22">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z16" s="24">
+      <c r="Z16" s="22">
         <v>0.93710000000000004</v>
       </c>
-      <c r="AA16" s="24">
+      <c r="AA16" s="22">
         <v>2421</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16" s="22">
         <v>801</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AC16" s="22">
         <v>801</v>
       </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AD16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
+      <c r="AE16" s="24"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>3</v>
       </c>
@@ -16702,50 +17670,41 @@
         <v>2945</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f>AD17</f>
+        <f t="shared" si="5"/>
         <v>all_16_32_64</v>
       </c>
       <c r="J17" s="1"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="W17" s="23">
+      <c r="W17" s="21">
         <v>3</v>
       </c>
-      <c r="X17" s="24">
+      <c r="X17" s="22">
         <v>8</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="Y17" s="22">
         <v>0.93720000000000003</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17" s="22">
         <v>0.93710000000000004</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AA17" s="22">
         <v>2781</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="22">
         <v>2945</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AC17" s="22">
         <v>2945</v>
       </c>
-      <c r="AD17" s="25" t="s">
+      <c r="AD17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
+      <c r="AE17" s="24"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>4</v>
       </c>
@@ -16768,50 +17727,41 @@
         <v>11329</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f>AD18</f>
+        <f t="shared" si="5"/>
         <v>all_16_32_64_128</v>
       </c>
       <c r="J18" s="1"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="W18" s="23">
+      <c r="W18" s="21">
         <v>4</v>
       </c>
-      <c r="X18" s="24">
+      <c r="X18" s="22">
         <v>14</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="Y18" s="22">
         <v>0.93859999999999999</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18" s="22">
         <v>0.93869999999999998</v>
       </c>
-      <c r="AA18" s="24">
+      <c r="AA18" s="22">
         <v>4860</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18" s="22">
         <v>11329</v>
       </c>
-      <c r="AC18" s="24">
+      <c r="AC18" s="22">
         <v>11329</v>
       </c>
-      <c r="AD18" s="25" t="s">
+      <c r="AD18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
+      <c r="AE18" s="24"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>5</v>
       </c>
@@ -16834,50 +17784,41 @@
         <v>44481</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f>AD19</f>
+        <f t="shared" si="5"/>
         <v>all_16_32_64_128_256</v>
       </c>
       <c r="J19" s="1"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="W19" s="23">
+      <c r="W19" s="21">
         <v>5</v>
       </c>
-      <c r="X19" s="24">
+      <c r="X19" s="22">
         <v>8</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="22">
         <v>0.93869999999999998</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19" s="22">
         <v>0.93869999999999998</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AA19" s="22">
         <v>2857</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19" s="22">
         <v>44481</v>
       </c>
-      <c r="AC19" s="24">
+      <c r="AC19" s="22">
         <v>44481</v>
       </c>
-      <c r="AD19" s="25" t="s">
+      <c r="AD19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
+      <c r="AE19" s="24"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>6</v>
       </c>
@@ -16900,7 +17841,7 @@
         <v>176321</v>
       </c>
       <c r="I20" s="12" t="str">
-        <f>AD20</f>
+        <f t="shared" si="5"/>
         <v>all_16_32_64_128_256_512</v>
       </c>
       <c r="J20" s="1">
@@ -16908,74 +17849,67 @@
         <v>9.5</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20" si="30">AVERAGE(D15:D20)</f>
+        <f t="shared" ref="K20" si="31">AVERAGE(D15:D20)</f>
         <v>0.93948333333333334</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" ref="L20" si="31">AVERAGE(E15:E20)</f>
+        <f t="shared" ref="L20" si="32">AVERAGE(E15:E20)</f>
         <v>0.94015000000000004</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" ref="M20" si="32">AVERAGE(F15:F20)</f>
+        <f t="shared" ref="M20" si="33">AVERAGE(F15:F20)</f>
         <v>1454.8333333333333</v>
       </c>
       <c r="N20" s="3">
         <f>AVERAGE(G15:G20)</f>
         <v>39353</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="27">
         <v>6</v>
       </c>
-      <c r="X20" s="30">
+      <c r="X20" s="28">
         <v>9</v>
       </c>
-      <c r="Y20" s="30">
+      <c r="Y20" s="28">
         <v>0.9385</v>
       </c>
-      <c r="Z20" s="30">
+      <c r="Z20" s="28">
         <v>0.93869999999999998</v>
       </c>
-      <c r="AA20" s="30">
+      <c r="AA20" s="28">
         <v>3245</v>
       </c>
-      <c r="AB20" s="30">
+      <c r="AB20" s="28">
         <v>176321</v>
       </c>
-      <c r="AC20" s="30">
+      <c r="AC20" s="28">
         <v>176321</v>
       </c>
-      <c r="AD20" s="31" t="s">
+      <c r="AD20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AE20" s="24">
         <f>AVERAGE(X15:X20)</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="AF20" s="27">
-        <f t="shared" ref="AF20:AH20" si="33">AVERAGE(Y15:Y20)</f>
+      <c r="AF20" s="25">
+        <f t="shared" ref="AF20:AH20" si="34">AVERAGE(Y15:Y20)</f>
         <v>0.93640000000000001</v>
       </c>
-      <c r="AG20" s="27">
-        <f t="shared" si="33"/>
+      <c r="AG20" s="25">
+        <f t="shared" si="34"/>
         <v>0.93689999999999996</v>
       </c>
-      <c r="AH20" s="28">
-        <f t="shared" si="33"/>
+      <c r="AH20" s="26">
+        <f t="shared" si="34"/>
         <v>3208.6666666666665</v>
       </c>
-      <c r="AI20" s="28">
+      <c r="AI20" s="26">
         <f>AVERAGE(AB15:AB20)</f>
         <v>39353</v>
       </c>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2</v>
       </c>
@@ -16998,50 +17932,41 @@
         <v>353</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f>AD21</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_16_16</v>
       </c>
       <c r="J21" s="1"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="W21" s="20">
+      <c r="W21" s="18">
         <v>2</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="19">
         <v>11</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="19">
         <v>0.93600000000000005</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="19">
         <v>0.93620000000000003</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="19">
         <v>2946</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="19">
         <v>353</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="19">
         <v>353</v>
       </c>
-      <c r="AD21" s="22" t="s">
+      <c r="AD21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
+      <c r="AE21" s="24"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>2</v>
       </c>
@@ -17064,50 +17989,41 @@
         <v>417</v>
       </c>
       <c r="I22" s="9" t="str">
-        <f>AD22</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_16</v>
       </c>
       <c r="J22" s="1"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="W22" s="23">
+      <c r="W22" s="21">
         <v>2</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X22" s="22">
         <v>10</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="22">
         <v>0.93359999999999999</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z22" s="22">
         <v>0.93659999999999999</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="22">
         <v>2185</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22" s="22">
         <v>417</v>
       </c>
-      <c r="AC22" s="24">
+      <c r="AC22" s="22">
         <v>417</v>
       </c>
-      <c r="AD22" s="25" t="s">
+      <c r="AD22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
+      <c r="AE22" s="24"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>2</v>
       </c>
@@ -17130,7 +18046,7 @@
         <v>513</v>
       </c>
       <c r="I23" s="12" t="str">
-        <f>AD23</f>
+        <f t="shared" si="5"/>
         <v>model_all_16_16</v>
       </c>
       <c r="J23" s="1">
@@ -17138,74 +18054,67 @@
         <v>7.333333333333333</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23" si="34">AVERAGE(D21:D23)</f>
+        <f t="shared" ref="K23" si="35">AVERAGE(D21:D23)</f>
         <v>0.93786666666666674</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ref="L23" si="35">AVERAGE(E21:E23)</f>
+        <f t="shared" ref="L23" si="36">AVERAGE(E21:E23)</f>
         <v>0.93963333333333343</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" ref="M23" si="36">AVERAGE(F21:F23)</f>
+        <f t="shared" ref="M23" si="37">AVERAGE(F21:F23)</f>
         <v>793.66666666666663</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" ref="N23" si="37">AVERAGE(G21:G23)</f>
+        <f t="shared" ref="N23" si="38">AVERAGE(G21:G23)</f>
         <v>427.66666666666669</v>
       </c>
-      <c r="W23" s="29">
+      <c r="W23" s="27">
         <v>2</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="28">
         <v>11</v>
       </c>
-      <c r="Y23" s="30">
+      <c r="Y23" s="28">
         <v>0.93620000000000003</v>
       </c>
-      <c r="Z23" s="30">
+      <c r="Z23" s="28">
         <v>0.93679999999999997</v>
       </c>
-      <c r="AA23" s="30">
+      <c r="AA23" s="28">
         <v>3851</v>
       </c>
-      <c r="AB23" s="30">
+      <c r="AB23" s="28">
         <v>513</v>
       </c>
-      <c r="AC23" s="30">
+      <c r="AC23" s="28">
         <v>513</v>
       </c>
-      <c r="AD23" s="31" t="s">
+      <c r="AD23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AE23" s="26">
+      <c r="AE23" s="24">
         <f>AVERAGE(X21:X23)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="AF23" s="27">
-        <f t="shared" ref="AF23:AI23" si="38">AVERAGE(Y21:Y23)</f>
+      <c r="AF23" s="25">
+        <f t="shared" ref="AF23:AI23" si="39">AVERAGE(Y21:Y23)</f>
         <v>0.93526666666666669</v>
       </c>
-      <c r="AG23" s="27">
-        <f t="shared" si="38"/>
+      <c r="AG23" s="25">
+        <f t="shared" si="39"/>
         <v>0.93653333333333333</v>
       </c>
-      <c r="AH23" s="28">
-        <f t="shared" si="38"/>
+      <c r="AH23" s="26">
+        <f t="shared" si="39"/>
         <v>2994</v>
       </c>
-      <c r="AI23" s="28">
-        <f t="shared" si="38"/>
+      <c r="AI23" s="26">
+        <f t="shared" si="39"/>
         <v>427.66666666666669</v>
       </c>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18"/>
-      <c r="AM23" s="18"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>3</v>
       </c>
@@ -17227,51 +18136,42 @@
       <c r="H24" s="5">
         <v>625</v>
       </c>
-      <c r="I24" s="15" t="str">
-        <f>AD24</f>
+      <c r="I24" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>model_rgb_16_16_16</v>
       </c>
       <c r="J24" s="1"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="W24" s="20">
+      <c r="W24" s="18">
         <v>3</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="19">
         <v>11</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="19">
         <v>0.93659999999999999</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="19">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA24" s="19">
         <v>1765</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB24" s="19">
         <v>625</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC24" s="19">
         <v>625</v>
       </c>
-      <c r="AD24" s="22" t="s">
+      <c r="AD24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
+      <c r="AE24" s="24"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -17293,51 +18193,42 @@
       <c r="H25" s="8">
         <v>689</v>
       </c>
-      <c r="I25" s="16" t="str">
-        <f>AD25</f>
+      <c r="I25" s="15" t="str">
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_16_16_16</v>
       </c>
       <c r="J25" s="1"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="W25" s="23">
+      <c r="W25" s="21">
         <v>3</v>
       </c>
-      <c r="X25" s="24">
+      <c r="X25" s="22">
         <v>7</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="22">
         <v>0.93640000000000001</v>
       </c>
-      <c r="Z25" s="24">
+      <c r="Z25" s="22">
         <v>0.93710000000000004</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AA25" s="22">
         <v>1555</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25" s="22">
         <v>689</v>
       </c>
-      <c r="AC25" s="24">
+      <c r="AC25" s="22">
         <v>689</v>
       </c>
-      <c r="AD25" s="25" t="s">
+      <c r="AD25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
+      <c r="AE25" s="24"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>3</v>
       </c>
@@ -17359,8 +18250,8 @@
       <c r="H26" s="11">
         <v>785</v>
       </c>
-      <c r="I26" s="17" t="str">
-        <f>AD26</f>
+      <c r="I26" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>model_all_16_16_16</v>
       </c>
       <c r="J26" s="1">
@@ -17368,74 +18259,67 @@
         <v>7</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26" si="39">AVERAGE(D24:D26)</f>
+        <f t="shared" ref="K26" si="40">AVERAGE(D24:D26)</f>
         <v>0.93990000000000007</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ref="L26" si="40">AVERAGE(E24:E26)</f>
+        <f t="shared" ref="L26" si="41">AVERAGE(E24:E26)</f>
         <v>0.93983333333333341</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" ref="M26" si="41">AVERAGE(F24:F26)</f>
+        <f t="shared" ref="M26" si="42">AVERAGE(F24:F26)</f>
         <v>757.66666666666663</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" ref="N26" si="42">AVERAGE(G24:G26)</f>
+        <f t="shared" ref="N26" si="43">AVERAGE(G24:G26)</f>
         <v>699.66666666666663</v>
       </c>
-      <c r="W26" s="29">
+      <c r="W26" s="27">
         <v>3</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="28">
         <v>7</v>
       </c>
-      <c r="Y26" s="30">
+      <c r="Y26" s="28">
         <v>0.93710000000000004</v>
       </c>
-      <c r="Z26" s="30">
+      <c r="Z26" s="28">
         <v>0.93710000000000004</v>
       </c>
-      <c r="AA26" s="30">
+      <c r="AA26" s="28">
         <v>2437</v>
       </c>
-      <c r="AB26" s="30">
+      <c r="AB26" s="28">
         <v>785</v>
       </c>
-      <c r="AC26" s="30">
+      <c r="AC26" s="28">
         <v>785</v>
       </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AD26" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AE26" s="26">
+      <c r="AE26" s="24">
         <f>AVERAGE(X24:X26)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="AF26" s="27">
-        <f t="shared" ref="AF26:AI26" si="43">AVERAGE(Y24:Y26)</f>
+      <c r="AF26" s="25">
+        <f t="shared" ref="AF26:AI26" si="44">AVERAGE(Y24:Y26)</f>
         <v>0.93670000000000009</v>
       </c>
-      <c r="AG26" s="27">
-        <f t="shared" si="43"/>
+      <c r="AG26" s="25">
+        <f t="shared" si="44"/>
         <v>0.93696666666666673</v>
       </c>
-      <c r="AH26" s="28">
-        <f t="shared" si="43"/>
+      <c r="AH26" s="26">
+        <f t="shared" si="44"/>
         <v>1919</v>
       </c>
-      <c r="AI26" s="28">
-        <f t="shared" si="43"/>
+      <c r="AI26" s="26">
+        <f t="shared" si="44"/>
         <v>699.66666666666663</v>
       </c>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2</v>
       </c>
@@ -17458,50 +18342,41 @@
         <v>113</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f>AD27</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_8_8</v>
       </c>
       <c r="J27" s="1"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="W27" s="20">
+      <c r="W27" s="18">
         <v>2</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="19">
         <v>9</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="19">
         <v>0.92730000000000001</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="19">
         <v>0.93300000000000005</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA27" s="19">
         <v>1453</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="19">
         <v>113</v>
       </c>
-      <c r="AC27" s="21">
+      <c r="AC27" s="19">
         <v>113</v>
       </c>
-      <c r="AD27" s="22" t="s">
+      <c r="AD27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
+      <c r="AE27" s="24"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -17524,50 +18399,41 @@
         <v>145</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f>AD28</f>
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_8_8</v>
       </c>
       <c r="J28" s="1"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="W28" s="23">
+      <c r="W28" s="21">
         <v>2</v>
       </c>
-      <c r="X28" s="24">
+      <c r="X28" s="22">
         <v>12</v>
       </c>
-      <c r="Y28" s="24">
+      <c r="Y28" s="22">
         <v>0.93220000000000003</v>
       </c>
-      <c r="Z28" s="24">
+      <c r="Z28" s="22">
         <v>0.9365</v>
       </c>
-      <c r="AA28" s="24">
+      <c r="AA28" s="22">
         <v>2634</v>
       </c>
-      <c r="AB28" s="24">
+      <c r="AB28" s="22">
         <v>145</v>
       </c>
-      <c r="AC28" s="24">
+      <c r="AC28" s="22">
         <v>145</v>
       </c>
-      <c r="AD28" s="25" t="s">
+      <c r="AD28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
+      <c r="AE28" s="24"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -17590,7 +18456,7 @@
         <v>193</v>
       </c>
       <c r="I29" s="12" t="str">
-        <f>AD29</f>
+        <f t="shared" si="5"/>
         <v>model_all_8_8</v>
       </c>
       <c r="J29" s="1">
@@ -17598,74 +18464,67 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" ref="K29" si="44">AVERAGE(D27:D29)</f>
+        <f t="shared" ref="K29" si="45">AVERAGE(D27:D29)</f>
         <v>0.90283333333333327</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29" si="45">AVERAGE(E27:E29)</f>
+        <f t="shared" ref="L29" si="46">AVERAGE(E27:E29)</f>
         <v>0.92393333333333327</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" ref="M29" si="46">AVERAGE(F27:F29)</f>
+        <f t="shared" ref="M29" si="47">AVERAGE(F27:F29)</f>
         <v>1013.6666666666666</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29" si="47">AVERAGE(G27:G29)</f>
+        <f t="shared" ref="N29" si="48">AVERAGE(G27:G29)</f>
         <v>150.33333333333334</v>
       </c>
-      <c r="W29" s="29">
+      <c r="W29" s="27">
         <v>2</v>
       </c>
-      <c r="X29" s="30">
+      <c r="X29" s="28">
         <v>7</v>
       </c>
-      <c r="Y29" s="30">
+      <c r="Y29" s="28">
         <v>0.9345</v>
       </c>
-      <c r="Z29" s="30">
+      <c r="Z29" s="28">
         <v>0.93640000000000001</v>
       </c>
-      <c r="AA29" s="30">
+      <c r="AA29" s="28">
         <v>2434</v>
       </c>
-      <c r="AB29" s="30">
+      <c r="AB29" s="28">
         <v>193</v>
       </c>
-      <c r="AC29" s="30">
+      <c r="AC29" s="28">
         <v>193</v>
       </c>
-      <c r="AD29" s="31" t="s">
+      <c r="AD29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AE29" s="26">
+      <c r="AE29" s="24">
         <f>AVERAGE(X27:X29)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AF29" s="27">
-        <f t="shared" ref="AF29:AI29" si="48">AVERAGE(Y27:Y29)</f>
+      <c r="AF29" s="25">
+        <f t="shared" ref="AF29:AI29" si="49">AVERAGE(Y27:Y29)</f>
         <v>0.93133333333333335</v>
       </c>
-      <c r="AG29" s="27">
-        <f t="shared" si="48"/>
+      <c r="AG29" s="25">
+        <f t="shared" si="49"/>
         <v>0.93529999999999991</v>
       </c>
-      <c r="AH29" s="28">
-        <f t="shared" si="48"/>
+      <c r="AH29" s="26">
+        <f t="shared" si="49"/>
         <v>2173.6666666666665</v>
       </c>
-      <c r="AI29" s="28">
-        <f t="shared" si="48"/>
+      <c r="AI29" s="26">
+        <f t="shared" si="49"/>
         <v>150.33333333333334</v>
       </c>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>3</v>
       </c>
@@ -17687,51 +18546,42 @@
       <c r="H30" s="5">
         <v>185</v>
       </c>
-      <c r="I30" s="15" t="str">
-        <f>AD30</f>
+      <c r="I30" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>model_rgb_8_8_8</v>
       </c>
       <c r="J30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="W30" s="20">
+      <c r="W30" s="18">
         <v>3</v>
       </c>
-      <c r="X30" s="21">
+      <c r="X30" s="19">
         <v>10</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="19">
         <v>0.93030000000000002</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z30" s="19">
         <v>0.93559999999999999</v>
       </c>
-      <c r="AA30" s="21">
+      <c r="AA30" s="19">
         <v>1630</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AB30" s="19">
         <v>185</v>
       </c>
-      <c r="AC30" s="21">
+      <c r="AC30" s="19">
         <v>185</v>
       </c>
-      <c r="AD30" s="22" t="s">
+      <c r="AD30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="18"/>
+      <c r="AE30" s="24"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -17753,51 +18603,42 @@
       <c r="H31" s="8">
         <v>217</v>
       </c>
-      <c r="I31" s="16" t="str">
-        <f>AD31</f>
+      <c r="I31" s="15" t="str">
+        <f t="shared" si="5"/>
         <v>model_rgb_simple_8_8_8</v>
       </c>
       <c r="J31" s="1"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="W31" s="23">
+      <c r="W31" s="21">
         <v>3</v>
       </c>
-      <c r="X31" s="24">
+      <c r="X31" s="22">
         <v>8</v>
       </c>
-      <c r="Y31" s="24">
+      <c r="Y31" s="22">
         <v>0.92330000000000001</v>
       </c>
-      <c r="Z31" s="24">
+      <c r="Z31" s="22">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AA31" s="24">
+      <c r="AA31" s="22">
         <v>1859</v>
       </c>
-      <c r="AB31" s="24">
+      <c r="AB31" s="22">
         <v>217</v>
       </c>
-      <c r="AC31" s="24">
+      <c r="AC31" s="22">
         <v>217</v>
       </c>
-      <c r="AD31" s="25" t="s">
+      <c r="AD31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="18"/>
-      <c r="AP31" s="18"/>
+      <c r="AE31" s="24"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>3</v>
       </c>
@@ -17819,8 +18660,8 @@
       <c r="H32" s="11">
         <v>265</v>
       </c>
-      <c r="I32" s="17" t="str">
-        <f>AD32</f>
+      <c r="I32" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>model_all_8_8_8</v>
       </c>
       <c r="J32" s="1">
@@ -17828,1458 +18669,65 @@
         <v>7</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" ref="K32" si="49">AVERAGE(D30:D32)</f>
+        <f t="shared" ref="K32" si="50">AVERAGE(D30:D32)</f>
         <v>0.9373999999999999</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ref="L32" si="50">AVERAGE(E30:E32)</f>
+        <f t="shared" ref="L32" si="51">AVERAGE(E30:E32)</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" ref="M32" si="51">AVERAGE(F30:F32)</f>
+        <f t="shared" ref="M32" si="52">AVERAGE(F30:F32)</f>
         <v>760</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" ref="N32" si="52">AVERAGE(G30:G32)</f>
+        <f t="shared" ref="N32" si="53">AVERAGE(G30:G32)</f>
         <v>222.33333333333334</v>
       </c>
-      <c r="W32" s="29">
+      <c r="W32" s="27">
         <v>3</v>
       </c>
-      <c r="X32" s="30">
+      <c r="X32" s="28">
         <v>7</v>
       </c>
-      <c r="Y32" s="30">
+      <c r="Y32" s="28">
         <v>0.93320000000000003</v>
       </c>
-      <c r="Z32" s="30">
+      <c r="Z32" s="28">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AA32" s="30">
+      <c r="AA32" s="28">
         <v>2504</v>
       </c>
-      <c r="AB32" s="30">
+      <c r="AB32" s="28">
         <v>265</v>
       </c>
-      <c r="AC32" s="30">
+      <c r="AC32" s="28">
         <v>265</v>
       </c>
-      <c r="AD32" s="31" t="s">
+      <c r="AD32" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE32" s="26">
+      <c r="AE32" s="24">
         <f>AVERAGE(X30:X32)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="AF32" s="27">
-        <f t="shared" ref="AF32:AI32" si="53">AVERAGE(Y30:Y32)</f>
+      <c r="AF32" s="25">
+        <f t="shared" ref="AF32:AI32" si="54">AVERAGE(Y30:Y32)</f>
         <v>0.9289333333333335</v>
       </c>
-      <c r="AG32" s="27">
-        <f t="shared" si="53"/>
+      <c r="AG32" s="25">
+        <f t="shared" si="54"/>
         <v>0.93643333333333345</v>
       </c>
-      <c r="AH32" s="28">
-        <f t="shared" si="53"/>
+      <c r="AH32" s="26">
+        <f t="shared" si="54"/>
         <v>1997.6666666666667</v>
       </c>
-      <c r="AI32" s="28">
-        <f t="shared" si="53"/>
+      <c r="AI32" s="26">
+        <f t="shared" si="54"/>
         <v>222.33333333333334</v>
       </c>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="18"/>
-      <c r="AP32" s="18"/>
-    </row>
-    <row r="33" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
-      <c r="AO33" s="18"/>
-      <c r="AP33" s="18"/>
-    </row>
-    <row r="34" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18"/>
-    </row>
-    <row r="35" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="18"/>
-      <c r="AO35" s="18"/>
-      <c r="AP35" s="18"/>
-    </row>
-    <row r="36" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="18"/>
-      <c r="AP36" s="18"/>
-    </row>
-    <row r="37" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="18"/>
-      <c r="AP37" s="18"/>
-    </row>
-    <row r="38" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="18"/>
-      <c r="AP38" s="18"/>
-    </row>
-    <row r="39" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="18"/>
-    </row>
-    <row r="40" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-    </row>
-    <row r="41" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-    </row>
-    <row r="42" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-    </row>
-    <row r="43" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-    </row>
-    <row r="44" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="18"/>
-      <c r="AP44" s="18"/>
-    </row>
-    <row r="45" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="18"/>
-      <c r="AK45" s="18"/>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18"/>
-      <c r="AN45" s="18"/>
-      <c r="AO45" s="18"/>
-      <c r="AP45" s="18"/>
-    </row>
-    <row r="46" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-      <c r="AE46" s="18"/>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
-      <c r="AI46" s="18"/>
-      <c r="AJ46" s="18"/>
-      <c r="AK46" s="18"/>
-      <c r="AL46" s="18"/>
-      <c r="AM46" s="18"/>
-      <c r="AN46" s="18"/>
-      <c r="AO46" s="18"/>
-      <c r="AP46" s="18"/>
-    </row>
-    <row r="47" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
-      <c r="AI47" s="18"/>
-      <c r="AJ47" s="18"/>
-      <c r="AK47" s="18"/>
-      <c r="AL47" s="18"/>
-      <c r="AM47" s="18"/>
-      <c r="AN47" s="18"/>
-      <c r="AO47" s="18"/>
-      <c r="AP47" s="18"/>
-    </row>
-    <row r="48" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
-      <c r="AJ48" s="18"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="18"/>
-      <c r="AM48" s="18"/>
-      <c r="AN48" s="18"/>
-      <c r="AO48" s="18"/>
-      <c r="AP48" s="18"/>
-    </row>
-    <row r="49" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AN49" s="18"/>
-      <c r="AO49" s="18"/>
-      <c r="AP49" s="18"/>
-    </row>
-    <row r="50" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="18"/>
-      <c r="AM50" s="18"/>
-      <c r="AN50" s="18"/>
-      <c r="AO50" s="18"/>
-      <c r="AP50" s="18"/>
-    </row>
-    <row r="51" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18"/>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="18"/>
-      <c r="AP51" s="18"/>
-    </row>
-    <row r="52" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="18"/>
-      <c r="AK52" s="18"/>
-      <c r="AL52" s="18"/>
-      <c r="AM52" s="18"/>
-      <c r="AN52" s="18"/>
-      <c r="AO52" s="18"/>
-      <c r="AP52" s="18"/>
-    </row>
-    <row r="53" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="18"/>
-      <c r="AP53" s="18"/>
-    </row>
-    <row r="54" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="18"/>
-      <c r="AI54" s="18"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="18"/>
-      <c r="AM54" s="18"/>
-      <c r="AN54" s="18"/>
-      <c r="AO54" s="18"/>
-      <c r="AP54" s="18"/>
-    </row>
-    <row r="55" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="18"/>
-      <c r="AI55" s="18"/>
-      <c r="AJ55" s="18"/>
-      <c r="AK55" s="18"/>
-      <c r="AL55" s="18"/>
-      <c r="AM55" s="18"/>
-      <c r="AN55" s="18"/>
-      <c r="AO55" s="18"/>
-      <c r="AP55" s="18"/>
-    </row>
-    <row r="56" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
-      <c r="AG56" s="18"/>
-      <c r="AH56" s="18"/>
-      <c r="AI56" s="18"/>
-      <c r="AJ56" s="18"/>
-      <c r="AK56" s="18"/>
-      <c r="AL56" s="18"/>
-      <c r="AM56" s="18"/>
-      <c r="AN56" s="18"/>
-      <c r="AO56" s="18"/>
-      <c r="AP56" s="18"/>
-    </row>
-    <row r="57" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-      <c r="AI57" s="18"/>
-      <c r="AJ57" s="18"/>
-      <c r="AK57" s="18"/>
-      <c r="AL57" s="18"/>
-      <c r="AM57" s="18"/>
-      <c r="AN57" s="18"/>
-      <c r="AO57" s="18"/>
-      <c r="AP57" s="18"/>
-    </row>
-    <row r="58" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="18"/>
-      <c r="AJ58" s="18"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="18"/>
-      <c r="AM58" s="18"/>
-      <c r="AN58" s="18"/>
-      <c r="AO58" s="18"/>
-      <c r="AP58" s="18"/>
-    </row>
-    <row r="59" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
-      <c r="AI59" s="18"/>
-      <c r="AJ59" s="18"/>
-      <c r="AK59" s="18"/>
-      <c r="AL59" s="18"/>
-      <c r="AM59" s="18"/>
-      <c r="AN59" s="18"/>
-      <c r="AO59" s="18"/>
-      <c r="AP59" s="18"/>
-    </row>
-    <row r="60" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-      <c r="AI60" s="18"/>
-      <c r="AJ60" s="18"/>
-      <c r="AK60" s="18"/>
-      <c r="AL60" s="18"/>
-      <c r="AM60" s="18"/>
-      <c r="AN60" s="18"/>
-      <c r="AO60" s="18"/>
-      <c r="AP60" s="18"/>
-    </row>
-    <row r="61" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-      <c r="AI61" s="18"/>
-      <c r="AJ61" s="18"/>
-      <c r="AK61" s="18"/>
-      <c r="AL61" s="18"/>
-      <c r="AM61" s="18"/>
-      <c r="AN61" s="18"/>
-      <c r="AO61" s="18"/>
-      <c r="AP61" s="18"/>
-    </row>
-    <row r="62" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="18"/>
-      <c r="AI62" s="18"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="18"/>
-      <c r="AL62" s="18"/>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="18"/>
-      <c r="AO62" s="18"/>
-      <c r="AP62" s="18"/>
-    </row>
-    <row r="63" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
-      <c r="AG63" s="18"/>
-      <c r="AH63" s="18"/>
-      <c r="AI63" s="18"/>
-      <c r="AJ63" s="18"/>
-      <c r="AK63" s="18"/>
-      <c r="AL63" s="18"/>
-      <c r="AM63" s="18"/>
-      <c r="AN63" s="18"/>
-      <c r="AO63" s="18"/>
-      <c r="AP63" s="18"/>
-    </row>
-    <row r="64" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
-      <c r="AG64" s="18"/>
-      <c r="AH64" s="18"/>
-      <c r="AI64" s="18"/>
-      <c r="AJ64" s="18"/>
-      <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
-      <c r="AM64" s="18"/>
-      <c r="AN64" s="18"/>
-      <c r="AO64" s="18"/>
-      <c r="AP64" s="18"/>
-    </row>
-    <row r="65" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="18"/>
-      <c r="AB65" s="18"/>
-      <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="18"/>
-      <c r="AF65" s="18"/>
-      <c r="AG65" s="18"/>
-      <c r="AH65" s="18"/>
-      <c r="AI65" s="18"/>
-      <c r="AJ65" s="18"/>
-      <c r="AK65" s="18"/>
-      <c r="AL65" s="18"/>
-      <c r="AM65" s="18"/>
-      <c r="AN65" s="18"/>
-      <c r="AO65" s="18"/>
-      <c r="AP65" s="18"/>
-    </row>
-    <row r="66" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
-      <c r="AC66" s="18"/>
-      <c r="AD66" s="18"/>
-      <c r="AE66" s="18"/>
-      <c r="AF66" s="18"/>
-      <c r="AG66" s="18"/>
-      <c r="AH66" s="18"/>
-      <c r="AI66" s="18"/>
-      <c r="AJ66" s="18"/>
-      <c r="AK66" s="18"/>
-      <c r="AL66" s="18"/>
-      <c r="AM66" s="18"/>
-      <c r="AN66" s="18"/>
-      <c r="AO66" s="18"/>
-      <c r="AP66" s="18"/>
-    </row>
-    <row r="67" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
-      <c r="AA67" s="18"/>
-      <c r="AB67" s="18"/>
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-      <c r="AE67" s="18"/>
-      <c r="AF67" s="18"/>
-      <c r="AG67" s="18"/>
-      <c r="AH67" s="18"/>
-      <c r="AI67" s="18"/>
-      <c r="AJ67" s="18"/>
-      <c r="AK67" s="18"/>
-      <c r="AL67" s="18"/>
-      <c r="AM67" s="18"/>
-      <c r="AN67" s="18"/>
-      <c r="AO67" s="18"/>
-      <c r="AP67" s="18"/>
-    </row>
-    <row r="68" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="18"/>
-      <c r="AA68" s="18"/>
-      <c r="AB68" s="18"/>
-      <c r="AC68" s="18"/>
-      <c r="AD68" s="18"/>
-      <c r="AE68" s="18"/>
-      <c r="AF68" s="18"/>
-      <c r="AG68" s="18"/>
-      <c r="AH68" s="18"/>
-      <c r="AI68" s="18"/>
-      <c r="AJ68" s="18"/>
-      <c r="AK68" s="18"/>
-      <c r="AL68" s="18"/>
-      <c r="AM68" s="18"/>
-      <c r="AN68" s="18"/>
-      <c r="AO68" s="18"/>
-      <c r="AP68" s="18"/>
-    </row>
-    <row r="69" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="18"/>
-      <c r="AA69" s="18"/>
-      <c r="AB69" s="18"/>
-      <c r="AC69" s="18"/>
-      <c r="AD69" s="18"/>
-      <c r="AE69" s="18"/>
-      <c r="AF69" s="18"/>
-      <c r="AG69" s="18"/>
-      <c r="AH69" s="18"/>
-      <c r="AI69" s="18"/>
-      <c r="AJ69" s="18"/>
-      <c r="AK69" s="18"/>
-      <c r="AL69" s="18"/>
-      <c r="AM69" s="18"/>
-      <c r="AN69" s="18"/>
-      <c r="AO69" s="18"/>
-      <c r="AP69" s="18"/>
-    </row>
-    <row r="70" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
-      <c r="AA70" s="18"/>
-      <c r="AB70" s="18"/>
-      <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-      <c r="AE70" s="18"/>
-      <c r="AF70" s="18"/>
-      <c r="AG70" s="18"/>
-      <c r="AH70" s="18"/>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
-      <c r="AL70" s="18"/>
-      <c r="AM70" s="18"/>
-      <c r="AN70" s="18"/>
-      <c r="AO70" s="18"/>
-      <c r="AP70" s="18"/>
-    </row>
-    <row r="71" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="18"/>
-      <c r="AA71" s="18"/>
-      <c r="AB71" s="18"/>
-      <c r="AC71" s="18"/>
-      <c r="AD71" s="18"/>
-      <c r="AE71" s="18"/>
-      <c r="AF71" s="18"/>
-      <c r="AG71" s="18"/>
-      <c r="AH71" s="18"/>
-      <c r="AI71" s="18"/>
-      <c r="AJ71" s="18"/>
-      <c r="AK71" s="18"/>
-      <c r="AL71" s="18"/>
-      <c r="AM71" s="18"/>
-      <c r="AN71" s="18"/>
-      <c r="AO71" s="18"/>
-      <c r="AP71" s="18"/>
-    </row>
-    <row r="72" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="18"/>
-      <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="18"/>
-      <c r="AF72" s="18"/>
-      <c r="AG72" s="18"/>
-      <c r="AH72" s="18"/>
-      <c r="AI72" s="18"/>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="18"/>
-      <c r="AL72" s="18"/>
-      <c r="AM72" s="18"/>
-      <c r="AN72" s="18"/>
-      <c r="AO72" s="18"/>
-      <c r="AP72" s="18"/>
-    </row>
-    <row r="73" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18"/>
-      <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="18"/>
-      <c r="AF73" s="18"/>
-      <c r="AG73" s="18"/>
-      <c r="AH73" s="18"/>
-      <c r="AI73" s="18"/>
-      <c r="AJ73" s="18"/>
-      <c r="AK73" s="18"/>
-      <c r="AL73" s="18"/>
-      <c r="AM73" s="18"/>
-      <c r="AN73" s="18"/>
-      <c r="AO73" s="18"/>
-      <c r="AP73" s="18"/>
-    </row>
-    <row r="74" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="18"/>
-      <c r="AF74" s="18"/>
-      <c r="AG74" s="18"/>
-      <c r="AH74" s="18"/>
-      <c r="AI74" s="18"/>
-      <c r="AJ74" s="18"/>
-      <c r="AK74" s="18"/>
-      <c r="AL74" s="18"/>
-      <c r="AM74" s="18"/>
-      <c r="AN74" s="18"/>
-      <c r="AO74" s="18"/>
-      <c r="AP74" s="18"/>
-    </row>
-    <row r="75" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="18"/>
-      <c r="AF75" s="18"/>
-      <c r="AG75" s="18"/>
-      <c r="AH75" s="18"/>
-      <c r="AI75" s="18"/>
-      <c r="AJ75" s="18"/>
-      <c r="AK75" s="18"/>
-      <c r="AL75" s="18"/>
-      <c r="AM75" s="18"/>
-      <c r="AN75" s="18"/>
-      <c r="AO75" s="18"/>
-      <c r="AP75" s="18"/>
-    </row>
-    <row r="76" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="18"/>
-      <c r="AF76" s="18"/>
-      <c r="AG76" s="18"/>
-      <c r="AH76" s="18"/>
-      <c r="AI76" s="18"/>
-      <c r="AJ76" s="18"/>
-      <c r="AK76" s="18"/>
-      <c r="AL76" s="18"/>
-      <c r="AM76" s="18"/>
-      <c r="AN76" s="18"/>
-      <c r="AO76" s="18"/>
-      <c r="AP76" s="18"/>
-    </row>
-    <row r="77" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
-      <c r="AA77" s="18"/>
-      <c r="AB77" s="18"/>
-      <c r="AC77" s="18"/>
-      <c r="AD77" s="18"/>
-      <c r="AE77" s="18"/>
-      <c r="AF77" s="18"/>
-      <c r="AG77" s="18"/>
-      <c r="AH77" s="18"/>
-      <c r="AI77" s="18"/>
-      <c r="AJ77" s="18"/>
-      <c r="AK77" s="18"/>
-      <c r="AL77" s="18"/>
-      <c r="AM77" s="18"/>
-      <c r="AN77" s="18"/>
-      <c r="AO77" s="18"/>
-      <c r="AP77" s="18"/>
-    </row>
-    <row r="78" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
-      <c r="AA78" s="18"/>
-      <c r="AB78" s="18"/>
-      <c r="AC78" s="18"/>
-      <c r="AD78" s="18"/>
-      <c r="AE78" s="18"/>
-      <c r="AF78" s="18"/>
-      <c r="AG78" s="18"/>
-      <c r="AH78" s="18"/>
-      <c r="AI78" s="18"/>
-      <c r="AJ78" s="18"/>
-      <c r="AK78" s="18"/>
-      <c r="AL78" s="18"/>
-      <c r="AM78" s="18"/>
-      <c r="AN78" s="18"/>
-      <c r="AO78" s="18"/>
-      <c r="AP78" s="18"/>
-    </row>
-    <row r="79" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="18"/>
-      <c r="AJ79" s="18"/>
-      <c r="AK79" s="18"/>
-      <c r="AL79" s="18"/>
-      <c r="AM79" s="18"/>
-      <c r="AN79" s="18"/>
-      <c r="AO79" s="18"/>
-      <c r="AP79" s="18"/>
-    </row>
-    <row r="80" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-      <c r="AI80" s="18"/>
-      <c r="AJ80" s="18"/>
-      <c r="AK80" s="18"/>
-      <c r="AL80" s="18"/>
-      <c r="AM80" s="18"/>
-      <c r="AN80" s="18"/>
-      <c r="AO80" s="18"/>
-      <c r="AP80" s="18"/>
-    </row>
-    <row r="81" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
-      <c r="AI81" s="18"/>
-      <c r="AJ81" s="18"/>
-      <c r="AK81" s="18"/>
-      <c r="AL81" s="18"/>
-      <c r="AM81" s="18"/>
-      <c r="AN81" s="18"/>
-      <c r="AO81" s="18"/>
-      <c r="AP81" s="18"/>
-    </row>
-    <row r="82" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="18"/>
-      <c r="AB82" s="18"/>
-      <c r="AC82" s="18"/>
-      <c r="AD82" s="18"/>
-      <c r="AE82" s="18"/>
-      <c r="AF82" s="18"/>
-      <c r="AG82" s="18"/>
-      <c r="AH82" s="18"/>
-      <c r="AI82" s="18"/>
-      <c r="AJ82" s="18"/>
-      <c r="AK82" s="18"/>
-      <c r="AL82" s="18"/>
-      <c r="AM82" s="18"/>
-      <c r="AN82" s="18"/>
-      <c r="AO82" s="18"/>
-      <c r="AP82" s="18"/>
-    </row>
-    <row r="83" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
-      <c r="AB83" s="18"/>
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="18"/>
-      <c r="AF83" s="18"/>
-      <c r="AG83" s="18"/>
-      <c r="AH83" s="18"/>
-      <c r="AI83" s="18"/>
-      <c r="AJ83" s="18"/>
-      <c r="AK83" s="18"/>
-      <c r="AL83" s="18"/>
-      <c r="AM83" s="18"/>
-      <c r="AN83" s="18"/>
-      <c r="AO83" s="18"/>
-      <c r="AP83" s="18"/>
-    </row>
-    <row r="84" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
-      <c r="AG84" s="18"/>
-      <c r="AH84" s="18"/>
-      <c r="AI84" s="18"/>
-      <c r="AJ84" s="18"/>
-      <c r="AK84" s="18"/>
-      <c r="AL84" s="18"/>
-      <c r="AM84" s="18"/>
-      <c r="AN84" s="18"/>
-      <c r="AO84" s="18"/>
-      <c r="AP84" s="18"/>
-    </row>
-    <row r="85" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="18"/>
-      <c r="AB85" s="18"/>
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="18"/>
-      <c r="AF85" s="18"/>
-      <c r="AG85" s="18"/>
-      <c r="AH85" s="18"/>
-      <c r="AI85" s="18"/>
-      <c r="AJ85" s="18"/>
-      <c r="AK85" s="18"/>
-      <c r="AL85" s="18"/>
-      <c r="AM85" s="18"/>
-      <c r="AN85" s="18"/>
-      <c r="AO85" s="18"/>
-      <c r="AP85" s="18"/>
-    </row>
-    <row r="86" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="18"/>
-      <c r="AB86" s="18"/>
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="18"/>
-      <c r="AF86" s="18"/>
-      <c r="AG86" s="18"/>
-      <c r="AH86" s="18"/>
-      <c r="AI86" s="18"/>
-      <c r="AJ86" s="18"/>
-      <c r="AK86" s="18"/>
-      <c r="AL86" s="18"/>
-      <c r="AM86" s="18"/>
-      <c r="AN86" s="18"/>
-      <c r="AO86" s="18"/>
-      <c r="AP86" s="18"/>
-    </row>
-    <row r="87" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
-      <c r="AA87" s="18"/>
-      <c r="AB87" s="18"/>
-      <c r="AC87" s="18"/>
-      <c r="AD87" s="18"/>
-      <c r="AE87" s="18"/>
-      <c r="AF87" s="18"/>
-      <c r="AG87" s="18"/>
-      <c r="AH87" s="18"/>
-      <c r="AI87" s="18"/>
-      <c r="AJ87" s="18"/>
-      <c r="AK87" s="18"/>
-      <c r="AL87" s="18"/>
-      <c r="AM87" s="18"/>
-      <c r="AN87" s="18"/>
-      <c r="AO87" s="18"/>
-      <c r="AP87" s="18"/>
-    </row>
-    <row r="88" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="18"/>
-      <c r="AE88" s="18"/>
-      <c r="AF88" s="18"/>
-      <c r="AG88" s="18"/>
-      <c r="AH88" s="18"/>
-      <c r="AI88" s="18"/>
-      <c r="AJ88" s="18"/>
-      <c r="AK88" s="18"/>
-      <c r="AL88" s="18"/>
-      <c r="AM88" s="18"/>
-      <c r="AN88" s="18"/>
-      <c r="AO88" s="18"/>
-      <c r="AP88" s="18"/>
-    </row>
-    <row r="89" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="18"/>
-      <c r="AF89" s="18"/>
-      <c r="AG89" s="18"/>
-      <c r="AH89" s="18"/>
-      <c r="AI89" s="18"/>
-      <c r="AJ89" s="18"/>
-      <c r="AK89" s="18"/>
-      <c r="AL89" s="18"/>
-      <c r="AM89" s="18"/>
-      <c r="AN89" s="18"/>
-      <c r="AO89" s="18"/>
-      <c r="AP89" s="18"/>
-    </row>
-    <row r="90" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="18"/>
-      <c r="AI90" s="18"/>
-      <c r="AJ90" s="18"/>
-      <c r="AK90" s="18"/>
-      <c r="AL90" s="18"/>
-      <c r="AM90" s="18"/>
-      <c r="AN90" s="18"/>
-      <c r="AO90" s="18"/>
-      <c r="AP90" s="18"/>
-    </row>
-    <row r="91" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
-      <c r="AA91" s="18"/>
-      <c r="AB91" s="18"/>
-      <c r="AC91" s="18"/>
-      <c r="AD91" s="18"/>
-      <c r="AE91" s="18"/>
-      <c r="AF91" s="18"/>
-      <c r="AG91" s="18"/>
-      <c r="AH91" s="18"/>
-      <c r="AI91" s="18"/>
-      <c r="AJ91" s="18"/>
-      <c r="AK91" s="18"/>
-      <c r="AL91" s="18"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="18"/>
-      <c r="AO91" s="18"/>
-      <c r="AP91" s="18"/>
-    </row>
-    <row r="92" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="18"/>
-      <c r="AI92" s="18"/>
-      <c r="AJ92" s="18"/>
-      <c r="AK92" s="18"/>
-      <c r="AL92" s="18"/>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="18"/>
-      <c r="AO92" s="18"/>
-      <c r="AP92" s="18"/>
-    </row>
-    <row r="93" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="18"/>
-      <c r="AA93" s="18"/>
-      <c r="AB93" s="18"/>
-      <c r="AC93" s="18"/>
-      <c r="AD93" s="18"/>
-      <c r="AE93" s="18"/>
-      <c r="AF93" s="18"/>
-      <c r="AG93" s="18"/>
-      <c r="AH93" s="18"/>
-      <c r="AI93" s="18"/>
-      <c r="AJ93" s="18"/>
-      <c r="AK93" s="18"/>
-      <c r="AL93" s="18"/>
-      <c r="AM93" s="18"/>
-      <c r="AN93" s="18"/>
-      <c r="AO93" s="18"/>
-      <c r="AP93" s="18"/>
-    </row>
-    <row r="94" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="18"/>
-      <c r="AA94" s="18"/>
-      <c r="AB94" s="18"/>
-      <c r="AC94" s="18"/>
-      <c r="AD94" s="18"/>
-      <c r="AE94" s="18"/>
-      <c r="AF94" s="18"/>
-      <c r="AG94" s="18"/>
-      <c r="AH94" s="18"/>
-      <c r="AI94" s="18"/>
-      <c r="AJ94" s="18"/>
-      <c r="AK94" s="18"/>
-      <c r="AL94" s="18"/>
-      <c r="AM94" s="18"/>
-      <c r="AN94" s="18"/>
-      <c r="AO94" s="18"/>
-      <c r="AP94" s="18"/>
-    </row>
-    <row r="95" spans="23:42" x14ac:dyDescent="0.25">
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
-      <c r="AA95" s="18"/>
-      <c r="AB95" s="18"/>
-      <c r="AC95" s="18"/>
-      <c r="AD95" s="18"/>
-      <c r="AE95" s="18"/>
-      <c r="AF95" s="18"/>
-      <c r="AG95" s="18"/>
-      <c r="AH95" s="18"/>
-      <c r="AI95" s="18"/>
-      <c r="AJ95" s="18"/>
-      <c r="AK95" s="18"/>
-      <c r="AL95" s="18"/>
-      <c r="AM95" s="18"/>
-      <c r="AN95" s="18"/>
-      <c r="AO95" s="18"/>
-      <c r="AP95" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/dev/ML_model_performance.xlsx
+++ b/dev/ML_model_performance.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE14EB-7173-4504-9A3B-47879B16D051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8059201-F671-4B17-99B3-03C0B3AAB139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="1545" yWindow="2460" windowWidth="18345" windowHeight="12045" activeTab="2" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="formatted_tables" sheetId="2" r:id="rId2"/>
+    <sheet name="classification_analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="computing_cloud_metrics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Epochs</t>
   </si>
@@ -173,16 +176,61 @@
   <si>
     <t>RGB + all</t>
   </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Classification (0.6)</t>
+  </si>
+  <si>
+    <t>number of points</t>
+  </si>
+  <si>
+    <t>time to compute 3D sd</t>
+  </si>
+  <si>
+    <t>cKDTree; query_ball_point; XYZ sd combined; r=0.50m</t>
+  </si>
+  <si>
+    <t>cKDTree; query_ball_point; XYZ sd combined; r=0.10m</t>
+  </si>
+  <si>
+    <t>model_xyzrgb_8_8_8</t>
+  </si>
+  <si>
+    <t>model_xyzrgb_16_16_16</t>
+  </si>
+  <si>
+    <t>model_sdrgb_8_8_8</t>
+  </si>
+  <si>
+    <t>model_sdrgb_16_16_16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +241,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -317,12 +380,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -353,16 +427,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,7 +573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$8</c:f>
+              <c:f>analysis!$W$3:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -509,7 +600,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -561,7 +652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$9:$W$14</c:f>
+              <c:f>analysis!$W$9:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -588,7 +679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$9:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -640,7 +731,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$W$15:$W$20</c:f>
+              <c:f>analysis!$W$15:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -667,7 +758,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$15:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1154,10 +1245,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$33</c:f>
+              <c:f>analysis!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>545</c:v>
                 </c:pt>
@@ -1247,16 +1338,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$33</c:f>
+              <c:f>analysis!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.91479999999999995</c:v>
                 </c:pt>
@@ -1346,6 +1449,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,7 +1874,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1786,7 +1901,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1838,7 +1953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$9:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1865,7 +1980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$9:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1917,7 +2032,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1944,7 +2059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1996,7 +2111,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:f>analysis!$F$27:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2014,7 +2129,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:f>analysis!$D$27:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2057,7 +2172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:f>analysis!$F$30:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2075,7 +2190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$32</c:f>
+              <c:f>analysis!$D$30:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2118,7 +2233,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$23</c:f>
+              <c:f>analysis!$F$21:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2136,7 +2251,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$23</c:f>
+              <c:f>analysis!$D$21:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2181,7 +2296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$24:$F$26</c:f>
+              <c:f>analysis!$F$24:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2199,7 +2314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$26</c:f>
+              <c:f>analysis!$D$24:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2632,7 +2747,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>analysis!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2731,7 +2846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$32</c:f>
+              <c:f>analysis!$D$3:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3022,6 +3137,988 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Computing Standard Deviation over r=0.5m</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10414391951006124"/>
+                  <c:y val="0.38557341790609506"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>computing_cloud_metrics!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>computing_cloud_metrics!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2E2-4EAA-8475-AD23C2B88CAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2063309887"/>
+        <c:axId val="2063310303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2063309887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063310303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2063310303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063309887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Computing Standard Deviation over r=0.1m</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10043788276465442"/>
+                  <c:y val="0.38384259259259257"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>computing_cloud_metrics!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>computing_cloud_metrics!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-478A-4E22-B33F-A634BCD329D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2063309887"/>
+        <c:axId val="2063310303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2063309887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063310303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2063310303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063309887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3134,10 +4231,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$33</c:f>
+              <c:f>analysis!$AA$3:$AA$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2495</c:v>
                 </c:pt>
@@ -3233,10 +4330,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$33</c:f>
+              <c:f>analysis!$Y$3:$Y$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.9042</c:v>
                 </c:pt>
@@ -3749,7 +4846,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$3:$AA$8</c:f>
+              <c:f>analysis!$AA$3:$AA$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3776,7 +4873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3838,7 +4935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$9:$AA$14</c:f>
+              <c:f>analysis!$AA$9:$AA$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3865,7 +4962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$9:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3927,7 +5024,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$15:$AA$20</c:f>
+              <c:f>analysis!$AA$15:$AA$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3954,7 +5051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$15:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4430,7 +5527,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$8</c:f>
+              <c:f>analysis!$AB$3:$AB$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4457,7 +5554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$3:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4519,7 +5616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$9:$AB$14</c:f>
+              <c:f>analysis!$AB$9:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4546,7 +5643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$9:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4608,7 +5705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AC$15:$AC$20</c:f>
+              <c:f>analysis!$AC$15:$AC$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4635,7 +5732,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$15:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4697,7 +5794,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$27:$AB$29</c:f>
+              <c:f>analysis!$AB$27:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4715,7 +5812,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$27:$Y$29</c:f>
+              <c:f>analysis!$Y$27:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4768,7 +5865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$30:$AB$32</c:f>
+              <c:f>analysis!$AB$30:$AB$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4786,7 +5883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$30:$Y$32</c:f>
+              <c:f>analysis!$Y$30:$Y$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4839,7 +5936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$21:$AB$23</c:f>
+              <c:f>analysis!$AB$21:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4857,7 +5954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$21:$Y$23</c:f>
+              <c:f>analysis!$Y$21:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4914,7 +6011,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$24:$AB$26</c:f>
+              <c:f>analysis!$AB$24:$AB$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4932,7 +6029,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$24:$Y$26</c:f>
+              <c:f>analysis!$Y$24:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5401,10 +6498,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$33</c:f>
+              <c:f>analysis!$AB$3:$AB$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -5500,10 +6597,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$33</c:f>
+              <c:f>analysis!$Y$3:$Y$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.9042</c:v>
                 </c:pt>
@@ -6007,7 +7104,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>analysis!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6034,7 +7131,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>analysis!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6086,7 +7183,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$14</c:f>
+              <c:f>analysis!$B$9:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6113,7 +7210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$14</c:f>
+              <c:f>analysis!$E$9:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6165,7 +7262,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$20</c:f>
+              <c:f>analysis!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6192,7 +7289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$15:$E$20</c:f>
+              <c:f>analysis!$E$15:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6679,10 +7776,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$33</c:f>
+              <c:f>analysis!$F$3:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>545</c:v>
                 </c:pt>
@@ -6772,16 +7869,28 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$33</c:f>
+              <c:f>analysis!$D$3:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.91479999999999995</c:v>
                 </c:pt>
@@ -6871,6 +7980,18 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,7 +8415,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7321,7 +8442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7383,7 +8504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$9:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7410,7 +8531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$9:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7472,7 +8593,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7499,7 +8620,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7974,7 +9095,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8001,7 +9122,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8063,7 +9184,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$9:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8090,7 +9211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$9:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8152,7 +9273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8179,7 +9300,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8241,7 +9362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:f>analysis!$F$27:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8259,7 +9380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:f>analysis!$D$27:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8312,7 +9433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$F$32</c:f>
+              <c:f>analysis!$F$30:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8330,7 +9451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$32</c:f>
+              <c:f>analysis!$D$30:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8383,7 +9504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$23</c:f>
+              <c:f>analysis!$F$21:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8401,7 +9522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$23</c:f>
+              <c:f>analysis!$D$21:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8458,7 +9579,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$24:$F$26</c:f>
+              <c:f>analysis!$F$24:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8476,7 +9597,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$26</c:f>
+              <c:f>analysis!$D$24:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8992,6 +10113,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11376,6 +12577,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15510,13 +17743,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15548,13 +17781,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15586,13 +17819,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15624,13 +17857,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15662,13 +17895,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15700,13 +17933,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15738,13 +17971,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15776,13 +18009,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15814,13 +18047,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15852,13 +18085,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15890,13 +18123,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15928,13 +18161,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15955,6 +18188,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57E7354-41CC-4FD8-BB87-4CB2A7A0355A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B455940-A82C-4AF1-9C15-04938454A0E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16260,10 +18572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
-  <dimension ref="B1:AP32"/>
+  <dimension ref="B1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16305,23 +18617,23 @@
       <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
       <c r="W1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -16433,12 +18745,12 @@
         <f t="shared" ref="I3:I32" si="5">AD3</f>
         <v>model_rgb_16</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="W3" s="18">
         <v>1</v>
       </c>
@@ -16463,12 +18775,12 @@
       <c r="AD3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="31" t="s">
+      <c r="AM3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
@@ -18728,6 +21040,182 @@
         <f t="shared" si="54"/>
         <v>222.33333333333334</v>
       </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="36">
+        <v>3</v>
+      </c>
+      <c r="C33" s="13">
+        <v>6</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F33" s="13">
+        <v>589</v>
+      </c>
+      <c r="G33" s="13">
+        <v>209</v>
+      </c>
+      <c r="H33" s="13">
+        <v>209</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B34" s="37">
+        <v>3</v>
+      </c>
+      <c r="C34" s="38">
+        <v>6</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="E34" s="38">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F34" s="38">
+        <v>585</v>
+      </c>
+      <c r="G34" s="38">
+        <v>673</v>
+      </c>
+      <c r="H34" s="38">
+        <v>673</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B35" s="36">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.9506</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="F35" s="13">
+        <v>889</v>
+      </c>
+      <c r="G35" s="13">
+        <v>193</v>
+      </c>
+      <c r="H35" s="13">
+        <v>193</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" s="37">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="F36" s="11">
+        <v>967</v>
+      </c>
+      <c r="G36" s="11">
+        <v>641</v>
+      </c>
+      <c r="H36" s="11">
+        <v>641</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18760,7 +21248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y32">
+  <conditionalFormatting sqref="Y3:Y36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -18772,7 +21260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA32">
+  <conditionalFormatting sqref="AA3:AA36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -18788,4 +21276,2058 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32AC5E-7D8B-4F66-BF44-89F0FAC2E2BF}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>analysis!I3</f>
+        <v>model_rgb_16</v>
+      </c>
+      <c r="B3">
+        <f>analysis!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>analysis!C3</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>analysis!D3</f>
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="E3">
+        <f>analysis!F3</f>
+        <v>545</v>
+      </c>
+      <c r="F3">
+        <f>analysis!E3</f>
+        <v>0.9214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>analysis!I4</f>
+        <v>model_rgb_16_32</v>
+      </c>
+      <c r="B4">
+        <f>analysis!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>analysis!C4</f>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>analysis!D4</f>
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="E4">
+        <f>analysis!F4</f>
+        <v>884</v>
+      </c>
+      <c r="F4">
+        <f>analysis!E4</f>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>analysis!I5</f>
+        <v>model_rgb_16_32_64</v>
+      </c>
+      <c r="B5">
+        <f>analysis!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>analysis!C5</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>analysis!D5</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E5">
+        <f>analysis!F5</f>
+        <v>576</v>
+      </c>
+      <c r="F5">
+        <f>analysis!E5</f>
+        <v>0.93859999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>analysis!I6</f>
+        <v>model_rgb_16_32_64_128</v>
+      </c>
+      <c r="B6">
+        <f>analysis!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>analysis!C6</f>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>analysis!D6</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E6">
+        <f>analysis!F6</f>
+        <v>592</v>
+      </c>
+      <c r="F6">
+        <f>analysis!E6</f>
+        <v>0.93659999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>analysis!I7</f>
+        <v>model_rgb_16_32_64_128_256</v>
+      </c>
+      <c r="B7">
+        <f>analysis!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>analysis!C7</f>
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>analysis!D7</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E7">
+        <f>analysis!F7</f>
+        <v>592</v>
+      </c>
+      <c r="F7">
+        <f>analysis!E7</f>
+        <v>0.9385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="str">
+        <f>analysis!I8</f>
+        <v>model_rgb_16_32_64_128_256_512</v>
+      </c>
+      <c r="B8" s="32">
+        <f>analysis!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="32">
+        <f>analysis!C8</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="32">
+        <f>analysis!D8</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E8" s="32">
+        <f>analysis!F8</f>
+        <v>621</v>
+      </c>
+      <c r="F8" s="32">
+        <f>analysis!E8</f>
+        <v>0.93889999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>analysis!I9</f>
+        <v>model_rgb_simple_16</v>
+      </c>
+      <c r="B9">
+        <f>analysis!B9</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>analysis!C9</f>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>analysis!D9</f>
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="E9">
+        <f>analysis!F9</f>
+        <v>741</v>
+      </c>
+      <c r="F9">
+        <f>analysis!E9</f>
+        <v>0.92269999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>analysis!I10</f>
+        <v>model_rgb_simple_16_32</v>
+      </c>
+      <c r="B10">
+        <f>analysis!B10</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>analysis!C10</f>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>analysis!D10</f>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="E10">
+        <f>analysis!F10</f>
+        <v>700</v>
+      </c>
+      <c r="F10">
+        <f>analysis!E10</f>
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>analysis!I11</f>
+        <v>model_rgb_simple_16_32_64</v>
+      </c>
+      <c r="B11">
+        <f>analysis!B11</f>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f>analysis!C11</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>analysis!D11</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E11">
+        <f>analysis!F11</f>
+        <v>749</v>
+      </c>
+      <c r="F11">
+        <f>analysis!E11</f>
+        <v>0.94030000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>analysis!I12</f>
+        <v>model_rgb_simple_16_32_64_128</v>
+      </c>
+      <c r="B12">
+        <f>analysis!B12</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>analysis!C12</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>analysis!D12</f>
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="E12">
+        <f>analysis!F12</f>
+        <v>1075</v>
+      </c>
+      <c r="F12">
+        <f>analysis!E12</f>
+        <v>0.94059999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>analysis!I13</f>
+        <v>model_rgb_simple_16_32_64_128_256</v>
+      </c>
+      <c r="B13">
+        <f>analysis!B13</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>analysis!C13</f>
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f>analysis!D13</f>
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="E13">
+        <f>analysis!F13</f>
+        <v>1009</v>
+      </c>
+      <c r="F13">
+        <f>analysis!E13</f>
+        <v>0.94089999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="str">
+        <f>analysis!I14</f>
+        <v>model_rgb_simple_16_32_64_128_256_512</v>
+      </c>
+      <c r="B14" s="32">
+        <f>analysis!B14</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="32">
+        <f>analysis!C14</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="32">
+        <f>analysis!D14</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E14" s="32">
+        <f>analysis!F14</f>
+        <v>1314</v>
+      </c>
+      <c r="F14" s="32">
+        <f>analysis!E14</f>
+        <v>0.94079999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>analysis!I15</f>
+        <v>all_16</v>
+      </c>
+      <c r="B15">
+        <f>analysis!B15</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>analysis!C15</f>
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f>analysis!D15</f>
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="E15">
+        <f>analysis!F15</f>
+        <v>1648</v>
+      </c>
+      <c r="F15">
+        <f>analysis!E15</f>
+        <v>0.93530000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>analysis!I16</f>
+        <v>all_16_32</v>
+      </c>
+      <c r="B16">
+        <f>analysis!B16</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>analysis!C16</f>
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f>analysis!D16</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E16">
+        <f>analysis!F16</f>
+        <v>1013</v>
+      </c>
+      <c r="F16">
+        <f>analysis!E16</f>
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>analysis!I17</f>
+        <v>all_16_32_64</v>
+      </c>
+      <c r="B17">
+        <f>analysis!B17</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>analysis!C17</f>
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f>analysis!D17</f>
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="E17">
+        <f>analysis!F17</f>
+        <v>1061</v>
+      </c>
+      <c r="F17">
+        <f>analysis!E17</f>
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>analysis!I18</f>
+        <v>all_16_32_64_128</v>
+      </c>
+      <c r="B18">
+        <f>analysis!B18</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>analysis!C18</f>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f>analysis!D18</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E18">
+        <f>analysis!F18</f>
+        <v>1505</v>
+      </c>
+      <c r="F18">
+        <f>analysis!E18</f>
+        <v>0.94130000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>analysis!I19</f>
+        <v>all_16_32_64_128_256</v>
+      </c>
+      <c r="B19">
+        <f>analysis!B19</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>analysis!C19</f>
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <f>analysis!D19</f>
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="E19">
+        <f>analysis!F19</f>
+        <v>2047</v>
+      </c>
+      <c r="F19">
+        <f>analysis!E19</f>
+        <v>0.94230000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="str">
+        <f>analysis!I20</f>
+        <v>all_16_32_64_128_256_512</v>
+      </c>
+      <c r="B20" s="32">
+        <f>analysis!B20</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="32">
+        <f>analysis!C20</f>
+        <v>9</v>
+      </c>
+      <c r="D20" s="32">
+        <f>analysis!D20</f>
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="E20" s="32">
+        <f>analysis!F20</f>
+        <v>1455</v>
+      </c>
+      <c r="F20" s="32">
+        <f>analysis!E20</f>
+        <v>0.94179999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>analysis!I21</f>
+        <v>model_rgb_16_16</v>
+      </c>
+      <c r="B21">
+        <f>analysis!B21</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>analysis!C21</f>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f>analysis!D21</f>
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E21">
+        <f>analysis!F21</f>
+        <v>624</v>
+      </c>
+      <c r="F21">
+        <f>analysis!E21</f>
+        <v>0.93859999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>analysis!I22</f>
+        <v>model_rgb_simple_16_16</v>
+      </c>
+      <c r="B22">
+        <f>analysis!B22</f>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f>analysis!C22</f>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <f>analysis!D22</f>
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="E22">
+        <f>analysis!F22</f>
+        <v>724</v>
+      </c>
+      <c r="F22">
+        <f>analysis!E22</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="str">
+        <f>analysis!I23</f>
+        <v>model_all_16_16</v>
+      </c>
+      <c r="B23" s="32">
+        <f>analysis!B23</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="32">
+        <f>analysis!C23</f>
+        <v>7</v>
+      </c>
+      <c r="D23" s="32">
+        <f>analysis!D23</f>
+        <v>0.94</v>
+      </c>
+      <c r="E23" s="32">
+        <f>analysis!F23</f>
+        <v>1033</v>
+      </c>
+      <c r="F23" s="32">
+        <f>analysis!E23</f>
+        <v>0.94030000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>analysis!I24</f>
+        <v>model_rgb_16_16_16</v>
+      </c>
+      <c r="B24">
+        <f>analysis!B24</f>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>analysis!C24</f>
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <f>analysis!D24</f>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E24">
+        <f>analysis!F24</f>
+        <v>513</v>
+      </c>
+      <c r="F24">
+        <f>analysis!E24</f>
+        <v>0.93879999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>analysis!I25</f>
+        <v>model_rgb_simple_16_16_16</v>
+      </c>
+      <c r="B25">
+        <f>analysis!B25</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>analysis!C25</f>
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>analysis!D25</f>
+        <v>0.94</v>
+      </c>
+      <c r="E25">
+        <f>analysis!F25</f>
+        <v>742</v>
+      </c>
+      <c r="F25">
+        <f>analysis!E25</f>
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="str">
+        <f>analysis!I26</f>
+        <v>model_all_16_16_16</v>
+      </c>
+      <c r="B26" s="32">
+        <f>analysis!B26</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="32">
+        <f>analysis!C26</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="32">
+        <f>analysis!D26</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E26" s="32">
+        <f>analysis!F26</f>
+        <v>1018</v>
+      </c>
+      <c r="F26" s="32">
+        <f>analysis!E26</f>
+        <v>0.94030000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>analysis!I27</f>
+        <v>model_rgb_8_8</v>
+      </c>
+      <c r="B27">
+        <f>analysis!B27</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>analysis!C27</f>
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <f>analysis!D27</f>
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="E27">
+        <f>analysis!F27</f>
+        <v>850</v>
+      </c>
+      <c r="F27">
+        <f>analysis!E27</f>
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>analysis!I28</f>
+        <v>model_rgb_simple_8_8</v>
+      </c>
+      <c r="B28">
+        <f>analysis!B28</f>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>analysis!C28</f>
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <f>analysis!D28</f>
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="E28">
+        <f>analysis!F28</f>
+        <v>1154</v>
+      </c>
+      <c r="F28">
+        <f>analysis!E28</f>
+        <v>0.93859999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="str">
+        <f>analysis!I29</f>
+        <v>model_all_8_8</v>
+      </c>
+      <c r="B29" s="32">
+        <f>analysis!B29</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="32">
+        <f>analysis!C29</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="32">
+        <f>analysis!D29</f>
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="E29" s="32">
+        <f>analysis!F29</f>
+        <v>1037</v>
+      </c>
+      <c r="F29" s="32">
+        <f>analysis!E29</f>
+        <v>0.93869999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>analysis!I30</f>
+        <v>model_rgb_8_8_8</v>
+      </c>
+      <c r="B30">
+        <f>analysis!B30</f>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f>analysis!C30</f>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <f>analysis!D30</f>
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E30">
+        <f>analysis!F30</f>
+        <v>536</v>
+      </c>
+      <c r="F30">
+        <f>analysis!E30</f>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>analysis!I31</f>
+        <v>model_rgb_simple_8_8_8</v>
+      </c>
+      <c r="B31">
+        <f>analysis!B31</f>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>analysis!C31</f>
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>analysis!D31</f>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E31">
+        <f>analysis!F31</f>
+        <v>733</v>
+      </c>
+      <c r="F31">
+        <f>analysis!E31</f>
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>analysis!I32</f>
+        <v>model_all_8_8_8</v>
+      </c>
+      <c r="B32">
+        <f>analysis!B32</f>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f>analysis!C32</f>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <f>analysis!D32</f>
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E32">
+        <f>analysis!F32</f>
+        <v>1011</v>
+      </c>
+      <c r="F32">
+        <f>analysis!E32</f>
+        <v>0.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BD5609-9B8B-4518-8E54-BE8192B1625C}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>analysis!I3</f>
+        <v>model_rgb_16</v>
+      </c>
+      <c r="B3">
+        <f>analysis!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>analysis!C3</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>analysis!D3</f>
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="E3">
+        <f>analysis!F3</f>
+        <v>545</v>
+      </c>
+      <c r="F3">
+        <f>analysis!E3</f>
+        <v>0.9214</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>analysis!I4</f>
+        <v>model_rgb_16_32</v>
+      </c>
+      <c r="B4">
+        <f>analysis!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>analysis!C4</f>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>analysis!D4</f>
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="E4">
+        <f>analysis!F4</f>
+        <v>884</v>
+      </c>
+      <c r="F4">
+        <f>analysis!E4</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>analysis!I5</f>
+        <v>model_rgb_16_32_64</v>
+      </c>
+      <c r="B5">
+        <f>analysis!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>analysis!C5</f>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>analysis!D5</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E5">
+        <f>analysis!F5</f>
+        <v>576</v>
+      </c>
+      <c r="F5">
+        <f>analysis!E5</f>
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>analysis!I6</f>
+        <v>model_rgb_16_32_64_128</v>
+      </c>
+      <c r="B6">
+        <f>analysis!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>analysis!C6</f>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>analysis!D6</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E6">
+        <f>analysis!F6</f>
+        <v>592</v>
+      </c>
+      <c r="F6">
+        <f>analysis!E6</f>
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>analysis!I7</f>
+        <v>model_rgb_16_32_64_128_256</v>
+      </c>
+      <c r="B7">
+        <f>analysis!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>analysis!C7</f>
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>analysis!D7</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E7">
+        <f>analysis!F7</f>
+        <v>592</v>
+      </c>
+      <c r="F7">
+        <f>analysis!E7</f>
+        <v>0.9385</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="str">
+        <f>analysis!I8</f>
+        <v>model_rgb_16_32_64_128_256_512</v>
+      </c>
+      <c r="B8" s="32">
+        <f>analysis!B8</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="32">
+        <f>analysis!C8</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="32">
+        <f>analysis!D8</f>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E8" s="32">
+        <f>analysis!F8</f>
+        <v>621</v>
+      </c>
+      <c r="F8" s="32">
+        <f>analysis!E8</f>
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>analysis!I9</f>
+        <v>model_rgb_simple_16</v>
+      </c>
+      <c r="B9">
+        <f>analysis!B9</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>analysis!C9</f>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>analysis!D9</f>
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="E9">
+        <f>analysis!F9</f>
+        <v>741</v>
+      </c>
+      <c r="F9">
+        <f>analysis!E9</f>
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>analysis!I10</f>
+        <v>model_rgb_simple_16_32</v>
+      </c>
+      <c r="B10">
+        <f>analysis!B10</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>analysis!C10</f>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>analysis!D10</f>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="E10">
+        <f>analysis!F10</f>
+        <v>700</v>
+      </c>
+      <c r="F10">
+        <f>analysis!E10</f>
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>analysis!I11</f>
+        <v>model_rgb_simple_16_32_64</v>
+      </c>
+      <c r="B11">
+        <f>analysis!B11</f>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f>analysis!C11</f>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>analysis!D11</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E11">
+        <f>analysis!F11</f>
+        <v>749</v>
+      </c>
+      <c r="F11">
+        <f>analysis!E11</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>analysis!I12</f>
+        <v>model_rgb_simple_16_32_64_128</v>
+      </c>
+      <c r="B12">
+        <f>analysis!B12</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>analysis!C12</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>analysis!D12</f>
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="E12">
+        <f>analysis!F12</f>
+        <v>1075</v>
+      </c>
+      <c r="F12">
+        <f>analysis!E12</f>
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>analysis!I13</f>
+        <v>model_rgb_simple_16_32_64_128_256</v>
+      </c>
+      <c r="B13">
+        <f>analysis!B13</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>analysis!C13</f>
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f>analysis!D13</f>
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="E13">
+        <f>analysis!F13</f>
+        <v>1009</v>
+      </c>
+      <c r="F13">
+        <f>analysis!E13</f>
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="str">
+        <f>analysis!I14</f>
+        <v>model_rgb_simple_16_32_64_128_256_512</v>
+      </c>
+      <c r="B14" s="32">
+        <f>analysis!B14</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="32">
+        <f>analysis!C14</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="32">
+        <f>analysis!D14</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E14" s="32">
+        <f>analysis!F14</f>
+        <v>1314</v>
+      </c>
+      <c r="F14" s="32">
+        <f>analysis!E14</f>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>analysis!I15</f>
+        <v>all_16</v>
+      </c>
+      <c r="B15">
+        <f>analysis!B15</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>analysis!C15</f>
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f>analysis!D15</f>
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="E15">
+        <f>analysis!F15</f>
+        <v>1648</v>
+      </c>
+      <c r="F15">
+        <f>analysis!E15</f>
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="G15" s="34">
+        <v>131684895</v>
+      </c>
+      <c r="H15" s="34">
+        <v>52131820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>analysis!I16</f>
+        <v>all_16_32</v>
+      </c>
+      <c r="B16">
+        <f>analysis!B16</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f>analysis!C16</f>
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f>analysis!D16</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E16">
+        <f>analysis!F16</f>
+        <v>1013</v>
+      </c>
+      <c r="F16">
+        <f>analysis!E16</f>
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="G16" s="34">
+        <v>126323134</v>
+      </c>
+      <c r="H16" s="34">
+        <v>57493581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>analysis!I17</f>
+        <v>all_16_32_64</v>
+      </c>
+      <c r="B17">
+        <f>analysis!B17</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>analysis!C17</f>
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f>analysis!D17</f>
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="E17">
+        <f>analysis!F17</f>
+        <v>1061</v>
+      </c>
+      <c r="F17">
+        <f>analysis!E17</f>
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="G17" s="34">
+        <v>126029606</v>
+      </c>
+      <c r="H17" s="34">
+        <v>57787109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>analysis!I18</f>
+        <v>all_16_32_64_128</v>
+      </c>
+      <c r="B18">
+        <f>analysis!B18</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>analysis!C18</f>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f>analysis!D18</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E18">
+        <f>analysis!F18</f>
+        <v>1505</v>
+      </c>
+      <c r="F18">
+        <f>analysis!E18</f>
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="G18" s="34">
+        <v>124479944</v>
+      </c>
+      <c r="H18" s="34">
+        <v>59336771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>analysis!I19</f>
+        <v>all_16_32_64_128_256</v>
+      </c>
+      <c r="B19">
+        <f>analysis!B19</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>analysis!C19</f>
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <f>analysis!D19</f>
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="E19">
+        <f>analysis!F19</f>
+        <v>2047</v>
+      </c>
+      <c r="F19">
+        <f>analysis!E19</f>
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="G19" s="34">
+        <v>123937655</v>
+      </c>
+      <c r="H19" s="34">
+        <v>59879060</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="str">
+        <f>analysis!I20</f>
+        <v>all_16_32_64_128_256_512</v>
+      </c>
+      <c r="B20" s="32">
+        <f>analysis!B20</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="32">
+        <f>analysis!C20</f>
+        <v>9</v>
+      </c>
+      <c r="D20" s="32">
+        <f>analysis!D20</f>
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="E20" s="32">
+        <f>analysis!F20</f>
+        <v>1455</v>
+      </c>
+      <c r="F20" s="32">
+        <f>analysis!E20</f>
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="G20" s="34">
+        <v>124117168</v>
+      </c>
+      <c r="H20" s="34">
+        <v>59699547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>analysis!I21</f>
+        <v>model_rgb_16_16</v>
+      </c>
+      <c r="B21">
+        <f>analysis!B21</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>analysis!C21</f>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f>analysis!D21</f>
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E21">
+        <f>analysis!F21</f>
+        <v>624</v>
+      </c>
+      <c r="F21">
+        <f>analysis!E21</f>
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="G21" s="34">
+        <v>126150976</v>
+      </c>
+      <c r="H21" s="34">
+        <v>57665739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>analysis!I22</f>
+        <v>model_rgb_simple_16_16</v>
+      </c>
+      <c r="B22">
+        <f>analysis!B22</f>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f>analysis!C22</f>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <f>analysis!D22</f>
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="E22">
+        <f>analysis!F22</f>
+        <v>724</v>
+      </c>
+      <c r="F22">
+        <f>analysis!E22</f>
+        <v>0.94</v>
+      </c>
+      <c r="G22" s="34">
+        <v>125614750</v>
+      </c>
+      <c r="H22" s="34">
+        <v>58200965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="str">
+        <f>analysis!I23</f>
+        <v>model_all_16_16</v>
+      </c>
+      <c r="B23" s="32">
+        <f>analysis!B23</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="32">
+        <f>analysis!C23</f>
+        <v>7</v>
+      </c>
+      <c r="D23" s="32">
+        <f>analysis!D23</f>
+        <v>0.94</v>
+      </c>
+      <c r="E23" s="32">
+        <f>analysis!F23</f>
+        <v>1033</v>
+      </c>
+      <c r="F23" s="32">
+        <f>analysis!E23</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="G23" s="34">
+        <v>125565428</v>
+      </c>
+      <c r="H23" s="34">
+        <v>58251287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>analysis!I24</f>
+        <v>model_rgb_16_16_16</v>
+      </c>
+      <c r="B24">
+        <f>analysis!B24</f>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>analysis!C24</f>
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <f>analysis!D24</f>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E24">
+        <f>analysis!F24</f>
+        <v>513</v>
+      </c>
+      <c r="F24">
+        <f>analysis!E24</f>
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="G24" s="34">
+        <v>122247372</v>
+      </c>
+      <c r="H24" s="34">
+        <v>61569343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>analysis!I25</f>
+        <v>model_rgb_simple_16_16_16</v>
+      </c>
+      <c r="B25">
+        <f>analysis!B25</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>analysis!C25</f>
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f>analysis!D25</f>
+        <v>0.94</v>
+      </c>
+      <c r="E25">
+        <f>analysis!F25</f>
+        <v>742</v>
+      </c>
+      <c r="F25">
+        <f>analysis!E25</f>
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="G25" s="34">
+        <v>125352996</v>
+      </c>
+      <c r="H25" s="34">
+        <v>58463719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="str">
+        <f>analysis!I26</f>
+        <v>model_all_16_16_16</v>
+      </c>
+      <c r="B26" s="32">
+        <f>analysis!B26</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="32">
+        <f>analysis!C26</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="32">
+        <f>analysis!D26</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E26" s="32">
+        <f>analysis!F26</f>
+        <v>1018</v>
+      </c>
+      <c r="F26" s="32">
+        <f>analysis!E26</f>
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="G26" s="34">
+        <v>124370229</v>
+      </c>
+      <c r="H26" s="34">
+        <v>59446486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>analysis!I27</f>
+        <v>model_rgb_8_8</v>
+      </c>
+      <c r="B27">
+        <f>analysis!B27</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>analysis!C27</f>
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <f>analysis!D27</f>
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="E27">
+        <f>analysis!F27</f>
+        <v>850</v>
+      </c>
+      <c r="F27">
+        <f>analysis!E27</f>
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="G27" s="34">
+        <v>125586191</v>
+      </c>
+      <c r="H27" s="34">
+        <v>58230524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>analysis!I28</f>
+        <v>model_rgb_simple_8_8</v>
+      </c>
+      <c r="B28">
+        <f>analysis!B28</f>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>analysis!C28</f>
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <f>analysis!D28</f>
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="E28">
+        <f>analysis!F28</f>
+        <v>1154</v>
+      </c>
+      <c r="F28">
+        <f>analysis!E28</f>
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="G28" s="34">
+        <v>128138122</v>
+      </c>
+      <c r="H28" s="34">
+        <v>55678593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="str">
+        <f>analysis!I29</f>
+        <v>model_all_8_8</v>
+      </c>
+      <c r="B29" s="32">
+        <f>analysis!B29</f>
+        <v>2</v>
+      </c>
+      <c r="C29" s="32">
+        <f>analysis!C29</f>
+        <v>7</v>
+      </c>
+      <c r="D29" s="32">
+        <f>analysis!D29</f>
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="E29" s="32">
+        <f>analysis!F29</f>
+        <v>1037</v>
+      </c>
+      <c r="F29" s="32">
+        <f>analysis!E29</f>
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="G29" s="34">
+        <v>124440404</v>
+      </c>
+      <c r="H29" s="34">
+        <v>59376311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>analysis!I30</f>
+        <v>model_rgb_8_8_8</v>
+      </c>
+      <c r="B30">
+        <f>analysis!B30</f>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f>analysis!C30</f>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <f>analysis!D30</f>
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E30">
+        <f>analysis!F30</f>
+        <v>536</v>
+      </c>
+      <c r="F30">
+        <f>analysis!E30</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G30" s="34">
+        <v>120403365</v>
+      </c>
+      <c r="H30" s="34">
+        <v>63413350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>analysis!I31</f>
+        <v>model_rgb_simple_8_8_8</v>
+      </c>
+      <c r="B31">
+        <f>analysis!B31</f>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f>analysis!C31</f>
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>analysis!D31</f>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E31">
+        <f>analysis!F31</f>
+        <v>733</v>
+      </c>
+      <c r="F31">
+        <f>analysis!E31</f>
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="G31" s="34">
+        <v>125861843</v>
+      </c>
+      <c r="H31" s="34">
+        <v>57954872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>analysis!I32</f>
+        <v>model_all_8_8_8</v>
+      </c>
+      <c r="B32">
+        <f>analysis!B32</f>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f>analysis!C32</f>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <f>analysis!D32</f>
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E32">
+        <f>analysis!F32</f>
+        <v>1011</v>
+      </c>
+      <c r="F32">
+        <f>analysis!E32</f>
+        <v>0.94</v>
+      </c>
+      <c r="G32" s="34">
+        <v>123586909</v>
+      </c>
+      <c r="H32" s="34">
+        <v>60229806</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADDAE30-B0D0-49C1-9CB5-A226D2BE261D}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="H1" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>250000</v>
+      </c>
+      <c r="B3">
+        <v>275</v>
+      </c>
+      <c r="H3">
+        <v>250000</v>
+      </c>
+      <c r="I3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500000</v>
+      </c>
+      <c r="B4">
+        <v>591</v>
+      </c>
+      <c r="C4">
+        <f>B4/B3</f>
+        <v>2.1490909090909089</v>
+      </c>
+      <c r="H4">
+        <v>500000</v>
+      </c>
+      <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <f>I4/I3</f>
+        <v>2.0277777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>750000</v>
+      </c>
+      <c r="B5">
+        <v>912</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">B5/B4</f>
+        <v>1.5431472081218274</v>
+      </c>
+      <c r="D5">
+        <f>B5/B3</f>
+        <v>3.3163636363636364</v>
+      </c>
+      <c r="H5">
+        <v>750000</v>
+      </c>
+      <c r="I5">
+        <v>110</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="1">I5/I4</f>
+        <v>1.5068493150684932</v>
+      </c>
+      <c r="K5">
+        <f>I5/I3</f>
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>1189</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.3037280701754386</v>
+      </c>
+      <c r="D6">
+        <f>B6/B4</f>
+        <v>2.011844331641286</v>
+      </c>
+      <c r="E6">
+        <f>B6/B3</f>
+        <v>4.3236363636363633</v>
+      </c>
+      <c r="H6">
+        <v>1000000</v>
+      </c>
+      <c r="I6">
+        <v>146</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.3272727272727274</v>
+      </c>
+      <c r="K6">
+        <f>I6/I4</f>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>I6/I3</f>
+        <v>4.0555555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="35">
+        <f t="shared" ref="G24:G26" si="2">I3/B3</f>
+        <v>0.13090909090909092</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="35">
+        <f t="shared" si="2"/>
+        <v>0.12351945854483926</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1206140350877193</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="35">
+        <f>I6/B6</f>
+        <v>0.12279226240538267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dev/ML_model_performance.xlsx
+++ b/dev/ML_model_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8059201-F671-4B17-99B3-03C0B3AAB139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F352A4-3665-4E11-909A-828480BD9E72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="2460" windowWidth="18345" windowHeight="12045" activeTab="2" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="4215" yWindow="450" windowWidth="22575" windowHeight="11100" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -18574,8 +18574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
   <dimension ref="B1:AP36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21110,11 +21110,26 @@
       <c r="I34" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="J34" s="1">
+        <f>AVERAGE(C33:C34)</f>
+        <v>6</v>
+      </c>
+      <c r="K34" s="2">
+        <f>AVERAGE(D33:D34)</f>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <f>AVERAGE(E33:E34)</f>
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="M34" s="3">
+        <f>AVERAGE(F33:F34)</f>
+        <v>587</v>
+      </c>
+      <c r="N34" s="3">
+        <f>AVERAGE(G33:G34)</f>
+        <v>441</v>
+      </c>
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
@@ -21198,11 +21213,26 @@
       <c r="I36" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="J36" s="1">
+        <f>AVERAGE(C35:C36)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K36" s="2">
+        <f>AVERAGE(D35:D36)</f>
+        <v>0.95155000000000001</v>
+      </c>
+      <c r="L36" s="2">
+        <f>AVERAGE(E35:E36)</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="M36" s="3">
+        <f>AVERAGE(F35:F36)</f>
+        <v>928</v>
+      </c>
+      <c r="N36" s="3">
+        <f>AVERAGE(G35:G36)</f>
+        <v>417</v>
+      </c>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
@@ -22144,7 +22174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BD5609-9B8B-4518-8E54-BE8192B1625C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/dev/ML_model_performance.xlsx
+++ b/dev/ML_model_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil\Documents\GitHub\point_cloud_vegetation_filtering\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F352A4-3665-4E11-909A-828480BD9E72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B22BE1-2CBB-4D9D-8C04-EEA89657C655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="450" windowWidth="22575" windowHeight="11100" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
+    <workbookView xWindow="4215" yWindow="450" windowWidth="27645" windowHeight="14325" xr2:uid="{8DCF5AFF-D886-48A3-80E0-141B4EF1DBE8}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Epochs</t>
   </si>
@@ -218,6 +218,36 @@
   <si>
     <t>model_sdrgb_16_16_16</t>
   </si>
+  <si>
+    <t>CloudCompare CANUPO classifier</t>
+  </si>
+  <si>
+    <t>noveg</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>dist. to boundary</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>balanced accuracy:</t>
+  </si>
+  <si>
+    <t>Fisher Discriminany Ratio:</t>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +426,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -442,11 +472,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -573,7 +609,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$W$3:$W$8</c:f>
+              <c:f>analysis!$W$10:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -600,7 +636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$10:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -652,7 +688,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$W$9:$W$14</c:f>
+              <c:f>analysis!$W$16:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -679,7 +715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$16:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -731,7 +767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$W$15:$W$20</c:f>
+              <c:f>analysis!$W$22:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -758,7 +794,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$22:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1245,7 +1281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$3:$F$37</c:f>
+              <c:f>analysis!$F$10:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1356,7 +1392,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$37</c:f>
+              <c:f>analysis!$D$10:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1874,7 +1910,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1901,7 +1937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1953,7 +1989,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$16:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1980,7 +2016,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$16:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2032,7 +2068,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$22:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2059,7 +2095,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$22:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2111,7 +2147,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$27:$F$29</c:f>
+              <c:f>analysis!$F$34:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2129,7 +2165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$27:$D$29</c:f>
+              <c:f>analysis!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2172,7 +2208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$30:$F$32</c:f>
+              <c:f>analysis!$F$37:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2190,7 +2226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$30:$D$32</c:f>
+              <c:f>analysis!$D$37:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2233,7 +2269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$21:$F$23</c:f>
+              <c:f>analysis!$F$28:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2251,7 +2287,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$21:$D$23</c:f>
+              <c:f>analysis!$D$28:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2296,7 +2332,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$24:$F$26</c:f>
+              <c:f>analysis!$F$31:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2314,7 +2350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$24:$D$26</c:f>
+              <c:f>analysis!$D$31:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2747,7 +2783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$B$3:$B$32</c:f>
+              <c:f>analysis!$B$10:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2846,7 +2882,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$32</c:f>
+              <c:f>analysis!$D$10:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4231,7 +4267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AA$3:$AA$37</c:f>
+              <c:f>analysis!$AA$10:$AA$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4330,7 +4366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$3:$Y$37</c:f>
+              <c:f>analysis!$Y$10:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -4846,7 +4882,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AA$3:$AA$8</c:f>
+              <c:f>analysis!$AA$10:$AA$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4873,7 +4909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$10:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4935,7 +4971,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AA$9:$AA$14</c:f>
+              <c:f>analysis!$AA$16:$AA$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4962,7 +4998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$16:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5024,7 +5060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AA$15:$AA$20</c:f>
+              <c:f>analysis!$AA$22:$AA$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5051,7 +5087,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$22:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5527,7 +5563,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$3:$AB$8</c:f>
+              <c:f>analysis!$AB$10:$AB$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5554,7 +5590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$3:$Y$8</c:f>
+              <c:f>analysis!$Y$10:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5616,7 +5652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$9:$AB$14</c:f>
+              <c:f>analysis!$AB$16:$AB$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5643,7 +5679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$9:$Y$14</c:f>
+              <c:f>analysis!$Y$16:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5705,7 +5741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AC$15:$AC$20</c:f>
+              <c:f>analysis!$AC$22:$AC$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5732,7 +5768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$15:$Y$20</c:f>
+              <c:f>analysis!$Y$22:$Y$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5794,7 +5830,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$27:$AB$29</c:f>
+              <c:f>analysis!$AB$34:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5812,7 +5848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$27:$Y$29</c:f>
+              <c:f>analysis!$Y$34:$Y$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5865,7 +5901,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$30:$AB$32</c:f>
+              <c:f>analysis!$AB$37:$AB$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5883,7 +5919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$30:$Y$32</c:f>
+              <c:f>analysis!$Y$37:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5936,7 +5972,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$21:$AB$23</c:f>
+              <c:f>analysis!$AB$28:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5954,7 +5990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$21:$Y$23</c:f>
+              <c:f>analysis!$Y$28:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6011,7 +6047,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$24:$AB$26</c:f>
+              <c:f>analysis!$AB$31:$AB$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6029,7 +6065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$24:$Y$26</c:f>
+              <c:f>analysis!$Y$31:$Y$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6498,7 +6534,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$AB$3:$AB$37</c:f>
+              <c:f>analysis!$AB$10:$AB$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -6597,7 +6633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$Y$3:$Y$37</c:f>
+              <c:f>analysis!$Y$10:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -7104,7 +7140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$B$3:$B$8</c:f>
+              <c:f>analysis!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7131,7 +7167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$E$3:$E$8</c:f>
+              <c:f>analysis!$E$10:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7183,7 +7219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$B$9:$B$14</c:f>
+              <c:f>analysis!$B$16:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7210,7 +7246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$E$9:$E$14</c:f>
+              <c:f>analysis!$E$16:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7262,7 +7298,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$B$15:$B$20</c:f>
+              <c:f>analysis!$B$22:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7289,7 +7325,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$E$15:$E$20</c:f>
+              <c:f>analysis!$E$22:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7776,7 +7812,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$3:$F$37</c:f>
+              <c:f>analysis!$F$10:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -7887,7 +7923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$37</c:f>
+              <c:f>analysis!$D$10:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -8415,7 +8451,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8442,7 +8478,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8504,7 +8540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$16:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8531,7 +8567,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$16:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8593,7 +8629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$22:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8620,7 +8656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$22:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9095,7 +9131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$3:$F$8</c:f>
+              <c:f>analysis!$F$10:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9122,7 +9158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$3:$D$8</c:f>
+              <c:f>analysis!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9184,7 +9220,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$9:$F$14</c:f>
+              <c:f>analysis!$F$16:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9211,7 +9247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$9:$D$14</c:f>
+              <c:f>analysis!$D$16:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9273,7 +9309,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$15:$F$20</c:f>
+              <c:f>analysis!$F$22:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9300,7 +9336,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$15:$D$20</c:f>
+              <c:f>analysis!$D$22:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9362,7 +9398,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$27:$F$29</c:f>
+              <c:f>analysis!$F$34:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9380,7 +9416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$27:$D$29</c:f>
+              <c:f>analysis!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9433,7 +9469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$30:$F$32</c:f>
+              <c:f>analysis!$F$37:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9451,7 +9487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$30:$D$32</c:f>
+              <c:f>analysis!$D$37:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9504,7 +9540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$21:$F$23</c:f>
+              <c:f>analysis!$F$28:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9522,7 +9558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$21:$D$23</c:f>
+              <c:f>analysis!$D$28:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9579,7 +9615,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analysis!$F$24:$F$26</c:f>
+              <c:f>analysis!$F$31:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9597,7 +9633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analysis!$D$24:$D$26</c:f>
+              <c:f>analysis!$D$31:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -17743,13 +17779,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17781,13 +17817,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17819,13 +17855,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17857,13 +17893,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17895,13 +17931,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17933,13 +17969,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17971,13 +18007,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18009,13 +18045,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18047,13 +18083,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18085,13 +18121,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18123,13 +18159,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18161,13 +18197,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18572,10 +18608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6A66E-88A0-4AD5-8234-0F09C8AD5240}">
-  <dimension ref="B1:AP36"/>
+  <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18613,2648 +18649,2767 @@
     <col min="42" max="42" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42">
+        <v>0.88724999999999998</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42">
+        <v>2.8186100000000001</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>9036</v>
+      </c>
+      <c r="D5">
+        <v>964</v>
+      </c>
+      <c r="E5">
+        <f>C5/B5</f>
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="F5">
+        <v>-4.0767600000000002</v>
+      </c>
+      <c r="G5">
+        <v>3.1579799999999998</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xlfn.CONCAT(F5," +/- ",G5)</f>
+        <v>-4.07676 +/- 3.15798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>8709</v>
+      </c>
+      <c r="D6">
+        <v>1291</v>
+      </c>
+      <c r="E6">
+        <f>C6/B6</f>
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.4986700000000002</v>
+      </c>
+      <c r="G6">
+        <v>2.31663</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.CONCAT(F6," +/- ",G6)</f>
+        <v>2.49867 +/- 2.31663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="W1" s="17" t="s">
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="W8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="str">
-        <f>C2</f>
+      <c r="J9" t="str">
+        <f>C9</f>
         <v>Epochs</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2" si="0">D2</f>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9" si="0">D9</f>
         <v>Accuracy (train)</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2" si="1">E2</f>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9" si="1">E9</f>
         <v>Accuracy (val)</v>
       </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2" si="2">F2</f>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9" si="2">F9</f>
         <v>Time (s)</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2" si="3">G2</f>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9" si="3">G9</f>
         <v>Total Params</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="17" t="str">
-        <f>X2</f>
+      <c r="AE9" s="17" t="str">
+        <f>X9</f>
         <v>Epochs</v>
       </c>
-      <c r="AF2" s="17" t="str">
-        <f t="shared" ref="AF2:AI2" si="4">Y2</f>
+      <c r="AF9" s="17" t="str">
+        <f t="shared" ref="AF9:AI9" si="4">Y9</f>
         <v>Accuracy (train)</v>
       </c>
-      <c r="AG2" s="17" t="str">
+      <c r="AG9" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Accuracy (val)</v>
       </c>
-      <c r="AH2" s="17" t="str">
+      <c r="AH9" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Time (s)</v>
       </c>
-      <c r="AI2" s="17" t="str">
+      <c r="AI9" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Total Params</v>
       </c>
     </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C10" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D10" s="5">
         <v>0.91479999999999995</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E10" s="5">
         <v>0.9214</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F10" s="5">
         <v>545</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G10" s="5">
         <v>81</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H10" s="5">
         <v>81</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I32" si="5">AD3</f>
+      <c r="I10" s="6" t="str">
+        <f t="shared" ref="I10:I39" si="5">AD10</f>
         <v>model_rgb_16</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="W3" s="18">
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="W10" s="18">
         <v>1</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X10" s="19">
         <v>9</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y10" s="19">
         <v>0.9042</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z10" s="19">
         <v>0.9264</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA10" s="19">
         <v>2495</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB10" s="19">
         <v>81</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC10" s="19">
         <v>81</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="43" t="s">
+      <c r="AM10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C11" s="8">
         <v>11</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D11" s="8">
         <v>0.93910000000000005</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E11" s="13">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F11" s="13">
         <v>884</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G11" s="8">
         <v>641</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H11" s="8">
         <v>641</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I11" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_16_32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q11" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R11" t="s">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S11" t="s">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T11" t="s">
         <v>40</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U11" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W11" s="21">
         <v>2</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X11" s="22">
         <v>9</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y11" s="22">
         <v>0.93600000000000005</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z11" s="22">
         <v>0.9365</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA11" s="22">
         <v>3111</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AB11" s="22">
         <v>641</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC11" s="22">
         <v>641</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AL11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AM11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AN11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="17" t="s">
+      <c r="AO11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AP11" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D12" s="8">
         <v>0.93979999999999997</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E12" s="13">
         <v>0.93859999999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F12" s="13">
         <v>576</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G12" s="8">
         <v>2785</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H12" s="8">
         <v>2785</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_16_32_64</v>
       </c>
-      <c r="Q5">
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R5" s="1">
-        <f>AVERAGE(C3,C9,C15)</f>
+      <c r="R12" s="1">
+        <f>AVERAGE(C10,C16,C22)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="S5" s="2">
-        <f t="shared" ref="S5:S10" si="6">AVERAGE(D3,D9,D15)</f>
+      <c r="S12" s="2">
+        <f t="shared" ref="S12:S17" si="6">AVERAGE(D10,D16,D22)</f>
         <v>0.9206333333333333</v>
       </c>
-      <c r="T5" s="3">
-        <f>AVERAGE(F3,F9,F15)</f>
+      <c r="T12" s="3">
+        <f>AVERAGE(F10,F16,F22)</f>
         <v>978</v>
       </c>
-      <c r="U5" s="3">
-        <f>AVERAGE(G3,G9,G15)</f>
+      <c r="U12" s="3">
+        <f>AVERAGE(G10,G16,G22)</f>
         <v>155.66666666666666</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W12" s="21">
         <v>3</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X12" s="22">
         <v>7</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y12" s="22">
         <v>0.93659999999999999</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z12" s="22">
         <v>0.93679999999999997</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA12" s="22">
         <v>2933</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB12" s="22">
         <v>2785</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC12" s="22">
         <v>2785</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AD12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AL12" s="17">
         <v>1</v>
       </c>
-      <c r="AM5" s="24">
-        <f>AVERAGE(X3,X9,X15)</f>
+      <c r="AM12" s="24">
+        <f>AVERAGE(X10,X16,X22)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="AN5" s="25">
-        <f t="shared" ref="AN5:AN10" si="7">AVERAGE(Y3,Y9,Y15)</f>
+      <c r="AN12" s="25">
+        <f t="shared" ref="AN12:AN17" si="7">AVERAGE(Y10,Y16,Y22)</f>
         <v>0.91473333333333329</v>
       </c>
-      <c r="AO5" s="26">
-        <f>AVERAGE(AA3,AA9,AA15)</f>
+      <c r="AO12" s="26">
+        <f>AVERAGE(AA10,AA16,AA22)</f>
         <v>2374.6666666666665</v>
       </c>
-      <c r="AP5" s="26">
-        <f>AVERAGE(AB3,AB9,AB15)</f>
+      <c r="AP12" s="26">
+        <f>AVERAGE(AB10,AB16,AB22)</f>
         <v>155.66666666666666</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C13" s="13">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D13" s="13">
         <v>0.93979999999999997</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E13" s="13">
         <v>0.93659999999999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F13" s="13">
         <v>592</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G13" s="8">
         <v>11169</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H13" s="8">
         <v>11169</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I13" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128</v>
       </c>
-      <c r="Q6">
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" ref="R6:R8" si="8">AVERAGE(C4,C10,C16)</f>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13:R15" si="8">AVERAGE(C11,C17,C23)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S13" s="2">
         <f t="shared" si="6"/>
         <v>0.93956666666666655</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:T10" si="9">AVERAGE(F4,F10,F16)</f>
+      <c r="T13" s="3">
+        <f t="shared" ref="T13:T17" si="9">AVERAGE(F11,F17,F23)</f>
         <v>865.66666666666663</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" ref="U6:U10" si="10">AVERAGE(G4,G10,G16)</f>
+      <c r="U13" s="3">
+        <f t="shared" ref="U13:U17" si="10">AVERAGE(G11,G17,G23)</f>
         <v>715.66666666666663</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W13" s="21">
         <v>4</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X13" s="22">
         <v>7</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y13" s="22">
         <v>0.93669999999999998</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z13" s="22">
         <v>0.93720000000000003</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA13" s="22">
         <v>3343</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB13" s="22">
         <v>11169</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC13" s="22">
         <v>11169</v>
       </c>
-      <c r="AD6" s="23" t="s">
+      <c r="AD13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AL13" s="17">
         <v>2</v>
       </c>
-      <c r="AM6" s="24">
-        <f t="shared" ref="AM6:AM10" si="11">AVERAGE(X4,X10,X16)</f>
+      <c r="AM13" s="24">
+        <f t="shared" ref="AM13:AM17" si="11">AVERAGE(X11,X17,X23)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AN6" s="25">
+      <c r="AN13" s="25">
         <f t="shared" si="7"/>
         <v>0.93659999999999999</v>
       </c>
-      <c r="AO6" s="26">
-        <f t="shared" ref="AO6:AP10" si="12">AVERAGE(AA4,AA10,AA16)</f>
+      <c r="AO13" s="26">
+        <f t="shared" ref="AO13:AP17" si="12">AVERAGE(AA11,AA17,AA23)</f>
         <v>2348.6666666666665</v>
       </c>
-      <c r="AP6" s="26">
+      <c r="AP13" s="26">
         <f t="shared" si="12"/>
         <v>715.66666666666663</v>
       </c>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C14" s="13">
         <v>7</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D14" s="13">
         <v>0.93989999999999996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E14" s="13">
         <v>0.9385</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F14" s="13">
         <v>592</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G14" s="8">
         <v>44321</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H14" s="8">
         <v>44321</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I14" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128_256</v>
       </c>
-      <c r="Q7">
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S14" s="2">
         <f t="shared" si="6"/>
         <v>0.94016666666666671</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T14" s="3">
         <f t="shared" si="9"/>
         <v>795.33333333333337</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U14" s="3">
         <f t="shared" si="10"/>
         <v>2859.6666666666665</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W14" s="21">
         <v>5</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X14" s="22">
         <v>7</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y14" s="22">
         <v>0.93669999999999998</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z14" s="22">
         <v>0.93630000000000002</v>
       </c>
-      <c r="AA7" s="22">
+      <c r="AA14" s="22">
         <v>3602</v>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB14" s="22">
         <v>44321</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC14" s="22">
         <v>44321</v>
       </c>
-      <c r="AD7" s="23" t="s">
+      <c r="AD14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL14" s="17">
         <v>3</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM14" s="24">
         <f t="shared" si="11"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="AN7" s="25">
+      <c r="AN14" s="25">
         <f t="shared" si="7"/>
         <v>0.93699999999999994</v>
       </c>
-      <c r="AO7" s="26">
+      <c r="AO14" s="26">
         <f t="shared" si="12"/>
         <v>2423.3333333333335</v>
       </c>
-      <c r="AP7" s="26">
+      <c r="AP14" s="26">
         <f t="shared" si="12"/>
         <v>2859.6666666666665</v>
       </c>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D15" s="11">
         <v>0.93979999999999997</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E15" s="11">
         <v>0.93889999999999996</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F15" s="11">
         <v>621</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G15" s="11">
         <v>176161</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H15" s="11">
         <v>176161</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I15" s="12" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_16_32_64_128_256_512</v>
       </c>
-      <c r="J8" s="1">
-        <f>AVERAGE(C3:C8)</f>
+      <c r="J15" s="1">
+        <f>AVERAGE(C10:C15)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8" si="13">AVERAGE(D3:D8)</f>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15" si="13">AVERAGE(D10:D15)</f>
         <v>0.93553333333333333</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8" si="14">AVERAGE(E3:E8)</f>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="14">AVERAGE(E10:E15)</f>
         <v>0.93533333333333335</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" ref="M8" si="15">AVERAGE(F3:F8)</f>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15" si="15">AVERAGE(F10:F15)</f>
         <v>635</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" ref="N8" si="16">AVERAGE(G3:G8)</f>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15" si="16">AVERAGE(G10:G15)</f>
         <v>39193</v>
       </c>
-      <c r="Q8">
+      <c r="Q15">
         <v>4</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S15" s="2">
         <f t="shared" si="6"/>
         <v>0.94056666666666666</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T15" s="3">
         <f t="shared" si="9"/>
         <v>1057.3333333333333</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U15" s="3">
         <f t="shared" si="10"/>
         <v>11243.666666666666</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W15" s="27">
         <v>6</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X15" s="28">
         <v>7</v>
       </c>
-      <c r="Y8" s="28">
+      <c r="Y15" s="28">
         <v>0.93679999999999997</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="Z15" s="28">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AA15" s="28">
         <v>3837</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB15" s="28">
         <v>176161</v>
       </c>
-      <c r="AC8" s="28">
+      <c r="AC15" s="28">
         <v>176161</v>
       </c>
-      <c r="AD8" s="29" t="s">
+      <c r="AD15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="24">
-        <f>AVERAGE(X3:X8)</f>
+      <c r="AE15" s="24">
+        <f>AVERAGE(X10:X15)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AF8" s="25">
-        <f t="shared" ref="AF8:AI8" si="17">AVERAGE(Y3:Y8)</f>
+      <c r="AF15" s="25">
+        <f t="shared" ref="AF15:AI15" si="17">AVERAGE(Y10:Y15)</f>
         <v>0.93116666666666659</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AG15" s="25">
         <f t="shared" si="17"/>
         <v>0.93498333333333339</v>
       </c>
-      <c r="AH8" s="26">
+      <c r="AH15" s="26">
         <f t="shared" si="17"/>
         <v>3220.1666666666665</v>
       </c>
-      <c r="AI8" s="26">
+      <c r="AI15" s="26">
         <f t="shared" si="17"/>
         <v>39193</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AL15" s="17">
         <v>4</v>
       </c>
-      <c r="AM8" s="24">
+      <c r="AM15" s="24">
         <f t="shared" si="11"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AN8" s="25">
+      <c r="AN15" s="25">
         <f t="shared" si="7"/>
         <v>0.9376000000000001</v>
       </c>
-      <c r="AO8" s="26">
+      <c r="AO15" s="26">
         <f t="shared" si="12"/>
         <v>3245.6666666666665</v>
       </c>
-      <c r="AP8" s="26">
+      <c r="AP15" s="26">
         <f t="shared" si="12"/>
         <v>11243.666666666666</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D16" s="5">
         <v>0.91569999999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E16" s="5">
         <v>0.92269999999999996</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F16" s="5">
         <v>741</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G16" s="5">
         <v>145</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H16" s="5">
         <v>145</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_simple_16</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="Q9">
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="Q16">
         <v>5</v>
       </c>
-      <c r="R9" s="1">
-        <f>AVERAGE(C7,C13,C19)</f>
+      <c r="R16" s="1">
+        <f>AVERAGE(C14,C20,C26)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S16" s="2">
         <f t="shared" si="6"/>
         <v>0.94099999999999995</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T16" s="3">
         <f t="shared" si="9"/>
         <v>1216</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U16" s="3">
         <f t="shared" si="10"/>
         <v>44395.666666666664</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W16" s="18">
         <v>1</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X16" s="19">
         <v>7</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y16" s="19">
         <v>0.91159999999999997</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z16" s="19">
         <v>0.91890000000000005</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA16" s="19">
         <v>1541</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB16" s="19">
         <v>145</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC16" s="19">
         <v>145</v>
       </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AD16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AL9" s="17">
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AL16" s="17">
         <v>5</v>
       </c>
-      <c r="AM9" s="24">
-        <f>AVERAGE(X7,X13,X19)</f>
+      <c r="AM16" s="24">
+        <f>AVERAGE(X14,X20,X26)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AN9" s="25">
+      <c r="AN16" s="25">
         <f t="shared" si="7"/>
         <v>0.93769999999999998</v>
       </c>
-      <c r="AO9" s="26">
+      <c r="AO16" s="26">
         <f t="shared" si="12"/>
         <v>2761.6666666666665</v>
       </c>
-      <c r="AP9" s="26">
+      <c r="AP16" s="26">
         <f t="shared" si="12"/>
         <v>44395.666666666664</v>
       </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C17" s="13">
         <v>7</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D17" s="13">
         <v>0.93969999999999998</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E17" s="13">
         <v>0.94010000000000005</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F17" s="13">
         <v>700</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G17" s="8">
         <v>705</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H17" s="8">
         <v>705</v>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I17" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="Q10">
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" ref="R10" si="18">AVERAGE(C8,C14,C20)</f>
+      <c r="R17" s="1">
+        <f t="shared" ref="R17" si="18">AVERAGE(C15,C21,C27)</f>
         <v>9</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S17" s="2">
         <f t="shared" si="6"/>
         <v>0.9408333333333333</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T17" s="3">
         <f t="shared" si="9"/>
         <v>1130</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U17" s="3">
         <f t="shared" si="10"/>
         <v>176235.66666666666</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W17" s="21">
         <v>2</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X17" s="22">
         <v>7</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y17" s="22">
         <v>0.93679999999999997</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z17" s="22">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA17" s="22">
         <v>1514</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB17" s="22">
         <v>705</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC17" s="22">
         <v>705</v>
       </c>
-      <c r="AD10" s="23" t="s">
+      <c r="AD17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AL10" s="17">
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AL17" s="17">
         <v>6</v>
       </c>
-      <c r="AM10" s="24">
+      <c r="AM17" s="24">
         <f t="shared" si="11"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="AN10" s="25">
+      <c r="AN17" s="25">
         <f t="shared" si="7"/>
         <v>0.9375</v>
       </c>
-      <c r="AO10" s="26">
+      <c r="AO17" s="26">
         <f t="shared" si="12"/>
         <v>2823.6666666666665</v>
       </c>
-      <c r="AP10" s="26">
+      <c r="AP17" s="26">
         <f t="shared" si="12"/>
         <v>176235.66666666666</v>
       </c>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C18" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D18" s="13">
         <v>0.94030000000000002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E18" s="13">
         <v>0.94030000000000002</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F18" s="13">
         <v>749</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G18" s="8">
         <v>2849</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H18" s="8">
         <v>2849</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I18" s="9" t="str">
         <f t="shared" si="5"/>
         <v>model_rgb_simple_16_32_64</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="W11" s="21">
-        <v>3</v>
-      </c>
-      <c r="X11" s="22">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="22">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="Z11" s="22">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>1556</v>
-      </c>
-      <c r="AB11" s="22">
-        <v>2849</v>
-      </c>
-      <c r="AC11" s="22">
-        <v>2849</v>
-      </c>
-      <c r="AD11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-    </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1075</v>
-      </c>
-      <c r="G12" s="8">
-        <v>11233</v>
-      </c>
-      <c r="H12" s="8">
-        <v>11233</v>
-      </c>
-      <c r="I12" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="Q12" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="1">
-        <f>AVERAGE(C21,C24,C27,C30)</f>
-        <v>8.25</v>
-      </c>
-      <c r="S12" s="1">
-        <f>AVERAGE(D21,D24,D27,D30)</f>
-        <v>0.91677500000000001</v>
-      </c>
-      <c r="T12" s="1">
-        <f>AVERAGE(F21,F24,F27,F30)</f>
-        <v>630.75</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="T12:U14" si="19">AVERAGE(G21,G24,G27,G30)</f>
-        <v>319</v>
-      </c>
-      <c r="W12" s="21">
-        <v>4</v>
-      </c>
-      <c r="X12" s="22">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>0.9375</v>
-      </c>
-      <c r="Z12" s="22">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>1534</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>11233</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>11233</v>
-      </c>
-      <c r="AD12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AL12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM12" s="24">
-        <f>AVERAGE(X21,X24,X27,X30)</f>
-        <v>10.25</v>
-      </c>
-      <c r="AN12" s="24">
-        <f>AVERAGE(Y21,Y24,Y27,Y30)</f>
-        <v>0.93254999999999999</v>
-      </c>
-      <c r="AO12" s="24">
-        <f>AVERAGE(AA21,AA24,AA27,AA30)</f>
-        <v>1948.5</v>
-      </c>
-      <c r="AP12" s="24">
-        <f t="shared" ref="AP12:AP14" si="20">AVERAGE(AB21,AB24,AB27,AB30)</f>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1009</v>
-      </c>
-      <c r="G13" s="8">
-        <v>44385</v>
-      </c>
-      <c r="H13" s="8">
-        <v>44385</v>
-      </c>
-      <c r="I13" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128_256</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" ref="R13:S13" si="21">AVERAGE(C22,C25,C28,C31)</f>
-        <v>8</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="21"/>
-        <v>0.936025</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="19"/>
-        <v>838.25</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="19"/>
-        <v>367</v>
-      </c>
-      <c r="W13" s="21">
-        <v>5</v>
-      </c>
-      <c r="X13" s="22">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="22">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="Z13" s="22">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="AA13" s="22">
-        <v>1826</v>
-      </c>
-      <c r="AB13" s="22">
-        <v>44385</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>44385</v>
-      </c>
-      <c r="AD13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AL13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM13" s="24">
-        <f t="shared" ref="AM13:AM14" si="22">AVERAGE(X22,X25,X28,X31)</f>
-        <v>9.25</v>
-      </c>
-      <c r="AN13" s="24">
-        <f t="shared" ref="AN13:AN14" si="23">AVERAGE(Y22,Y25,Y28,Y31)</f>
-        <v>0.93137500000000006</v>
-      </c>
-      <c r="AO13" s="24">
-        <f t="shared" ref="AO13:AO14" si="24">AVERAGE(AA22,AA25,AA28,AA31)</f>
-        <v>2058.25</v>
-      </c>
-      <c r="AP13" s="24">
-        <f t="shared" si="20"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1314</v>
-      </c>
-      <c r="G14" s="11">
-        <v>176225</v>
-      </c>
-      <c r="H14" s="11">
-        <v>176225</v>
-      </c>
-      <c r="I14" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_32_64_128_256_512</v>
-      </c>
-      <c r="J14" s="1">
-        <f>AVERAGE(C9:C14)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" ref="K14" si="25">AVERAGE(D9:D14)</f>
-        <v>0.93636666666666668</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ref="L14" si="26">AVERAGE(E9:E14)</f>
-        <v>0.93756666666666666</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" ref="M14" si="27">AVERAGE(F9:F14)</f>
-        <v>931.33333333333337</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" ref="N14" si="28">AVERAGE(G9:G14)</f>
-        <v>39257</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" ref="R14:S14" si="29">AVERAGE(C23,C26,C29,C32)</f>
-        <v>7</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="29"/>
-        <v>0.93569999999999998</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="19"/>
-        <v>1024.75</v>
-      </c>
-      <c r="U14" s="1">
-        <f t="shared" si="19"/>
-        <v>439</v>
-      </c>
-      <c r="W14" s="27">
-        <v>6</v>
-      </c>
-      <c r="X14" s="28">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="Z14" s="28">
-        <v>0.9375</v>
-      </c>
-      <c r="AA14" s="28">
-        <v>1389</v>
-      </c>
-      <c r="AB14" s="28">
-        <v>176225</v>
-      </c>
-      <c r="AC14" s="28">
-        <v>176225</v>
-      </c>
-      <c r="AD14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE14" s="24">
-        <f>AVERAGE(X9:X14)</f>
-        <v>7</v>
-      </c>
-      <c r="AF14" s="25">
-        <f t="shared" ref="AF14:AI14" si="30">AVERAGE(Y9:Y14)</f>
-        <v>0.93299999999999994</v>
-      </c>
-      <c r="AG14" s="25">
-        <f t="shared" si="30"/>
-        <v>0.93433333333333335</v>
-      </c>
-      <c r="AH14" s="26">
-        <f t="shared" si="30"/>
-        <v>1560</v>
-      </c>
-      <c r="AI14" s="26">
-        <f t="shared" si="30"/>
-        <v>39257</v>
-      </c>
-      <c r="AL14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM14" s="24">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="AN14" s="24">
-        <f t="shared" si="23"/>
-        <v>0.93524999999999991</v>
-      </c>
-      <c r="AO14" s="24">
-        <f t="shared" si="24"/>
-        <v>2806.5</v>
-      </c>
-      <c r="AP14" s="24">
-        <f t="shared" si="20"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.93530000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1648</v>
-      </c>
-      <c r="G15" s="5">
-        <v>241</v>
-      </c>
-      <c r="H15" s="5">
-        <v>241</v>
-      </c>
-      <c r="I15" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>all_16</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="W15" s="18">
-        <v>1</v>
-      </c>
-      <c r="X15" s="19">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>0.9284</v>
-      </c>
-      <c r="Z15" s="19">
-        <v>0.93110000000000004</v>
-      </c>
-      <c r="AA15" s="19">
-        <v>3088</v>
-      </c>
-      <c r="AB15" s="19">
-        <v>241</v>
-      </c>
-      <c r="AC15" s="19">
-        <v>241</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="24"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1013</v>
-      </c>
-      <c r="G16" s="8">
-        <v>801</v>
-      </c>
-      <c r="H16" s="8">
-        <v>801</v>
-      </c>
-      <c r="I16" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>all_16_32</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="W16" s="21">
-        <v>2</v>
-      </c>
-      <c r="X16" s="22">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="22">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="Z16" s="22">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="AA16" s="22">
-        <v>2421</v>
-      </c>
-      <c r="AB16" s="22">
-        <v>801</v>
-      </c>
-      <c r="AC16" s="22">
-        <v>801</v>
-      </c>
-      <c r="AD16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE16" s="24"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="13">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1061</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2945</v>
-      </c>
-      <c r="H17" s="8">
-        <v>2945</v>
-      </c>
-      <c r="I17" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>all_16_32_64</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="W17" s="21">
-        <v>3</v>
-      </c>
-      <c r="X17" s="22">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="22">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="Z17" s="22">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>2781</v>
-      </c>
-      <c r="AB17" s="22">
-        <v>2945</v>
-      </c>
-      <c r="AC17" s="22">
-        <v>2945</v>
-      </c>
-      <c r="AD17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="24"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1505</v>
-      </c>
-      <c r="G18" s="8">
-        <v>11329</v>
-      </c>
-      <c r="H18" s="8">
-        <v>11329</v>
-      </c>
-      <c r="I18" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>all_16_32_64_128</v>
-      </c>
       <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="W18" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X18" s="22">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="Z18" s="22">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>1556</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>2849</v>
+      </c>
+      <c r="AC18" s="22">
+        <v>2849</v>
+      </c>
+      <c r="AD18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="22">
-        <v>0.93859999999999999</v>
-      </c>
-      <c r="Z18" s="22">
-        <v>0.93869999999999998</v>
-      </c>
-      <c r="AA18" s="22">
-        <v>4860</v>
-      </c>
-      <c r="AB18" s="22">
-        <v>11329</v>
-      </c>
-      <c r="AC18" s="22">
-        <v>11329</v>
-      </c>
-      <c r="AD18" s="23" t="s">
-        <v>20</v>
-      </c>
       <c r="AE18" s="24"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="13">
-        <v>0.94220000000000004</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="E19" s="13">
-        <v>0.94230000000000003</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="F19" s="13">
-        <v>2047</v>
+        <v>1075</v>
       </c>
       <c r="G19" s="8">
-        <v>44481</v>
+        <v>11233</v>
       </c>
       <c r="H19" s="8">
-        <v>44481</v>
+        <v>11233</v>
       </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>all_16_32_64_128_256</v>
+        <v>model_rgb_simple_16_32_64_128</v>
       </c>
       <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="1">
+        <f>AVERAGE(C28,C31,C34,C37)</f>
+        <v>8.25</v>
+      </c>
+      <c r="S19" s="1">
+        <f>AVERAGE(D28,D31,D34,D37)</f>
+        <v>0.91677500000000001</v>
+      </c>
+      <c r="T19" s="1">
+        <f>AVERAGE(F28,F31,F34,F37)</f>
+        <v>630.75</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" ref="T19:U21" si="19">AVERAGE(G28,G31,G34,G37)</f>
+        <v>319</v>
+      </c>
       <c r="W19" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X19" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="22">
-        <v>0.93869999999999998</v>
+        <v>0.9375</v>
       </c>
       <c r="Z19" s="22">
-        <v>0.93869999999999998</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="AA19" s="22">
-        <v>2857</v>
+        <v>1534</v>
       </c>
       <c r="AB19" s="22">
-        <v>44481</v>
+        <v>11233</v>
       </c>
       <c r="AC19" s="22">
-        <v>44481</v>
+        <v>11233</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE19" s="24"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
+      <c r="AL19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" s="24">
+        <f>AVERAGE(X28,X31,X34,X37)</f>
+        <v>10.25</v>
+      </c>
+      <c r="AN19" s="24">
+        <f>AVERAGE(Y28,Y31,Y34,Y37)</f>
+        <v>0.93254999999999999</v>
+      </c>
+      <c r="AO19" s="24">
+        <f>AVERAGE(AA28,AA31,AA34,AA37)</f>
+        <v>1948.5</v>
+      </c>
+      <c r="AP19" s="24">
+        <f t="shared" ref="AP19:AP21" si="20">AVERAGE(AB28,AB31,AB34,AB37)</f>
+        <v>319</v>
+      </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1009</v>
+      </c>
+      <c r="G20" s="8">
+        <v>44385</v>
+      </c>
+      <c r="H20" s="8">
+        <v>44385</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_simple_16_32_64_128_256</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="Q20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:S20" si="21">AVERAGE(C29,C32,C35,C38)</f>
+        <v>8</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="21"/>
+        <v>0.936025</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="19"/>
+        <v>838.25</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="19"/>
+        <v>367</v>
+      </c>
+      <c r="W20" s="21">
+        <v>5</v>
+      </c>
+      <c r="X20" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="Z20" s="22">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>1826</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>44385</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>44385</v>
+      </c>
+      <c r="AD20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AL20" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM20" s="24">
+        <f t="shared" ref="AM20:AM21" si="22">AVERAGE(X29,X32,X35,X38)</f>
+        <v>9.25</v>
+      </c>
+      <c r="AN20" s="24">
+        <f t="shared" ref="AN20:AN21" si="23">AVERAGE(Y29,Y32,Y35,Y38)</f>
+        <v>0.93137500000000006</v>
+      </c>
+      <c r="AO20" s="24">
+        <f t="shared" ref="AO20:AO21" si="24">AVERAGE(AA29,AA32,AA35,AA38)</f>
+        <v>2058.25</v>
+      </c>
+      <c r="AP20" s="24">
+        <f t="shared" si="20"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>6</v>
       </c>
-      <c r="C20" s="11">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1455</v>
-      </c>
-      <c r="G20" s="11">
-        <v>176321</v>
-      </c>
-      <c r="H20" s="11">
-        <v>176321</v>
-      </c>
-      <c r="I20" s="12" t="str">
+      <c r="C21" s="11">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1314</v>
+      </c>
+      <c r="G21" s="11">
+        <v>176225</v>
+      </c>
+      <c r="H21" s="11">
+        <v>176225</v>
+      </c>
+      <c r="I21" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>all_16_32_64_128_256_512</v>
-      </c>
-      <c r="J20" s="1">
-        <f>AVERAGE(C15:C20)</f>
-        <v>9.5</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" ref="K20" si="31">AVERAGE(D15:D20)</f>
-        <v>0.93948333333333334</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ref="L20" si="32">AVERAGE(E15:E20)</f>
-        <v>0.94015000000000004</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" ref="M20" si="33">AVERAGE(F15:F20)</f>
-        <v>1454.8333333333333</v>
-      </c>
-      <c r="N20" s="3">
-        <f>AVERAGE(G15:G20)</f>
-        <v>39353</v>
-      </c>
-      <c r="W20" s="27">
+        <v>model_rgb_simple_16_32_64_128_256_512</v>
+      </c>
+      <c r="J21" s="1">
+        <f>AVERAGE(C16:C21)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21" si="25">AVERAGE(D16:D21)</f>
+        <v>0.93636666666666668</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21" si="26">AVERAGE(E16:E21)</f>
+        <v>0.93756666666666666</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ref="M21" si="27">AVERAGE(F16:F21)</f>
+        <v>931.33333333333337</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21" si="28">AVERAGE(G16:G21)</f>
+        <v>39257</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" ref="R21:S21" si="29">AVERAGE(C30,C33,C36,C39)</f>
+        <v>7</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="29"/>
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="19"/>
+        <v>1024.75</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="19"/>
+        <v>439</v>
+      </c>
+      <c r="W21" s="27">
         <v>6</v>
       </c>
-      <c r="X20" s="28">
-        <v>9</v>
-      </c>
-      <c r="Y20" s="28">
-        <v>0.9385</v>
-      </c>
-      <c r="Z20" s="28">
-        <v>0.93869999999999998</v>
-      </c>
-      <c r="AA20" s="28">
-        <v>3245</v>
-      </c>
-      <c r="AB20" s="28">
-        <v>176321</v>
-      </c>
-      <c r="AC20" s="28">
-        <v>176321</v>
-      </c>
-      <c r="AD20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE20" s="24">
-        <f>AVERAGE(X15:X20)</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="AF20" s="25">
-        <f t="shared" ref="AF20:AH20" si="34">AVERAGE(Y15:Y20)</f>
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="AG20" s="25">
-        <f t="shared" si="34"/>
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="AH20" s="26">
-        <f t="shared" si="34"/>
-        <v>3208.6666666666665</v>
-      </c>
-      <c r="AI20" s="26">
-        <f>AVERAGE(AB15:AB20)</f>
-        <v>39353</v>
+      <c r="X21" s="28">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>0.9375</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>1389</v>
+      </c>
+      <c r="AB21" s="28">
+        <v>176225</v>
+      </c>
+      <c r="AC21" s="28">
+        <v>176225</v>
+      </c>
+      <c r="AD21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE21" s="24">
+        <f>AVERAGE(X16:X21)</f>
+        <v>7</v>
+      </c>
+      <c r="AF21" s="25">
+        <f t="shared" ref="AF21:AI21" si="30">AVERAGE(Y16:Y21)</f>
+        <v>0.93299999999999994</v>
+      </c>
+      <c r="AG21" s="25">
+        <f t="shared" si="30"/>
+        <v>0.93433333333333335</v>
+      </c>
+      <c r="AH21" s="26">
+        <f t="shared" si="30"/>
+        <v>1560</v>
+      </c>
+      <c r="AI21" s="26">
+        <f t="shared" si="30"/>
+        <v>39257</v>
+      </c>
+      <c r="AL21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="24">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="AN21" s="24">
+        <f t="shared" si="23"/>
+        <v>0.93524999999999991</v>
+      </c>
+      <c r="AO21" s="24">
+        <f t="shared" si="24"/>
+        <v>2806.5</v>
+      </c>
+      <c r="AP21" s="24">
+        <f t="shared" si="20"/>
+        <v>439</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.93479999999999996</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.93859999999999999</v>
-      </c>
-      <c r="F21" s="5">
-        <v>624</v>
-      </c>
-      <c r="G21" s="5">
-        <v>353</v>
-      </c>
-      <c r="H21" s="5">
-        <v>353</v>
-      </c>
-      <c r="I21" s="6" t="str">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1648</v>
+      </c>
+      <c r="G22" s="5">
+        <v>241</v>
+      </c>
+      <c r="H22" s="5">
+        <v>241</v>
+      </c>
+      <c r="I22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_16</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="W21" s="18">
-        <v>2</v>
-      </c>
-      <c r="X21" s="19">
-        <v>11</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="Z21" s="19">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="AA21" s="19">
-        <v>2946</v>
-      </c>
-      <c r="AB21" s="19">
-        <v>353</v>
-      </c>
-      <c r="AC21" s="19">
-        <v>353</v>
-      </c>
-      <c r="AD21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE21" s="24"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="13">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="F22" s="13">
-        <v>724</v>
-      </c>
-      <c r="G22" s="8">
-        <v>417</v>
-      </c>
-      <c r="H22" s="8">
-        <v>417</v>
-      </c>
-      <c r="I22" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_16</v>
+        <v>all_16</v>
       </c>
       <c r="J22" s="1"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="W22" s="21">
-        <v>2</v>
-      </c>
-      <c r="X22" s="22">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="Z22" s="22">
-        <v>0.93659999999999999</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>2185</v>
-      </c>
-      <c r="AB22" s="22">
-        <v>417</v>
-      </c>
-      <c r="AC22" s="22">
-        <v>417</v>
-      </c>
-      <c r="AD22" s="23" t="s">
-        <v>28</v>
+      <c r="W22" s="18">
+        <v>1</v>
+      </c>
+      <c r="X22" s="19">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>0.9284</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>3088</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>241</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>241</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="AE22" s="24"/>
       <c r="AH22" s="26"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>7</v>
       </c>
-      <c r="D23" s="11">
-        <v>0.94</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1033</v>
-      </c>
-      <c r="G23" s="11">
-        <v>513</v>
-      </c>
-      <c r="H23" s="11">
-        <v>513</v>
-      </c>
-      <c r="I23" s="12" t="str">
+      <c r="D23" s="13">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1013</v>
+      </c>
+      <c r="G23" s="8">
+        <v>801</v>
+      </c>
+      <c r="H23" s="8">
+        <v>801</v>
+      </c>
+      <c r="I23" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_all_16_16</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(C21:C23)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" ref="K23" si="35">AVERAGE(D21:D23)</f>
-        <v>0.93786666666666674</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" ref="L23" si="36">AVERAGE(E21:E23)</f>
-        <v>0.93963333333333343</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" ref="M23" si="37">AVERAGE(F21:F23)</f>
-        <v>793.66666666666663</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" ref="N23" si="38">AVERAGE(G21:G23)</f>
-        <v>427.66666666666669</v>
-      </c>
-      <c r="W23" s="27">
+        <v>all_16_32</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="W23" s="21">
         <v>2</v>
       </c>
-      <c r="X23" s="28">
-        <v>11</v>
-      </c>
-      <c r="Y23" s="28">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="Z23" s="28">
-        <v>0.93679999999999997</v>
-      </c>
-      <c r="AA23" s="28">
-        <v>3851</v>
-      </c>
-      <c r="AB23" s="28">
-        <v>513</v>
-      </c>
-      <c r="AC23" s="28">
-        <v>513</v>
-      </c>
-      <c r="AD23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE23" s="24">
-        <f>AVERAGE(X21:X23)</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="AF23" s="25">
-        <f t="shared" ref="AF23:AI23" si="39">AVERAGE(Y21:Y23)</f>
-        <v>0.93526666666666669</v>
-      </c>
-      <c r="AG23" s="25">
-        <f t="shared" si="39"/>
-        <v>0.93653333333333333</v>
-      </c>
-      <c r="AH23" s="26">
-        <f t="shared" si="39"/>
-        <v>2994</v>
-      </c>
-      <c r="AI23" s="26">
-        <f t="shared" si="39"/>
-        <v>427.66666666666669</v>
-      </c>
+      <c r="X23" s="22">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z23" s="22">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>2421</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>801</v>
+      </c>
+      <c r="AC23" s="22">
+        <v>801</v>
+      </c>
+      <c r="AD23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE23" s="24"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>3</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="13">
         <v>7</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="F24" s="5">
-        <v>513</v>
-      </c>
-      <c r="G24" s="5">
-        <v>625</v>
-      </c>
-      <c r="H24" s="5">
-        <v>625</v>
-      </c>
-      <c r="I24" s="14" t="str">
+      <c r="D24" s="13">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1061</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2945</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2945</v>
+      </c>
+      <c r="I24" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_16_16_16</v>
+        <v>all_16_32_64</v>
       </c>
       <c r="J24" s="1"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="W24" s="18">
+      <c r="W24" s="21">
         <v>3</v>
       </c>
-      <c r="X24" s="19">
-        <v>11</v>
-      </c>
-      <c r="Y24" s="19">
-        <v>0.93659999999999999</v>
-      </c>
-      <c r="Z24" s="19">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="AA24" s="19">
-        <v>1765</v>
-      </c>
-      <c r="AB24" s="19">
-        <v>625</v>
-      </c>
-      <c r="AC24" s="19">
-        <v>625</v>
-      </c>
-      <c r="AD24" s="20" t="s">
-        <v>30</v>
+      <c r="X24" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>2781</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>2945</v>
+      </c>
+      <c r="AC24" s="22">
+        <v>2945</v>
+      </c>
+      <c r="AD24" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="AE24" s="24"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" s="13">
-        <v>0.94</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="E25" s="13">
-        <v>0.94040000000000001</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="F25" s="13">
-        <v>742</v>
+        <v>1505</v>
       </c>
       <c r="G25" s="8">
-        <v>689</v>
+        <v>11329</v>
       </c>
       <c r="H25" s="8">
-        <v>689</v>
-      </c>
-      <c r="I25" s="15" t="str">
+        <v>11329</v>
+      </c>
+      <c r="I25" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_simple_16_16_16</v>
+        <v>all_16_32_64_128</v>
       </c>
       <c r="J25" s="1"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="W25" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X25" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y25" s="22">
-        <v>0.93640000000000001</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="Z25" s="22">
-        <v>0.93710000000000004</v>
+        <v>0.93869999999999998</v>
       </c>
       <c r="AA25" s="22">
-        <v>1555</v>
+        <v>4860</v>
       </c>
       <c r="AB25" s="22">
-        <v>689</v>
+        <v>11329</v>
       </c>
       <c r="AC25" s="22">
-        <v>689</v>
+        <v>11329</v>
       </c>
       <c r="AD25" s="23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE25" s="24"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>3</v>
-      </c>
-      <c r="C26" s="11">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1018</v>
-      </c>
-      <c r="G26" s="11">
-        <v>785</v>
-      </c>
-      <c r="H26" s="11">
-        <v>785</v>
-      </c>
-      <c r="I26" s="16" t="str">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2047</v>
+      </c>
+      <c r="G26" s="8">
+        <v>44481</v>
+      </c>
+      <c r="H26" s="8">
+        <v>44481</v>
+      </c>
+      <c r="I26" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_all_16_16_16</v>
-      </c>
-      <c r="J26" s="1">
-        <f>AVERAGE(C24:C26)</f>
-        <v>7</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" ref="K26" si="40">AVERAGE(D24:D26)</f>
-        <v>0.93990000000000007</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" ref="L26" si="41">AVERAGE(E24:E26)</f>
-        <v>0.93983333333333341</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" ref="M26" si="42">AVERAGE(F24:F26)</f>
-        <v>757.66666666666663</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" ref="N26" si="43">AVERAGE(G24:G26)</f>
-        <v>699.66666666666663</v>
-      </c>
-      <c r="W26" s="27">
-        <v>3</v>
-      </c>
-      <c r="X26" s="28">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="28">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="Z26" s="28">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="AA26" s="28">
-        <v>2437</v>
-      </c>
-      <c r="AB26" s="28">
-        <v>785</v>
-      </c>
-      <c r="AC26" s="28">
-        <v>785</v>
-      </c>
-      <c r="AD26" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE26" s="24">
-        <f>AVERAGE(X24:X26)</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="AF26" s="25">
-        <f t="shared" ref="AF26:AI26" si="44">AVERAGE(Y24:Y26)</f>
-        <v>0.93670000000000009</v>
-      </c>
-      <c r="AG26" s="25">
-        <f t="shared" si="44"/>
-        <v>0.93696666666666673</v>
-      </c>
-      <c r="AH26" s="26">
-        <f t="shared" si="44"/>
-        <v>1919</v>
-      </c>
-      <c r="AI26" s="26">
-        <f t="shared" si="44"/>
-        <v>699.66666666666663</v>
-      </c>
+        <v>all_16_32_64_128_256</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="W26" s="21">
+        <v>5</v>
+      </c>
+      <c r="X26" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="Z26" s="22">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="AA26" s="22">
+        <v>2857</v>
+      </c>
+      <c r="AB26" s="22">
+        <v>44481</v>
+      </c>
+      <c r="AC26" s="22">
+        <v>44481</v>
+      </c>
+      <c r="AD26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE26" s="24"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1455</v>
+      </c>
+      <c r="G27" s="11">
+        <v>176321</v>
+      </c>
+      <c r="H27" s="11">
+        <v>176321</v>
+      </c>
+      <c r="I27" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>all_16_32_64_128_256_512</v>
+      </c>
+      <c r="J27" s="1">
+        <f>AVERAGE(C22:C27)</f>
+        <v>9.5</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27" si="31">AVERAGE(D22:D27)</f>
+        <v>0.93948333333333334</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="32">AVERAGE(E22:E27)</f>
+        <v>0.94015000000000004</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" ref="M27" si="33">AVERAGE(F22:F27)</f>
+        <v>1454.8333333333333</v>
+      </c>
+      <c r="N27" s="3">
+        <f>AVERAGE(G22:G27)</f>
+        <v>39353</v>
+      </c>
+      <c r="W27" s="27">
+        <v>6</v>
+      </c>
+      <c r="X27" s="28">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>0.9385</v>
+      </c>
+      <c r="Z27" s="28">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>3245</v>
+      </c>
+      <c r="AB27" s="28">
+        <v>176321</v>
+      </c>
+      <c r="AC27" s="28">
+        <v>176321</v>
+      </c>
+      <c r="AD27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="24">
+        <f>AVERAGE(X22:X27)</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="AF27" s="25">
+        <f t="shared" ref="AF27:AH27" si="34">AVERAGE(Y22:Y27)</f>
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="AG27" s="25">
+        <f t="shared" si="34"/>
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="AH27" s="26">
+        <f t="shared" si="34"/>
+        <v>3208.6666666666665</v>
+      </c>
+      <c r="AI27" s="26">
+        <f>AVERAGE(AB22:AB27)</f>
+        <v>39353</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="5">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.85650000000000004</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="F27" s="5">
-        <v>850</v>
-      </c>
-      <c r="G27" s="5">
-        <v>113</v>
-      </c>
-      <c r="H27" s="5">
-        <v>113</v>
-      </c>
-      <c r="I27" s="6" t="str">
+      <c r="C28" s="5">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>624</v>
+      </c>
+      <c r="G28" s="5">
+        <v>353</v>
+      </c>
+      <c r="H28" s="5">
+        <v>353</v>
+      </c>
+      <c r="I28" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_8_8</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="W27" s="18">
-        <v>2</v>
-      </c>
-      <c r="X27" s="19">
-        <v>9</v>
-      </c>
-      <c r="Y27" s="19">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="Z27" s="19">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="AA27" s="19">
-        <v>1453</v>
-      </c>
-      <c r="AB27" s="19">
-        <v>113</v>
-      </c>
-      <c r="AC27" s="19">
-        <v>113</v>
-      </c>
-      <c r="AD27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE27" s="24"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>2</v>
-      </c>
-      <c r="C28" s="13">
-        <v>11</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.93859999999999999</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1154</v>
-      </c>
-      <c r="G28" s="8">
-        <v>145</v>
-      </c>
-      <c r="H28" s="8">
-        <v>145</v>
-      </c>
-      <c r="I28" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_8_8</v>
+        <v>model_rgb_16_16</v>
       </c>
       <c r="J28" s="1"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="W28" s="21">
+      <c r="W28" s="18">
         <v>2</v>
       </c>
-      <c r="X28" s="22">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="22">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="Z28" s="22">
-        <v>0.9365</v>
-      </c>
-      <c r="AA28" s="22">
-        <v>2634</v>
-      </c>
-      <c r="AB28" s="22">
-        <v>145</v>
-      </c>
-      <c r="AC28" s="22">
-        <v>145</v>
-      </c>
-      <c r="AD28" s="23" t="s">
-        <v>34</v>
+      <c r="X28" s="19">
+        <v>11</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>2946</v>
+      </c>
+      <c r="AB28" s="19">
+        <v>353</v>
+      </c>
+      <c r="AC28" s="19">
+        <v>353</v>
+      </c>
+      <c r="AD28" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="AE28" s="24"/>
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="13">
         <v>7</v>
       </c>
-      <c r="D29" s="11">
-        <v>0.92610000000000003</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.93869999999999998</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1037</v>
-      </c>
-      <c r="G29" s="11">
-        <v>193</v>
-      </c>
-      <c r="H29" s="11">
-        <v>193</v>
-      </c>
-      <c r="I29" s="12" t="str">
+      <c r="D29" s="13">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="F29" s="13">
+        <v>724</v>
+      </c>
+      <c r="G29" s="8">
+        <v>417</v>
+      </c>
+      <c r="H29" s="8">
+        <v>417</v>
+      </c>
+      <c r="I29" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>model_all_8_8</v>
-      </c>
-      <c r="J29" s="1">
-        <f>AVERAGE(C27:C29)</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" ref="K29" si="45">AVERAGE(D27:D29)</f>
-        <v>0.90283333333333327</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" ref="L29" si="46">AVERAGE(E27:E29)</f>
-        <v>0.92393333333333327</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" ref="M29" si="47">AVERAGE(F27:F29)</f>
-        <v>1013.6666666666666</v>
-      </c>
-      <c r="N29" s="3">
-        <f t="shared" ref="N29" si="48">AVERAGE(G27:G29)</f>
-        <v>150.33333333333334</v>
-      </c>
-      <c r="W29" s="27">
+        <v>model_rgb_simple_16_16</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="W29" s="21">
         <v>2</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="22">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Z29" s="22">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="AA29" s="22">
+        <v>2185</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>417</v>
+      </c>
+      <c r="AC29" s="22">
+        <v>417</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="24"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
         <v>7</v>
       </c>
-      <c r="Y29" s="28">
-        <v>0.9345</v>
-      </c>
-      <c r="Z29" s="28">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="AA29" s="28">
-        <v>2434</v>
-      </c>
-      <c r="AB29" s="28">
-        <v>193</v>
-      </c>
-      <c r="AC29" s="28">
-        <v>193</v>
-      </c>
-      <c r="AD29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE29" s="24">
-        <f>AVERAGE(X27:X29)</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="AF29" s="25">
-        <f t="shared" ref="AF29:AI29" si="49">AVERAGE(Y27:Y29)</f>
-        <v>0.93133333333333335</v>
-      </c>
-      <c r="AG29" s="25">
-        <f t="shared" si="49"/>
-        <v>0.93529999999999991</v>
-      </c>
-      <c r="AH29" s="26">
-        <f t="shared" si="49"/>
-        <v>2173.6666666666665</v>
-      </c>
-      <c r="AI29" s="26">
-        <f t="shared" si="49"/>
-        <v>150.33333333333334</v>
+      <c r="D30" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1033</v>
+      </c>
+      <c r="G30" s="11">
+        <v>513</v>
+      </c>
+      <c r="H30" s="11">
+        <v>513</v>
+      </c>
+      <c r="I30" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>model_all_16_16</v>
+      </c>
+      <c r="J30" s="1">
+        <f>AVERAGE(C28:C30)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" ref="K30" si="35">AVERAGE(D28:D30)</f>
+        <v>0.93786666666666674</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" ref="L30" si="36">AVERAGE(E28:E30)</f>
+        <v>0.93963333333333343</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" ref="M30" si="37">AVERAGE(F28:F30)</f>
+        <v>793.66666666666663</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" ref="N30" si="38">AVERAGE(G28:G30)</f>
+        <v>427.66666666666669</v>
+      </c>
+      <c r="W30" s="27">
+        <v>2</v>
+      </c>
+      <c r="X30" s="28">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="28">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="Z30" s="28">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="AA30" s="28">
+        <v>3851</v>
+      </c>
+      <c r="AB30" s="28">
+        <v>513</v>
+      </c>
+      <c r="AC30" s="28">
+        <v>513</v>
+      </c>
+      <c r="AD30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="24">
+        <f>AVERAGE(X28:X30)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="AF30" s="25">
+        <f t="shared" ref="AF30:AI30" si="39">AVERAGE(Y28:Y30)</f>
+        <v>0.93526666666666669</v>
+      </c>
+      <c r="AG30" s="25">
+        <f t="shared" si="39"/>
+        <v>0.93653333333333333</v>
+      </c>
+      <c r="AH30" s="26">
+        <f t="shared" si="39"/>
+        <v>2994</v>
+      </c>
+      <c r="AI30" s="26">
+        <f t="shared" si="39"/>
+        <v>427.66666666666669</v>
       </c>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <v>7</v>
       </c>
-      <c r="D30" s="5">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F30" s="5">
-        <v>536</v>
-      </c>
-      <c r="G30" s="5">
-        <v>185</v>
-      </c>
-      <c r="H30" s="5">
-        <v>185</v>
-      </c>
-      <c r="I30" s="14" t="str">
+      <c r="D31" s="5">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="F31" s="5">
+        <v>513</v>
+      </c>
+      <c r="G31" s="5">
+        <v>625</v>
+      </c>
+      <c r="H31" s="5">
+        <v>625</v>
+      </c>
+      <c r="I31" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>model_rgb_8_8_8</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="W30" s="18">
-        <v>3</v>
-      </c>
-      <c r="X30" s="19">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="19">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="Z30" s="19">
-        <v>0.93559999999999999</v>
-      </c>
-      <c r="AA30" s="19">
-        <v>1630</v>
-      </c>
-      <c r="AB30" s="19">
-        <v>185</v>
-      </c>
-      <c r="AC30" s="19">
-        <v>185</v>
-      </c>
-      <c r="AD30" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE30" s="24"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>7</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="F31" s="13">
-        <v>733</v>
-      </c>
-      <c r="G31" s="8">
-        <v>217</v>
-      </c>
-      <c r="H31" s="8">
-        <v>217</v>
-      </c>
-      <c r="I31" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>model_rgb_simple_8_8_8</v>
+        <v>model_rgb_16_16_16</v>
       </c>
       <c r="J31" s="1"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="W31" s="21">
+      <c r="W31" s="18">
         <v>3</v>
       </c>
-      <c r="X31" s="22">
-        <v>8</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="Z31" s="22">
+      <c r="X31" s="19">
+        <v>11</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="Z31" s="19">
         <v>0.93669999999999998</v>
       </c>
-      <c r="AA31" s="22">
-        <v>1859</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>217</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>217</v>
-      </c>
-      <c r="AD31" s="23" t="s">
-        <v>37</v>
+      <c r="AA31" s="19">
+        <v>1765</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>625</v>
+      </c>
+      <c r="AC31" s="19">
+        <v>625</v>
+      </c>
+      <c r="AD31" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="AE31" s="24"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
         <v>3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="13">
         <v>7</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="F32" s="13">
+        <v>742</v>
+      </c>
+      <c r="G32" s="8">
+        <v>689</v>
+      </c>
+      <c r="H32" s="8">
+        <v>689</v>
+      </c>
+      <c r="I32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_simple_16_16_16</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="W32" s="21">
+        <v>3</v>
+      </c>
+      <c r="X32" s="22">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="22">
         <v>0.93640000000000001</v>
       </c>
-      <c r="E32" s="11">
-        <v>0.94</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1011</v>
-      </c>
-      <c r="G32" s="11">
-        <v>265</v>
-      </c>
-      <c r="H32" s="11">
-        <v>265</v>
-      </c>
-      <c r="I32" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>model_all_8_8_8</v>
-      </c>
-      <c r="J32" s="1">
-        <f>AVERAGE(C30:C32)</f>
-        <v>7</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" ref="K32" si="50">AVERAGE(D30:D32)</f>
-        <v>0.9373999999999999</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" ref="L32" si="51">AVERAGE(E30:E32)</f>
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" ref="M32" si="52">AVERAGE(F30:F32)</f>
-        <v>760</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" ref="N32" si="53">AVERAGE(G30:G32)</f>
-        <v>222.33333333333334</v>
-      </c>
-      <c r="W32" s="27">
-        <v>3</v>
-      </c>
-      <c r="X32" s="28">
-        <v>7</v>
-      </c>
-      <c r="Y32" s="28">
-        <v>0.93320000000000003</v>
-      </c>
-      <c r="Z32" s="28">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="AA32" s="28">
-        <v>2504</v>
-      </c>
-      <c r="AB32" s="28">
-        <v>265</v>
-      </c>
-      <c r="AC32" s="28">
-        <v>265</v>
-      </c>
-      <c r="AD32" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE32" s="24">
-        <f>AVERAGE(X30:X32)</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="AF32" s="25">
-        <f t="shared" ref="AF32:AI32" si="54">AVERAGE(Y30:Y32)</f>
-        <v>0.9289333333333335</v>
-      </c>
-      <c r="AG32" s="25">
-        <f t="shared" si="54"/>
-        <v>0.93643333333333345</v>
-      </c>
-      <c r="AH32" s="26">
-        <f t="shared" si="54"/>
-        <v>1997.6666666666667</v>
-      </c>
-      <c r="AI32" s="26">
-        <f t="shared" si="54"/>
-        <v>222.33333333333334</v>
-      </c>
+      <c r="Z32" s="22">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="AA32" s="22">
+        <v>1555</v>
+      </c>
+      <c r="AB32" s="22">
+        <v>689</v>
+      </c>
+      <c r="AC32" s="22">
+        <v>689</v>
+      </c>
+      <c r="AD32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="24"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B33" s="36">
+      <c r="B33" s="10">
         <v>3</v>
       </c>
-      <c r="C33" s="13">
-        <v>6</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="F33" s="13">
-        <v>589</v>
-      </c>
-      <c r="G33" s="13">
-        <v>209</v>
-      </c>
-      <c r="H33" s="13">
-        <v>209</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
+      <c r="C33" s="11">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1018</v>
+      </c>
+      <c r="G33" s="11">
+        <v>785</v>
+      </c>
+      <c r="H33" s="11">
+        <v>785</v>
+      </c>
+      <c r="I33" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>model_all_16_16_16</v>
+      </c>
+      <c r="J33" s="1">
+        <f>AVERAGE(C31:C33)</f>
+        <v>7</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" ref="K33" si="40">AVERAGE(D31:D33)</f>
+        <v>0.93990000000000007</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" ref="L33" si="41">AVERAGE(E31:E33)</f>
+        <v>0.93983333333333341</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" ref="M33" si="42">AVERAGE(F31:F33)</f>
+        <v>757.66666666666663</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" ref="N33" si="43">AVERAGE(G31:G33)</f>
+        <v>699.66666666666663</v>
+      </c>
+      <c r="W33" s="27">
+        <v>3</v>
+      </c>
+      <c r="X33" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="28">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="Z33" s="28">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="AA33" s="28">
+        <v>2437</v>
+      </c>
+      <c r="AB33" s="28">
+        <v>785</v>
+      </c>
+      <c r="AC33" s="28">
+        <v>785</v>
+      </c>
+      <c r="AD33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE33" s="24">
+        <f>AVERAGE(X31:X33)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" ref="AF33:AI33" si="44">AVERAGE(Y31:Y33)</f>
+        <v>0.93670000000000009</v>
+      </c>
+      <c r="AG33" s="25">
+        <f t="shared" si="44"/>
+        <v>0.93696666666666673</v>
+      </c>
+      <c r="AH33" s="26">
+        <f t="shared" si="44"/>
+        <v>1919</v>
+      </c>
+      <c r="AI33" s="26">
+        <f t="shared" si="44"/>
+        <v>699.66666666666663</v>
+      </c>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B34" s="37">
-        <v>3</v>
-      </c>
-      <c r="C34" s="38">
-        <v>6</v>
-      </c>
-      <c r="D34" s="38">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="E34" s="38">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="F34" s="38">
-        <v>585</v>
-      </c>
-      <c r="G34" s="38">
-        <v>673</v>
-      </c>
-      <c r="H34" s="38">
-        <v>673</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="1">
-        <f>AVERAGE(C33:C34)</f>
-        <v>6</v>
-      </c>
-      <c r="K34" s="2">
-        <f>AVERAGE(D33:D34)</f>
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="L34" s="2">
-        <f>AVERAGE(E33:E34)</f>
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="M34" s="3">
-        <f>AVERAGE(F33:F34)</f>
-        <v>587</v>
-      </c>
-      <c r="N34" s="3">
-        <f>AVERAGE(G33:G34)</f>
-        <v>441</v>
-      </c>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>11</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="F34" s="5">
+        <v>850</v>
+      </c>
+      <c r="G34" s="5">
+        <v>113</v>
+      </c>
+      <c r="H34" s="5">
+        <v>113</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_8_8</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="W34" s="18">
+        <v>2</v>
+      </c>
+      <c r="X34" s="19">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>1453</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>113</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>113</v>
+      </c>
+      <c r="AD34" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="AE34" s="24"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B35" s="36">
-        <v>3</v>
+      <c r="B35" s="7">
+        <v>2</v>
       </c>
       <c r="C35" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="13">
-        <v>0.9506</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="E35" s="13">
-        <v>0.95250000000000001</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="F35" s="13">
-        <v>889</v>
-      </c>
-      <c r="G35" s="13">
-        <v>193</v>
-      </c>
-      <c r="H35" s="13">
-        <v>193</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>58</v>
+        <v>1154</v>
+      </c>
+      <c r="G35" s="8">
+        <v>145</v>
+      </c>
+      <c r="H35" s="8">
+        <v>145</v>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_simple_8_8</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
+      <c r="W35" s="21">
+        <v>2</v>
+      </c>
+      <c r="X35" s="22">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="22">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="Z35" s="22">
+        <v>0.9365</v>
+      </c>
+      <c r="AA35" s="22">
+        <v>2634</v>
+      </c>
+      <c r="AB35" s="22">
+        <v>145</v>
+      </c>
+      <c r="AC35" s="22">
+        <v>145</v>
+      </c>
+      <c r="AD35" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="AE35" s="24"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B36" s="37">
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1037</v>
+      </c>
+      <c r="G36" s="11">
+        <v>193</v>
+      </c>
+      <c r="H36" s="11">
+        <v>193</v>
+      </c>
+      <c r="I36" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>model_all_8_8</v>
+      </c>
+      <c r="J36" s="1">
+        <f>AVERAGE(C34:C36)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" ref="K36" si="45">AVERAGE(D34:D36)</f>
+        <v>0.90283333333333327</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" ref="L36" si="46">AVERAGE(E34:E36)</f>
+        <v>0.92393333333333327</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" ref="M36" si="47">AVERAGE(F34:F36)</f>
+        <v>1013.6666666666666</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" ref="N36" si="48">AVERAGE(G34:G36)</f>
+        <v>150.33333333333334</v>
+      </c>
+      <c r="W36" s="27">
+        <v>2</v>
+      </c>
+      <c r="X36" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="28">
+        <v>0.9345</v>
+      </c>
+      <c r="Z36" s="28">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="AA36" s="28">
+        <v>2434</v>
+      </c>
+      <c r="AB36" s="28">
+        <v>193</v>
+      </c>
+      <c r="AC36" s="28">
+        <v>193</v>
+      </c>
+      <c r="AD36" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE36" s="24">
+        <f>AVERAGE(X34:X36)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="AF36" s="25">
+        <f t="shared" ref="AF36:AI36" si="49">AVERAGE(Y34:Y36)</f>
+        <v>0.93133333333333335</v>
+      </c>
+      <c r="AG36" s="25">
+        <f t="shared" si="49"/>
+        <v>0.93529999999999991</v>
+      </c>
+      <c r="AH36" s="26">
+        <f t="shared" si="49"/>
+        <v>2173.6666666666665</v>
+      </c>
+      <c r="AI36" s="26">
+        <f t="shared" si="49"/>
+        <v>150.33333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C37" s="5">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F37" s="5">
+        <v>536</v>
+      </c>
+      <c r="G37" s="5">
+        <v>185</v>
+      </c>
+      <c r="H37" s="5">
+        <v>185</v>
+      </c>
+      <c r="I37" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_8_8_8</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="W37" s="18">
+        <v>3</v>
+      </c>
+      <c r="X37" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>1630</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>185</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>185</v>
+      </c>
+      <c r="AD37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE37" s="24"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="F38" s="13">
+        <v>733</v>
+      </c>
+      <c r="G38" s="8">
+        <v>217</v>
+      </c>
+      <c r="H38" s="8">
+        <v>217</v>
+      </c>
+      <c r="I38" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>model_rgb_simple_8_8_8</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="W38" s="21">
+        <v>3</v>
+      </c>
+      <c r="X38" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="22">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="Z38" s="22">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AA38" s="22">
+        <v>1859</v>
+      </c>
+      <c r="AB38" s="22">
+        <v>217</v>
+      </c>
+      <c r="AC38" s="22">
+        <v>217</v>
+      </c>
+      <c r="AD38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE38" s="24"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1011</v>
+      </c>
+      <c r="G39" s="11">
+        <v>265</v>
+      </c>
+      <c r="H39" s="11">
+        <v>265</v>
+      </c>
+      <c r="I39" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>model_all_8_8_8</v>
+      </c>
+      <c r="J39" s="1">
+        <f>AVERAGE(C37:C39)</f>
+        <v>7</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" ref="K39" si="50">AVERAGE(D37:D39)</f>
+        <v>0.9373999999999999</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" ref="L39" si="51">AVERAGE(E37:E39)</f>
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" ref="M39" si="52">AVERAGE(F37:F39)</f>
+        <v>760</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" ref="N39" si="53">AVERAGE(G37:G39)</f>
+        <v>222.33333333333334</v>
+      </c>
+      <c r="W39" s="27">
+        <v>3</v>
+      </c>
+      <c r="X39" s="28">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>2504</v>
+      </c>
+      <c r="AB39" s="28">
+        <v>265</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>265</v>
+      </c>
+      <c r="AD39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE39" s="24">
+        <f>AVERAGE(X37:X39)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AF39" s="25">
+        <f t="shared" ref="AF39:AI39" si="54">AVERAGE(Y37:Y39)</f>
+        <v>0.9289333333333335</v>
+      </c>
+      <c r="AG39" s="25">
+        <f t="shared" si="54"/>
+        <v>0.93643333333333345</v>
+      </c>
+      <c r="AH39" s="26">
+        <f t="shared" si="54"/>
+        <v>1997.6666666666667</v>
+      </c>
+      <c r="AI39" s="26">
+        <f t="shared" si="54"/>
+        <v>222.33333333333334</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" s="36">
+        <v>3</v>
+      </c>
+      <c r="C40" s="13">
+        <v>6</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F40" s="13">
+        <v>589</v>
+      </c>
+      <c r="G40" s="13">
+        <v>209</v>
+      </c>
+      <c r="H40" s="13">
+        <v>209</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B41" s="37">
+        <v>3</v>
+      </c>
+      <c r="C41" s="38">
+        <v>6</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="E41" s="38">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="F41" s="38">
+        <v>585</v>
+      </c>
+      <c r="G41" s="38">
+        <v>673</v>
+      </c>
+      <c r="H41" s="38">
+        <v>673</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="1">
+        <f>AVERAGE(C40:C41)</f>
+        <v>6</v>
+      </c>
+      <c r="K41" s="2">
+        <f>AVERAGE(D40:D41)</f>
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="L41" s="2">
+        <f>AVERAGE(E40:E41)</f>
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="M41" s="3">
+        <f>AVERAGE(F40:F41)</f>
+        <v>587</v>
+      </c>
+      <c r="N41" s="3">
+        <f>AVERAGE(G40:G41)</f>
+        <v>441</v>
+      </c>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B42" s="36">
+        <v>3</v>
+      </c>
+      <c r="C42" s="13">
+        <v>10</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0.9506</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="F42" s="13">
+        <v>889</v>
+      </c>
+      <c r="G42" s="13">
+        <v>193</v>
+      </c>
+      <c r="H42" s="13">
+        <v>193</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B43" s="37">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11">
         <v>11</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D43" s="11">
         <v>0.95250000000000001</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E43" s="11">
         <v>0.95250000000000001</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F43" s="11">
         <v>967</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G43" s="11">
         <v>641</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H43" s="11">
         <v>641</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I43" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="1">
-        <f>AVERAGE(C35:C36)</f>
+      <c r="J43" s="1">
+        <f>AVERAGE(C42:C43)</f>
         <v>10.5</v>
       </c>
-      <c r="K36" s="2">
-        <f>AVERAGE(D35:D36)</f>
+      <c r="K43" s="2">
+        <f>AVERAGE(D42:D43)</f>
         <v>0.95155000000000001</v>
       </c>
-      <c r="L36" s="2">
-        <f>AVERAGE(E35:E36)</f>
+      <c r="L43" s="2">
+        <f>AVERAGE(E42:E43)</f>
         <v>0.95250000000000001</v>
       </c>
-      <c r="M36" s="3">
-        <f>AVERAGE(F35:F36)</f>
+      <c r="M43" s="3">
+        <f>AVERAGE(F42:F43)</f>
         <v>928</v>
       </c>
-      <c r="N36" s="3">
-        <f>AVERAGE(G35:G36)</f>
+      <c r="N43" s="3">
+        <f>AVERAGE(G42:G43)</f>
         <v>417</v>
       </c>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="J1:N1"/>
+  <mergeCells count="8">
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="AM10:AP10"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F32">
+  <conditionalFormatting sqref="F10:F39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -21266,7 +21421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D32">
+  <conditionalFormatting sqref="D10:D39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -21278,7 +21433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y36">
+  <conditionalFormatting sqref="Y10:Y43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -21290,7 +21445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA36">
+  <conditionalFormatting sqref="AA10:AA43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21329,11 +21484,11 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="30" t="s">
         <v>48</v>
       </c>
@@ -21360,781 +21515,781 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>analysis!I3</f>
+        <f>analysis!I10</f>
         <v>model_rgb_16</v>
       </c>
       <c r="B3">
-        <f>analysis!B3</f>
+        <f>analysis!B10</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>analysis!C3</f>
+        <f>analysis!C10</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f>analysis!D3</f>
+        <f>analysis!D10</f>
         <v>0.91479999999999995</v>
       </c>
       <c r="E3">
-        <f>analysis!F3</f>
+        <f>analysis!F10</f>
         <v>545</v>
       </c>
       <c r="F3">
-        <f>analysis!E3</f>
+        <f>analysis!E10</f>
         <v>0.9214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>analysis!I4</f>
+        <f>analysis!I11</f>
         <v>model_rgb_16_32</v>
       </c>
       <c r="B4">
-        <f>analysis!B4</f>
+        <f>analysis!B11</f>
         <v>2</v>
       </c>
       <c r="C4">
-        <f>analysis!C4</f>
+        <f>analysis!C11</f>
         <v>11</v>
       </c>
       <c r="D4">
-        <f>analysis!D4</f>
+        <f>analysis!D11</f>
         <v>0.93910000000000005</v>
       </c>
       <c r="E4">
-        <f>analysis!F4</f>
+        <f>analysis!F11</f>
         <v>884</v>
       </c>
       <c r="F4">
-        <f>analysis!E4</f>
+        <f>analysis!E11</f>
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>analysis!I5</f>
+        <f>analysis!I12</f>
         <v>model_rgb_16_32_64</v>
       </c>
       <c r="B5">
-        <f>analysis!B5</f>
+        <f>analysis!B12</f>
         <v>3</v>
       </c>
       <c r="C5">
-        <f>analysis!C5</f>
+        <f>analysis!C12</f>
         <v>7</v>
       </c>
       <c r="D5">
-        <f>analysis!D5</f>
+        <f>analysis!D12</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E5">
-        <f>analysis!F5</f>
+        <f>analysis!F12</f>
         <v>576</v>
       </c>
       <c r="F5">
-        <f>analysis!E5</f>
+        <f>analysis!E12</f>
         <v>0.93859999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>analysis!I6</f>
+        <f>analysis!I13</f>
         <v>model_rgb_16_32_64_128</v>
       </c>
       <c r="B6">
-        <f>analysis!B6</f>
+        <f>analysis!B13</f>
         <v>4</v>
       </c>
       <c r="C6">
-        <f>analysis!C6</f>
+        <f>analysis!C13</f>
         <v>7</v>
       </c>
       <c r="D6">
-        <f>analysis!D6</f>
+        <f>analysis!D13</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E6">
-        <f>analysis!F6</f>
+        <f>analysis!F13</f>
         <v>592</v>
       </c>
       <c r="F6">
-        <f>analysis!E6</f>
+        <f>analysis!E13</f>
         <v>0.93659999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>analysis!I7</f>
+        <f>analysis!I14</f>
         <v>model_rgb_16_32_64_128_256</v>
       </c>
       <c r="B7">
-        <f>analysis!B7</f>
+        <f>analysis!B14</f>
         <v>5</v>
       </c>
       <c r="C7">
-        <f>analysis!C7</f>
+        <f>analysis!C14</f>
         <v>7</v>
       </c>
       <c r="D7">
-        <f>analysis!D7</f>
+        <f>analysis!D14</f>
         <v>0.93989999999999996</v>
       </c>
       <c r="E7">
-        <f>analysis!F7</f>
+        <f>analysis!F14</f>
         <v>592</v>
       </c>
       <c r="F7">
-        <f>analysis!E7</f>
+        <f>analysis!E14</f>
         <v>0.9385</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="str">
-        <f>analysis!I8</f>
+        <f>analysis!I15</f>
         <v>model_rgb_16_32_64_128_256_512</v>
       </c>
       <c r="B8" s="32">
-        <f>analysis!B8</f>
+        <f>analysis!B15</f>
         <v>6</v>
       </c>
       <c r="C8" s="32">
-        <f>analysis!C8</f>
+        <f>analysis!C15</f>
         <v>7</v>
       </c>
       <c r="D8" s="32">
-        <f>analysis!D8</f>
+        <f>analysis!D15</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E8" s="32">
-        <f>analysis!F8</f>
+        <f>analysis!F15</f>
         <v>621</v>
       </c>
       <c r="F8" s="32">
-        <f>analysis!E8</f>
+        <f>analysis!E15</f>
         <v>0.93889999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>analysis!I9</f>
+        <f>analysis!I16</f>
         <v>model_rgb_simple_16</v>
       </c>
       <c r="B9">
-        <f>analysis!B9</f>
+        <f>analysis!B16</f>
         <v>1</v>
       </c>
       <c r="C9">
-        <f>analysis!C9</f>
+        <f>analysis!C16</f>
         <v>7</v>
       </c>
       <c r="D9">
-        <f>analysis!D9</f>
+        <f>analysis!D16</f>
         <v>0.91569999999999996</v>
       </c>
       <c r="E9">
-        <f>analysis!F9</f>
+        <f>analysis!F16</f>
         <v>741</v>
       </c>
       <c r="F9">
-        <f>analysis!E9</f>
+        <f>analysis!E16</f>
         <v>0.92269999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>analysis!I10</f>
+        <f>analysis!I17</f>
         <v>model_rgb_simple_16_32</v>
       </c>
       <c r="B10">
-        <f>analysis!B10</f>
+        <f>analysis!B17</f>
         <v>2</v>
       </c>
       <c r="C10">
-        <f>analysis!C10</f>
+        <f>analysis!C17</f>
         <v>7</v>
       </c>
       <c r="D10">
-        <f>analysis!D10</f>
+        <f>analysis!D17</f>
         <v>0.93969999999999998</v>
       </c>
       <c r="E10">
-        <f>analysis!F10</f>
+        <f>analysis!F17</f>
         <v>700</v>
       </c>
       <c r="F10">
-        <f>analysis!E10</f>
+        <f>analysis!E17</f>
         <v>0.94010000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>analysis!I11</f>
+        <f>analysis!I18</f>
         <v>model_rgb_simple_16_32_64</v>
       </c>
       <c r="B11">
-        <f>analysis!B11</f>
+        <f>analysis!B18</f>
         <v>3</v>
       </c>
       <c r="C11">
-        <f>analysis!C11</f>
+        <f>analysis!C18</f>
         <v>7</v>
       </c>
       <c r="D11">
-        <f>analysis!D11</f>
+        <f>analysis!D18</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="E11">
-        <f>analysis!F11</f>
+        <f>analysis!F18</f>
         <v>749</v>
       </c>
       <c r="F11">
-        <f>analysis!E11</f>
+        <f>analysis!E18</f>
         <v>0.94030000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>analysis!I12</f>
+        <f>analysis!I19</f>
         <v>model_rgb_simple_16_32_64_128</v>
       </c>
       <c r="B12">
-        <f>analysis!B12</f>
+        <f>analysis!B19</f>
         <v>4</v>
       </c>
       <c r="C12">
-        <f>analysis!C12</f>
+        <f>analysis!C19</f>
         <v>10</v>
       </c>
       <c r="D12">
-        <f>analysis!D12</f>
+        <f>analysis!D19</f>
         <v>0.94059999999999999</v>
       </c>
       <c r="E12">
-        <f>analysis!F12</f>
+        <f>analysis!F19</f>
         <v>1075</v>
       </c>
       <c r="F12">
-        <f>analysis!E12</f>
+        <f>analysis!E19</f>
         <v>0.94059999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>analysis!I13</f>
+        <f>analysis!I20</f>
         <v>model_rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="B13">
-        <f>analysis!B13</f>
+        <f>analysis!B20</f>
         <v>5</v>
       </c>
       <c r="C13">
-        <f>analysis!C13</f>
+        <f>analysis!C20</f>
         <v>9</v>
       </c>
       <c r="D13">
-        <f>analysis!D13</f>
+        <f>analysis!D20</f>
         <v>0.94089999999999996</v>
       </c>
       <c r="E13">
-        <f>analysis!F13</f>
+        <f>analysis!F20</f>
         <v>1009</v>
       </c>
       <c r="F13">
-        <f>analysis!E13</f>
+        <f>analysis!E20</f>
         <v>0.94089999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="str">
-        <f>analysis!I14</f>
+        <f>analysis!I21</f>
         <v>model_rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="B14" s="32">
-        <f>analysis!B14</f>
+        <f>analysis!B21</f>
         <v>6</v>
       </c>
       <c r="C14" s="32">
-        <f>analysis!C14</f>
+        <f>analysis!C21</f>
         <v>11</v>
       </c>
       <c r="D14" s="32">
-        <f>analysis!D14</f>
+        <f>analysis!D21</f>
         <v>0.94099999999999995</v>
       </c>
       <c r="E14" s="32">
-        <f>analysis!F14</f>
+        <f>analysis!F21</f>
         <v>1314</v>
       </c>
       <c r="F14" s="32">
-        <f>analysis!E14</f>
+        <f>analysis!E21</f>
         <v>0.94079999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>analysis!I15</f>
+        <f>analysis!I22</f>
         <v>all_16</v>
       </c>
       <c r="B15">
-        <f>analysis!B15</f>
+        <f>analysis!B22</f>
         <v>1</v>
       </c>
       <c r="C15">
-        <f>analysis!C15</f>
+        <f>analysis!C22</f>
         <v>11</v>
       </c>
       <c r="D15">
-        <f>analysis!D15</f>
+        <f>analysis!D22</f>
         <v>0.93140000000000001</v>
       </c>
       <c r="E15">
-        <f>analysis!F15</f>
+        <f>analysis!F22</f>
         <v>1648</v>
       </c>
       <c r="F15">
-        <f>analysis!E15</f>
+        <f>analysis!E22</f>
         <v>0.93530000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>analysis!I16</f>
+        <f>analysis!I23</f>
         <v>all_16_32</v>
       </c>
       <c r="B16">
-        <f>analysis!B16</f>
+        <f>analysis!B23</f>
         <v>2</v>
       </c>
       <c r="C16">
-        <f>analysis!C16</f>
+        <f>analysis!C23</f>
         <v>7</v>
       </c>
       <c r="D16">
-        <f>analysis!D16</f>
+        <f>analysis!D23</f>
         <v>0.93989999999999996</v>
       </c>
       <c r="E16">
-        <f>analysis!F16</f>
+        <f>analysis!F23</f>
         <v>1013</v>
       </c>
       <c r="F16">
-        <f>analysis!E16</f>
+        <f>analysis!E23</f>
         <v>0.94010000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>analysis!I17</f>
+        <f>analysis!I24</f>
         <v>all_16_32_64</v>
       </c>
       <c r="B17">
-        <f>analysis!B17</f>
+        <f>analysis!B24</f>
         <v>3</v>
       </c>
       <c r="C17">
-        <f>analysis!C17</f>
+        <f>analysis!C24</f>
         <v>7</v>
       </c>
       <c r="D17">
-        <f>analysis!D17</f>
+        <f>analysis!D24</f>
         <v>0.94040000000000001</v>
       </c>
       <c r="E17">
-        <f>analysis!F17</f>
+        <f>analysis!F24</f>
         <v>1061</v>
       </c>
       <c r="F17">
-        <f>analysis!E17</f>
+        <f>analysis!E24</f>
         <v>0.94010000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>analysis!I18</f>
+        <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
       </c>
       <c r="B18">
-        <f>analysis!B18</f>
+        <f>analysis!B25</f>
         <v>4</v>
       </c>
       <c r="C18">
-        <f>analysis!C18</f>
+        <f>analysis!C25</f>
         <v>10</v>
       </c>
       <c r="D18">
-        <f>analysis!D18</f>
+        <f>analysis!D25</f>
         <v>0.94130000000000003</v>
       </c>
       <c r="E18">
-        <f>analysis!F18</f>
+        <f>analysis!F25</f>
         <v>1505</v>
       </c>
       <c r="F18">
-        <f>analysis!E18</f>
+        <f>analysis!E25</f>
         <v>0.94130000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>analysis!I19</f>
+        <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
       </c>
       <c r="B19">
-        <f>analysis!B19</f>
+        <f>analysis!B26</f>
         <v>5</v>
       </c>
       <c r="C19">
-        <f>analysis!C19</f>
+        <f>analysis!C26</f>
         <v>13</v>
       </c>
       <c r="D19">
-        <f>analysis!D19</f>
+        <f>analysis!D26</f>
         <v>0.94220000000000004</v>
       </c>
       <c r="E19">
-        <f>analysis!F19</f>
+        <f>analysis!F26</f>
         <v>2047</v>
       </c>
       <c r="F19">
-        <f>analysis!E19</f>
+        <f>analysis!E26</f>
         <v>0.94230000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="str">
-        <f>analysis!I20</f>
+        <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
       </c>
       <c r="B20" s="32">
-        <f>analysis!B20</f>
+        <f>analysis!B27</f>
         <v>6</v>
       </c>
       <c r="C20" s="32">
-        <f>analysis!C20</f>
+        <f>analysis!C27</f>
         <v>9</v>
       </c>
       <c r="D20" s="32">
-        <f>analysis!D20</f>
+        <f>analysis!D27</f>
         <v>0.94169999999999998</v>
       </c>
       <c r="E20" s="32">
-        <f>analysis!F20</f>
+        <f>analysis!F27</f>
         <v>1455</v>
       </c>
       <c r="F20" s="32">
-        <f>analysis!E20</f>
+        <f>analysis!E27</f>
         <v>0.94179999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>analysis!I21</f>
+        <f>analysis!I28</f>
         <v>model_rgb_16_16</v>
       </c>
       <c r="B21">
-        <f>analysis!B21</f>
+        <f>analysis!B28</f>
         <v>2</v>
       </c>
       <c r="C21">
-        <f>analysis!C21</f>
+        <f>analysis!C28</f>
         <v>8</v>
       </c>
       <c r="D21">
-        <f>analysis!D21</f>
+        <f>analysis!D28</f>
         <v>0.93479999999999996</v>
       </c>
       <c r="E21">
-        <f>analysis!F21</f>
+        <f>analysis!F28</f>
         <v>624</v>
       </c>
       <c r="F21">
-        <f>analysis!E21</f>
+        <f>analysis!E28</f>
         <v>0.93859999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>analysis!I22</f>
+        <f>analysis!I29</f>
         <v>model_rgb_simple_16_16</v>
       </c>
       <c r="B22">
-        <f>analysis!B22</f>
+        <f>analysis!B29</f>
         <v>2</v>
       </c>
       <c r="C22">
-        <f>analysis!C22</f>
+        <f>analysis!C29</f>
         <v>7</v>
       </c>
       <c r="D22">
-        <f>analysis!D22</f>
+        <f>analysis!D29</f>
         <v>0.93879999999999997</v>
       </c>
       <c r="E22">
-        <f>analysis!F22</f>
+        <f>analysis!F29</f>
         <v>724</v>
       </c>
       <c r="F22">
-        <f>analysis!E22</f>
+        <f>analysis!E29</f>
         <v>0.94</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="str">
-        <f>analysis!I23</f>
+        <f>analysis!I30</f>
         <v>model_all_16_16</v>
       </c>
       <c r="B23" s="32">
-        <f>analysis!B23</f>
+        <f>analysis!B30</f>
         <v>2</v>
       </c>
       <c r="C23" s="32">
-        <f>analysis!C23</f>
+        <f>analysis!C30</f>
         <v>7</v>
       </c>
       <c r="D23" s="32">
-        <f>analysis!D23</f>
+        <f>analysis!D30</f>
         <v>0.94</v>
       </c>
       <c r="E23" s="32">
-        <f>analysis!F23</f>
+        <f>analysis!F30</f>
         <v>1033</v>
       </c>
       <c r="F23" s="32">
-        <f>analysis!E23</f>
+        <f>analysis!E30</f>
         <v>0.94030000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>analysis!I24</f>
+        <f>analysis!I31</f>
         <v>model_rgb_16_16_16</v>
       </c>
       <c r="B24">
-        <f>analysis!B24</f>
+        <f>analysis!B31</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>analysis!C24</f>
+        <f>analysis!C31</f>
         <v>7</v>
       </c>
       <c r="D24">
-        <f>analysis!D24</f>
+        <f>analysis!D31</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="E24">
-        <f>analysis!F24</f>
+        <f>analysis!F31</f>
         <v>513</v>
       </c>
       <c r="F24">
-        <f>analysis!E24</f>
+        <f>analysis!E31</f>
         <v>0.93879999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>analysis!I25</f>
+        <f>analysis!I32</f>
         <v>model_rgb_simple_16_16_16</v>
       </c>
       <c r="B25">
-        <f>analysis!B25</f>
+        <f>analysis!B32</f>
         <v>3</v>
       </c>
       <c r="C25">
-        <f>analysis!C25</f>
+        <f>analysis!C32</f>
         <v>7</v>
       </c>
       <c r="D25">
-        <f>analysis!D25</f>
+        <f>analysis!D32</f>
         <v>0.94</v>
       </c>
       <c r="E25">
-        <f>analysis!F25</f>
+        <f>analysis!F32</f>
         <v>742</v>
       </c>
       <c r="F25">
-        <f>analysis!E25</f>
+        <f>analysis!E32</f>
         <v>0.94040000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="str">
-        <f>analysis!I26</f>
+        <f>analysis!I33</f>
         <v>model_all_16_16_16</v>
       </c>
       <c r="B26" s="32">
-        <f>analysis!B26</f>
+        <f>analysis!B33</f>
         <v>3</v>
       </c>
       <c r="C26" s="32">
-        <f>analysis!C26</f>
+        <f>analysis!C33</f>
         <v>7</v>
       </c>
       <c r="D26" s="32">
-        <f>analysis!D26</f>
+        <f>analysis!D33</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="E26" s="32">
-        <f>analysis!F26</f>
+        <f>analysis!F33</f>
         <v>1018</v>
       </c>
       <c r="F26" s="32">
-        <f>analysis!E26</f>
+        <f>analysis!E33</f>
         <v>0.94030000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>analysis!I27</f>
+        <f>analysis!I34</f>
         <v>model_rgb_8_8</v>
       </c>
       <c r="B27">
-        <f>analysis!B27</f>
+        <f>analysis!B34</f>
         <v>2</v>
       </c>
       <c r="C27">
-        <f>analysis!C27</f>
+        <f>analysis!C34</f>
         <v>11</v>
       </c>
       <c r="D27">
-        <f>analysis!D27</f>
+        <f>analysis!D34</f>
         <v>0.85650000000000004</v>
       </c>
       <c r="E27">
-        <f>analysis!F27</f>
+        <f>analysis!F34</f>
         <v>850</v>
       </c>
       <c r="F27">
-        <f>analysis!E27</f>
+        <f>analysis!E34</f>
         <v>0.89449999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>analysis!I28</f>
+        <f>analysis!I35</f>
         <v>model_rgb_simple_8_8</v>
       </c>
       <c r="B28">
-        <f>analysis!B28</f>
+        <f>analysis!B35</f>
         <v>2</v>
       </c>
       <c r="C28">
-        <f>analysis!C28</f>
+        <f>analysis!C35</f>
         <v>11</v>
       </c>
       <c r="D28">
-        <f>analysis!D28</f>
+        <f>analysis!D35</f>
         <v>0.92589999999999995</v>
       </c>
       <c r="E28">
-        <f>analysis!F28</f>
+        <f>analysis!F35</f>
         <v>1154</v>
       </c>
       <c r="F28">
-        <f>analysis!E28</f>
+        <f>analysis!E35</f>
         <v>0.93859999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="str">
-        <f>analysis!I29</f>
+        <f>analysis!I36</f>
         <v>model_all_8_8</v>
       </c>
       <c r="B29" s="32">
-        <f>analysis!B29</f>
+        <f>analysis!B36</f>
         <v>2</v>
       </c>
       <c r="C29" s="32">
-        <f>analysis!C29</f>
+        <f>analysis!C36</f>
         <v>7</v>
       </c>
       <c r="D29" s="32">
-        <f>analysis!D29</f>
+        <f>analysis!D36</f>
         <v>0.92610000000000003</v>
       </c>
       <c r="E29" s="32">
-        <f>analysis!F29</f>
+        <f>analysis!F36</f>
         <v>1037</v>
       </c>
       <c r="F29" s="32">
-        <f>analysis!E29</f>
+        <f>analysis!E36</f>
         <v>0.93869999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>analysis!I30</f>
+        <f>analysis!I37</f>
         <v>model_rgb_8_8_8</v>
       </c>
       <c r="B30">
-        <f>analysis!B30</f>
+        <f>analysis!B37</f>
         <v>3</v>
       </c>
       <c r="C30">
-        <f>analysis!C30</f>
+        <f>analysis!C37</f>
         <v>7</v>
       </c>
       <c r="D30">
-        <f>analysis!D30</f>
+        <f>analysis!D37</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="E30">
-        <f>analysis!F30</f>
+        <f>analysis!F37</f>
         <v>536</v>
       </c>
       <c r="F30">
-        <f>analysis!E30</f>
+        <f>analysis!E37</f>
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>analysis!I31</f>
+        <f>analysis!I38</f>
         <v>model_rgb_simple_8_8_8</v>
       </c>
       <c r="B31">
-        <f>analysis!B31</f>
+        <f>analysis!B38</f>
         <v>3</v>
       </c>
       <c r="C31">
-        <f>analysis!C31</f>
+        <f>analysis!C38</f>
         <v>7</v>
       </c>
       <c r="D31">
-        <f>analysis!D31</f>
+        <f>analysis!D38</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="E31">
-        <f>analysis!F31</f>
+        <f>analysis!F38</f>
         <v>733</v>
       </c>
       <c r="F31">
-        <f>analysis!E31</f>
+        <f>analysis!E38</f>
         <v>0.94020000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>analysis!I32</f>
+        <f>analysis!I39</f>
         <v>model_all_8_8_8</v>
       </c>
       <c r="B32">
-        <f>analysis!B32</f>
+        <f>analysis!B39</f>
         <v>3</v>
       </c>
       <c r="C32">
-        <f>analysis!C32</f>
+        <f>analysis!C39</f>
         <v>7</v>
       </c>
       <c r="D32">
-        <f>analysis!D32</f>
+        <f>analysis!D39</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="E32">
-        <f>analysis!F32</f>
+        <f>analysis!F39</f>
         <v>1011</v>
       </c>
       <c r="F32">
-        <f>analysis!E32</f>
+        <f>analysis!E39</f>
         <v>0.94</v>
       </c>
     </row>
@@ -22193,18 +22348,18 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -22234,27 +22389,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>analysis!I3</f>
+        <f>analysis!I10</f>
         <v>model_rgb_16</v>
       </c>
       <c r="B3">
-        <f>analysis!B3</f>
+        <f>analysis!B10</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>analysis!C3</f>
+        <f>analysis!C10</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f>analysis!D3</f>
+        <f>analysis!D10</f>
         <v>0.91479999999999995</v>
       </c>
       <c r="E3">
-        <f>analysis!F3</f>
+        <f>analysis!F10</f>
         <v>545</v>
       </c>
       <c r="F3">
-        <f>analysis!E3</f>
+        <f>analysis!E10</f>
         <v>0.9214</v>
       </c>
       <c r="G3" s="34"/>
@@ -22262,27 +22417,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>analysis!I4</f>
+        <f>analysis!I11</f>
         <v>model_rgb_16_32</v>
       </c>
       <c r="B4">
-        <f>analysis!B4</f>
+        <f>analysis!B11</f>
         <v>2</v>
       </c>
       <c r="C4">
-        <f>analysis!C4</f>
+        <f>analysis!C11</f>
         <v>11</v>
       </c>
       <c r="D4">
-        <f>analysis!D4</f>
+        <f>analysis!D11</f>
         <v>0.93910000000000005</v>
       </c>
       <c r="E4">
-        <f>analysis!F4</f>
+        <f>analysis!F11</f>
         <v>884</v>
       </c>
       <c r="F4">
-        <f>analysis!E4</f>
+        <f>analysis!E11</f>
         <v>0.93799999999999994</v>
       </c>
       <c r="G4" s="34"/>
@@ -22290,27 +22445,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>analysis!I5</f>
+        <f>analysis!I12</f>
         <v>model_rgb_16_32_64</v>
       </c>
       <c r="B5">
-        <f>analysis!B5</f>
+        <f>analysis!B12</f>
         <v>3</v>
       </c>
       <c r="C5">
-        <f>analysis!C5</f>
+        <f>analysis!C12</f>
         <v>7</v>
       </c>
       <c r="D5">
-        <f>analysis!D5</f>
+        <f>analysis!D12</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E5">
-        <f>analysis!F5</f>
+        <f>analysis!F12</f>
         <v>576</v>
       </c>
       <c r="F5">
-        <f>analysis!E5</f>
+        <f>analysis!E12</f>
         <v>0.93859999999999999</v>
       </c>
       <c r="G5" s="34"/>
@@ -22318,27 +22473,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>analysis!I6</f>
+        <f>analysis!I13</f>
         <v>model_rgb_16_32_64_128</v>
       </c>
       <c r="B6">
-        <f>analysis!B6</f>
+        <f>analysis!B13</f>
         <v>4</v>
       </c>
       <c r="C6">
-        <f>analysis!C6</f>
+        <f>analysis!C13</f>
         <v>7</v>
       </c>
       <c r="D6">
-        <f>analysis!D6</f>
+        <f>analysis!D13</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E6">
-        <f>analysis!F6</f>
+        <f>analysis!F13</f>
         <v>592</v>
       </c>
       <c r="F6">
-        <f>analysis!E6</f>
+        <f>analysis!E13</f>
         <v>0.93659999999999999</v>
       </c>
       <c r="G6" s="34"/>
@@ -22346,27 +22501,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>analysis!I7</f>
+        <f>analysis!I14</f>
         <v>model_rgb_16_32_64_128_256</v>
       </c>
       <c r="B7">
-        <f>analysis!B7</f>
+        <f>analysis!B14</f>
         <v>5</v>
       </c>
       <c r="C7">
-        <f>analysis!C7</f>
+        <f>analysis!C14</f>
         <v>7</v>
       </c>
       <c r="D7">
-        <f>analysis!D7</f>
+        <f>analysis!D14</f>
         <v>0.93989999999999996</v>
       </c>
       <c r="E7">
-        <f>analysis!F7</f>
+        <f>analysis!F14</f>
         <v>592</v>
       </c>
       <c r="F7">
-        <f>analysis!E7</f>
+        <f>analysis!E14</f>
         <v>0.9385</v>
       </c>
       <c r="G7" s="34"/>
@@ -22374,27 +22529,27 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="str">
-        <f>analysis!I8</f>
+        <f>analysis!I15</f>
         <v>model_rgb_16_32_64_128_256_512</v>
       </c>
       <c r="B8" s="32">
-        <f>analysis!B8</f>
+        <f>analysis!B15</f>
         <v>6</v>
       </c>
       <c r="C8" s="32">
-        <f>analysis!C8</f>
+        <f>analysis!C15</f>
         <v>7</v>
       </c>
       <c r="D8" s="32">
-        <f>analysis!D8</f>
+        <f>analysis!D15</f>
         <v>0.93979999999999997</v>
       </c>
       <c r="E8" s="32">
-        <f>analysis!F8</f>
+        <f>analysis!F15</f>
         <v>621</v>
       </c>
       <c r="F8" s="32">
-        <f>analysis!E8</f>
+        <f>analysis!E15</f>
         <v>0.93889999999999996</v>
       </c>
       <c r="G8" s="34"/>
@@ -22402,27 +22557,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>analysis!I9</f>
+        <f>analysis!I16</f>
         <v>model_rgb_simple_16</v>
       </c>
       <c r="B9">
-        <f>analysis!B9</f>
+        <f>analysis!B16</f>
         <v>1</v>
       </c>
       <c r="C9">
-        <f>analysis!C9</f>
+        <f>analysis!C16</f>
         <v>7</v>
       </c>
       <c r="D9">
-        <f>analysis!D9</f>
+        <f>analysis!D16</f>
         <v>0.91569999999999996</v>
       </c>
       <c r="E9">
-        <f>analysis!F9</f>
+        <f>analysis!F16</f>
         <v>741</v>
       </c>
       <c r="F9">
-        <f>analysis!E9</f>
+        <f>analysis!E16</f>
         <v>0.92269999999999996</v>
       </c>
       <c r="G9" s="34"/>
@@ -22430,27 +22585,27 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>analysis!I10</f>
+        <f>analysis!I17</f>
         <v>model_rgb_simple_16_32</v>
       </c>
       <c r="B10">
-        <f>analysis!B10</f>
+        <f>analysis!B17</f>
         <v>2</v>
       </c>
       <c r="C10">
-        <f>analysis!C10</f>
+        <f>analysis!C17</f>
         <v>7</v>
       </c>
       <c r="D10">
-        <f>analysis!D10</f>
+        <f>analysis!D17</f>
         <v>0.93969999999999998</v>
       </c>
       <c r="E10">
-        <f>analysis!F10</f>
+        <f>analysis!F17</f>
         <v>700</v>
       </c>
       <c r="F10">
-        <f>analysis!E10</f>
+        <f>analysis!E17</f>
         <v>0.94010000000000005</v>
       </c>
       <c r="G10" s="34"/>
@@ -22458,27 +22613,27 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>analysis!I11</f>
+        <f>analysis!I18</f>
         <v>model_rgb_simple_16_32_64</v>
       </c>
       <c r="B11">
-        <f>analysis!B11</f>
+        <f>analysis!B18</f>
         <v>3</v>
       </c>
       <c r="C11">
-        <f>analysis!C11</f>
+        <f>analysis!C18</f>
         <v>7</v>
       </c>
       <c r="D11">
-        <f>analysis!D11</f>
+        <f>analysis!D18</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="E11">
-        <f>analysis!F11</f>
+        <f>analysis!F18</f>
         <v>749</v>
       </c>
       <c r="F11">
-        <f>analysis!E11</f>
+        <f>analysis!E18</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="G11" s="34"/>
@@ -22486,27 +22641,27 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>analysis!I12</f>
+        <f>analysis!I19</f>
         <v>model_rgb_simple_16_32_64_128</v>
       </c>
       <c r="B12">
-        <f>analysis!B12</f>
+        <f>analysis!B19</f>
         <v>4</v>
       </c>
       <c r="C12">
-        <f>analysis!C12</f>
+        <f>analysis!C19</f>
         <v>10</v>
       </c>
       <c r="D12">
-        <f>analysis!D12</f>
+        <f>analysis!D19</f>
         <v>0.94059999999999999</v>
       </c>
       <c r="E12">
-        <f>analysis!F12</f>
+        <f>analysis!F19</f>
         <v>1075</v>
       </c>
       <c r="F12">
-        <f>analysis!E12</f>
+        <f>analysis!E19</f>
         <v>0.94059999999999999</v>
       </c>
       <c r="G12" s="34"/>
@@ -22514,27 +22669,27 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>analysis!I13</f>
+        <f>analysis!I20</f>
         <v>model_rgb_simple_16_32_64_128_256</v>
       </c>
       <c r="B13">
-        <f>analysis!B13</f>
+        <f>analysis!B20</f>
         <v>5</v>
       </c>
       <c r="C13">
-        <f>analysis!C13</f>
+        <f>analysis!C20</f>
         <v>9</v>
       </c>
       <c r="D13">
-        <f>analysis!D13</f>
+        <f>analysis!D20</f>
         <v>0.94089999999999996</v>
       </c>
       <c r="E13">
-        <f>analysis!F13</f>
+        <f>analysis!F20</f>
         <v>1009</v>
       </c>
       <c r="F13">
-        <f>analysis!E13</f>
+        <f>analysis!E20</f>
         <v>0.94089999999999996</v>
       </c>
       <c r="G13" s="34"/>
@@ -22542,27 +22697,27 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="str">
-        <f>analysis!I14</f>
+        <f>analysis!I21</f>
         <v>model_rgb_simple_16_32_64_128_256_512</v>
       </c>
       <c r="B14" s="32">
-        <f>analysis!B14</f>
+        <f>analysis!B21</f>
         <v>6</v>
       </c>
       <c r="C14" s="32">
-        <f>analysis!C14</f>
+        <f>analysis!C21</f>
         <v>11</v>
       </c>
       <c r="D14" s="32">
-        <f>analysis!D14</f>
+        <f>analysis!D21</f>
         <v>0.94099999999999995</v>
       </c>
       <c r="E14" s="32">
-        <f>analysis!F14</f>
+        <f>analysis!F21</f>
         <v>1314</v>
       </c>
       <c r="F14" s="32">
-        <f>analysis!E14</f>
+        <f>analysis!E21</f>
         <v>0.94079999999999997</v>
       </c>
       <c r="G14" s="34"/>
@@ -22570,27 +22725,27 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>analysis!I15</f>
+        <f>analysis!I22</f>
         <v>all_16</v>
       </c>
       <c r="B15">
-        <f>analysis!B15</f>
+        <f>analysis!B22</f>
         <v>1</v>
       </c>
       <c r="C15">
-        <f>analysis!C15</f>
+        <f>analysis!C22</f>
         <v>11</v>
       </c>
       <c r="D15">
-        <f>analysis!D15</f>
+        <f>analysis!D22</f>
         <v>0.93140000000000001</v>
       </c>
       <c r="E15">
-        <f>analysis!F15</f>
+        <f>analysis!F22</f>
         <v>1648</v>
       </c>
       <c r="F15">
-        <f>analysis!E15</f>
+        <f>analysis!E22</f>
         <v>0.93530000000000002</v>
       </c>
       <c r="G15" s="34">
@@ -22602,27 +22757,27 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>analysis!I16</f>
+        <f>analysis!I23</f>
         <v>all_16_32</v>
       </c>
       <c r="B16">
-        <f>analysis!B16</f>
+        <f>analysis!B23</f>
         <v>2</v>
       </c>
       <c r="C16">
-        <f>analysis!C16</f>
+        <f>analysis!C23</f>
         <v>7</v>
       </c>
       <c r="D16">
-        <f>analysis!D16</f>
+        <f>analysis!D23</f>
         <v>0.93989999999999996</v>
       </c>
       <c r="E16">
-        <f>analysis!F16</f>
+        <f>analysis!F23</f>
         <v>1013</v>
       </c>
       <c r="F16">
-        <f>analysis!E16</f>
+        <f>analysis!E23</f>
         <v>0.94010000000000005</v>
       </c>
       <c r="G16" s="34">
@@ -22634,27 +22789,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>analysis!I17</f>
+        <f>analysis!I24</f>
         <v>all_16_32_64</v>
       </c>
       <c r="B17">
-        <f>analysis!B17</f>
+        <f>analysis!B24</f>
         <v>3</v>
       </c>
       <c r="C17">
-        <f>analysis!C17</f>
+        <f>analysis!C24</f>
         <v>7</v>
       </c>
       <c r="D17">
-        <f>analysis!D17</f>
+        <f>analysis!D24</f>
         <v>0.94040000000000001</v>
       </c>
       <c r="E17">
-        <f>analysis!F17</f>
+        <f>analysis!F24</f>
         <v>1061</v>
       </c>
       <c r="F17">
-        <f>analysis!E17</f>
+        <f>analysis!E24</f>
         <v>0.94010000000000005</v>
       </c>
       <c r="G17" s="34">
@@ -22666,27 +22821,27 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>analysis!I18</f>
+        <f>analysis!I25</f>
         <v>all_16_32_64_128</v>
       </c>
       <c r="B18">
-        <f>analysis!B18</f>
+        <f>analysis!B25</f>
         <v>4</v>
       </c>
       <c r="C18">
-        <f>analysis!C18</f>
+        <f>analysis!C25</f>
         <v>10</v>
       </c>
       <c r="D18">
-        <f>analysis!D18</f>
+        <f>analysis!D25</f>
         <v>0.94130000000000003</v>
       </c>
       <c r="E18">
-        <f>analysis!F18</f>
+        <f>analysis!F25</f>
         <v>1505</v>
       </c>
       <c r="F18">
-        <f>analysis!E18</f>
+        <f>analysis!E25</f>
         <v>0.94130000000000003</v>
       </c>
       <c r="G18" s="34">
@@ -22698,27 +22853,27 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>analysis!I19</f>
+        <f>analysis!I26</f>
         <v>all_16_32_64_128_256</v>
       </c>
       <c r="B19">
-        <f>analysis!B19</f>
+        <f>analysis!B26</f>
         <v>5</v>
       </c>
       <c r="C19">
-        <f>analysis!C19</f>
+        <f>analysis!C26</f>
         <v>13</v>
       </c>
       <c r="D19">
-        <f>analysis!D19</f>
+        <f>analysis!D26</f>
         <v>0.94220000000000004</v>
       </c>
       <c r="E19">
-        <f>analysis!F19</f>
+        <f>analysis!F26</f>
         <v>2047</v>
       </c>
       <c r="F19">
-        <f>analysis!E19</f>
+        <f>analysis!E26</f>
         <v>0.94230000000000003</v>
       </c>
       <c r="G19" s="34">
@@ -22730,27 +22885,27 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="str">
-        <f>analysis!I20</f>
+        <f>analysis!I27</f>
         <v>all_16_32_64_128_256_512</v>
       </c>
       <c r="B20" s="32">
-        <f>analysis!B20</f>
+        <f>analysis!B27</f>
         <v>6</v>
       </c>
       <c r="C20" s="32">
-        <f>analysis!C20</f>
+        <f>analysis!C27</f>
         <v>9</v>
       </c>
       <c r="D20" s="32">
-        <f>analysis!D20</f>
+        <f>analysis!D27</f>
         <v>0.94169999999999998</v>
       </c>
       <c r="E20" s="32">
-        <f>analysis!F20</f>
+        <f>analysis!F27</f>
         <v>1455</v>
       </c>
       <c r="F20" s="32">
-        <f>analysis!E20</f>
+        <f>analysis!E27</f>
         <v>0.94179999999999997</v>
       </c>
       <c r="G20" s="34">
@@ -22762,27 +22917,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>analysis!I21</f>
+        <f>analysis!I28</f>
         <v>model_rgb_16_16</v>
       </c>
       <c r="B21">
-        <f>analysis!B21</f>
+        <f>analysis!B28</f>
         <v>2</v>
       </c>
       <c r="C21">
-        <f>analysis!C21</f>
+        <f>analysis!C28</f>
         <v>8</v>
       </c>
       <c r="D21">
-        <f>analysis!D21</f>
+        <f>analysis!D28</f>
         <v>0.93479999999999996</v>
       </c>
       <c r="E21">
-        <f>analysis!F21</f>
+        <f>analysis!F28</f>
         <v>624</v>
       </c>
       <c r="F21">
-        <f>analysis!E21</f>
+        <f>analysis!E28</f>
         <v>0.93859999999999999</v>
       </c>
       <c r="G21" s="34">
@@ -22794,27 +22949,27 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>analysis!I22</f>
+        <f>analysis!I29</f>
         <v>model_rgb_simple_16_16</v>
       </c>
       <c r="B22">
-        <f>analysis!B22</f>
+        <f>analysis!B29</f>
         <v>2</v>
       </c>
       <c r="C22">
-        <f>analysis!C22</f>
+        <f>analysis!C29</f>
         <v>7</v>
       </c>
       <c r="D22">
-        <f>analysis!D22</f>
+        <f>analysis!D29</f>
         <v>0.93879999999999997</v>
       </c>
       <c r="E22">
-        <f>analysis!F22</f>
+        <f>analysis!F29</f>
         <v>724</v>
       </c>
       <c r="F22">
-        <f>analysis!E22</f>
+        <f>analysis!E29</f>
         <v>0.94</v>
       </c>
       <c r="G22" s="34">
@@ -22826,27 +22981,27 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="str">
-        <f>analysis!I23</f>
+        <f>analysis!I30</f>
         <v>model_all_16_16</v>
       </c>
       <c r="B23" s="32">
-        <f>analysis!B23</f>
+        <f>analysis!B30</f>
         <v>2</v>
       </c>
       <c r="C23" s="32">
-        <f>analysis!C23</f>
+        <f>analysis!C30</f>
         <v>7</v>
       </c>
       <c r="D23" s="32">
-        <f>analysis!D23</f>
+        <f>analysis!D30</f>
         <v>0.94</v>
       </c>
       <c r="E23" s="32">
-        <f>analysis!F23</f>
+        <f>analysis!F30</f>
         <v>1033</v>
       </c>
       <c r="F23" s="32">
-        <f>analysis!E23</f>
+        <f>analysis!E30</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="G23" s="34">
@@ -22858,27 +23013,27 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>analysis!I24</f>
+        <f>analysis!I31</f>
         <v>model_rgb_16_16_16</v>
       </c>
       <c r="B24">
-        <f>analysis!B24</f>
+        <f>analysis!B31</f>
         <v>3</v>
       </c>
       <c r="C24">
-        <f>analysis!C24</f>
+        <f>analysis!C31</f>
         <v>7</v>
       </c>
       <c r="D24">
-        <f>analysis!D24</f>
+        <f>analysis!D31</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="E24">
-        <f>analysis!F24</f>
+        <f>analysis!F31</f>
         <v>513</v>
       </c>
       <c r="F24">
-        <f>analysis!E24</f>
+        <f>analysis!E31</f>
         <v>0.93879999999999997</v>
       </c>
       <c r="G24" s="34">
@@ -22890,27 +23045,27 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>analysis!I25</f>
+        <f>analysis!I32</f>
         <v>model_rgb_simple_16_16_16</v>
       </c>
       <c r="B25">
-        <f>analysis!B25</f>
+        <f>analysis!B32</f>
         <v>3</v>
       </c>
       <c r="C25">
-        <f>analysis!C25</f>
+        <f>analysis!C32</f>
         <v>7</v>
       </c>
       <c r="D25">
-        <f>analysis!D25</f>
+        <f>analysis!D32</f>
         <v>0.94</v>
       </c>
       <c r="E25">
-        <f>analysis!F25</f>
+        <f>analysis!F32</f>
         <v>742</v>
       </c>
       <c r="F25">
-        <f>analysis!E25</f>
+        <f>analysis!E32</f>
         <v>0.94040000000000001</v>
       </c>
       <c r="G25" s="34">
@@ -22922,27 +23077,27 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="str">
-        <f>analysis!I26</f>
+        <f>analysis!I33</f>
         <v>model_all_16_16_16</v>
       </c>
       <c r="B26" s="32">
-        <f>analysis!B26</f>
+        <f>analysis!B33</f>
         <v>3</v>
       </c>
       <c r="C26" s="32">
-        <f>analysis!C26</f>
+        <f>analysis!C33</f>
         <v>7</v>
       </c>
       <c r="D26" s="32">
-        <f>analysis!D26</f>
+        <f>analysis!D33</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="E26" s="32">
-        <f>analysis!F26</f>
+        <f>analysis!F33</f>
         <v>1018</v>
       </c>
       <c r="F26" s="32">
-        <f>analysis!E26</f>
+        <f>analysis!E33</f>
         <v>0.94030000000000002</v>
       </c>
       <c r="G26" s="34">
@@ -22954,27 +23109,27 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>analysis!I27</f>
+        <f>analysis!I34</f>
         <v>model_rgb_8_8</v>
       </c>
       <c r="B27">
-        <f>analysis!B27</f>
+        <f>analysis!B34</f>
         <v>2</v>
       </c>
       <c r="C27">
-        <f>analysis!C27</f>
+        <f>analysis!C34</f>
         <v>11</v>
       </c>
       <c r="D27">
-        <f>analysis!D27</f>
+        <f>analysis!D34</f>
         <v>0.85650000000000004</v>
       </c>
       <c r="E27">
-        <f>analysis!F27</f>
+        <f>analysis!F34</f>
         <v>850</v>
       </c>
       <c r="F27">
-        <f>analysis!E27</f>
+        <f>analysis!E34</f>
         <v>0.89449999999999996</v>
       </c>
       <c r="G27" s="34">
@@ -22986,27 +23141,27 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>analysis!I28</f>
+        <f>analysis!I35</f>
         <v>model_rgb_simple_8_8</v>
       </c>
       <c r="B28">
-        <f>analysis!B28</f>
+        <f>analysis!B35</f>
         <v>2</v>
       </c>
       <c r="C28">
-        <f>analysis!C28</f>
+        <f>analysis!C35</f>
         <v>11</v>
       </c>
       <c r="D28">
-        <f>analysis!D28</f>
+        <f>analysis!D35</f>
         <v>0.92589999999999995</v>
       </c>
       <c r="E28">
-        <f>analysis!F28</f>
+        <f>analysis!F35</f>
         <v>1154</v>
       </c>
       <c r="F28">
-        <f>analysis!E28</f>
+        <f>analysis!E35</f>
         <v>0.93859999999999999</v>
       </c>
       <c r="G28" s="34">
@@ -23018,27 +23173,27 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="str">
-        <f>analysis!I29</f>
+        <f>analysis!I36</f>
         <v>model_all_8_8</v>
       </c>
       <c r="B29" s="32">
-        <f>analysis!B29</f>
+        <f>analysis!B36</f>
         <v>2</v>
       </c>
       <c r="C29" s="32">
-        <f>analysis!C29</f>
+        <f>analysis!C36</f>
         <v>7</v>
       </c>
       <c r="D29" s="32">
-        <f>analysis!D29</f>
+        <f>analysis!D36</f>
         <v>0.92610000000000003</v>
       </c>
       <c r="E29" s="32">
-        <f>analysis!F29</f>
+        <f>analysis!F36</f>
         <v>1037</v>
       </c>
       <c r="F29" s="32">
-        <f>analysis!E29</f>
+        <f>analysis!E36</f>
         <v>0.93869999999999998</v>
       </c>
       <c r="G29" s="34">
@@ -23050,27 +23205,27 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>analysis!I30</f>
+        <f>analysis!I37</f>
         <v>model_rgb_8_8_8</v>
       </c>
       <c r="B30">
-        <f>analysis!B30</f>
+        <f>analysis!B37</f>
         <v>3</v>
       </c>
       <c r="C30">
-        <f>analysis!C30</f>
+        <f>analysis!C37</f>
         <v>7</v>
       </c>
       <c r="D30">
-        <f>analysis!D30</f>
+        <f>analysis!D37</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="E30">
-        <f>analysis!F30</f>
+        <f>analysis!F37</f>
         <v>536</v>
       </c>
       <c r="F30">
-        <f>analysis!E30</f>
+        <f>analysis!E37</f>
         <v>0.93799999999999994</v>
       </c>
       <c r="G30" s="34">
@@ -23082,27 +23237,27 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>analysis!I31</f>
+        <f>analysis!I38</f>
         <v>model_rgb_simple_8_8_8</v>
       </c>
       <c r="B31">
-        <f>analysis!B31</f>
+        <f>analysis!B38</f>
         <v>3</v>
       </c>
       <c r="C31">
-        <f>analysis!C31</f>
+        <f>analysis!C38</f>
         <v>7</v>
       </c>
       <c r="D31">
-        <f>analysis!D31</f>
+        <f>analysis!D38</f>
         <v>0.93940000000000001</v>
       </c>
       <c r="E31">
-        <f>analysis!F31</f>
+        <f>analysis!F38</f>
         <v>733</v>
       </c>
       <c r="F31">
-        <f>analysis!E31</f>
+        <f>analysis!E38</f>
         <v>0.94020000000000004</v>
       </c>
       <c r="G31" s="34">
@@ -23114,27 +23269,27 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>analysis!I32</f>
+        <f>analysis!I39</f>
         <v>model_all_8_8_8</v>
       </c>
       <c r="B32">
-        <f>analysis!B32</f>
+        <f>analysis!B39</f>
         <v>3</v>
       </c>
       <c r="C32">
-        <f>analysis!C32</f>
+        <f>analysis!C39</f>
         <v>7</v>
       </c>
       <c r="D32">
-        <f>analysis!D32</f>
+        <f>analysis!D39</f>
         <v>0.93640000000000001</v>
       </c>
       <c r="E32">
-        <f>analysis!F32</f>
+        <f>analysis!F39</f>
         <v>1011</v>
       </c>
       <c r="F32">
-        <f>analysis!E32</f>
+        <f>analysis!E39</f>
         <v>0.94</v>
       </c>
       <c r="G32" s="34">
@@ -23195,20 +23350,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
